--- a/Problems/Dynamic Programming.xlsx
+++ b/Problems/Dynamic Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DC82B-FC72-4196-94F8-59E6C16678EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43961BA2-23F9-4BAB-84AA-C57AB3967992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -621,6 +621,31 @@
       <t xml:space="preserve"> it is a problem from a2oj ladder . </t>
     </r>
   </si>
+  <si>
+    <t>06.07.21</t>
+  </si>
+  <si>
+    <t>Parsa's Humongous Tree</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are given a tree of n nodes . In each node two values l and r are attached to it. You have to assign each node a value a[v] which is  l[v] &lt;= a[v] &lt;= r[v]. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You have to calculate for each edge abs(a[v] - a[u]) and sum them for all edge . You have to maximize this number. </t>
+    </r>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1528/submission/121501166</t>
+  </si>
 </sst>
 </file>
 
@@ -808,19 +833,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,11 +844,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1380,7 +1405,7 @@
   <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:E91"/>
+      <selection activeCell="F92" sqref="F92:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,9 +1467,9 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="17"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1453,9 +1478,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
@@ -1464,9 +1489,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -1475,9 +1500,9 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -1486,9 +1511,9 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -1497,9 +1522,9 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1508,9 +1533,9 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -1519,9 +1544,9 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
@@ -1530,9 +1555,9 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -1545,7 +1570,7 @@
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1557,7 +1582,7 @@
       <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -1568,7 +1593,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1579,7 +1604,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -1590,7 +1615,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -1601,7 +1626,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -1612,7 +1637,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -1623,7 +1648,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -1634,7 +1659,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -1645,7 +1670,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -1660,7 +1685,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1671,7 +1696,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1682,7 +1707,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -1693,7 +1718,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -1704,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -1715,7 +1740,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
@@ -1726,7 +1751,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -1737,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -1748,7 +1773,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
@@ -1773,7 +1798,7 @@
       <c r="H29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -1784,7 +1809,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -1795,7 +1820,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
@@ -1806,7 +1831,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1817,7 +1842,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1828,7 +1853,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="17"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
@@ -1839,7 +1864,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
@@ -1850,7 +1875,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -1861,7 +1886,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
@@ -1886,7 +1911,7 @@
       <c r="H38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
@@ -1897,7 +1922,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="17"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
@@ -1908,7 +1933,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="17"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -1919,7 +1944,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="17"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1930,7 +1955,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="17"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -1941,7 +1966,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="17"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
@@ -1952,7 +1977,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="17"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
@@ -1963,7 +1988,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
@@ -1974,7 +1999,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="17"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
@@ -1986,18 +2011,18 @@
       <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -2008,7 +2033,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -2019,7 +2044,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="17"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
@@ -2030,7 +2055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="17"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
@@ -2041,7 +2066,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="17"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
@@ -2052,7 +2077,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -2063,7 +2088,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -2074,7 +2099,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
@@ -2085,7 +2110,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
@@ -2108,7 +2133,7 @@
         <v>37</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
@@ -2119,7 +2144,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="17"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
@@ -2130,7 +2155,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -2141,7 +2166,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="17"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
@@ -2152,7 +2177,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="17"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
@@ -2163,7 +2188,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="17"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
@@ -2174,7 +2199,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="17"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -2185,7 +2210,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="17"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
@@ -2196,7 +2221,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="17"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
@@ -2215,7 +2240,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2228,7 +2253,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="17"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
@@ -2239,7 +2264,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="17"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -2250,7 +2275,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="17"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
@@ -2261,7 +2286,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="17"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
@@ -2272,7 +2297,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="17"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
@@ -2283,7 +2308,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="17"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
@@ -2294,7 +2319,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="17"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2305,7 +2330,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="17"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
@@ -2317,7 +2342,7 @@
       <c r="C74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -2330,7 +2355,7 @@
       <c r="H74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I74" s="17"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
@@ -2341,7 +2366,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="17"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
@@ -2352,7 +2377,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="17"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -2363,7 +2388,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="17"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
@@ -2374,7 +2399,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="17"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
@@ -2385,7 +2410,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="17"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
@@ -2396,7 +2421,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="17"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -2407,7 +2432,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="17"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
@@ -2418,7 +2443,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="17"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
@@ -2430,20 +2455,20 @@
       <c r="C83" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="17"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -2454,7 +2479,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="17"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
@@ -2465,7 +2490,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="17"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -2476,7 +2501,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="17"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
@@ -2487,7 +2512,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="17"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
@@ -2498,7 +2523,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="17"/>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
@@ -2509,7 +2534,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
@@ -2520,7 +2545,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
@@ -2531,20 +2556,28 @@
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>11</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8"/>
+      <c r="B92" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="17"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -2555,7 +2588,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="17"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
@@ -2566,7 +2599,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="17"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
@@ -2577,7 +2610,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="17"/>
+      <c r="I95" s="10"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
@@ -2588,7 +2621,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="17"/>
+      <c r="I96" s="10"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -2599,7 +2632,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="17"/>
+      <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
@@ -2610,7 +2643,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="17"/>
+      <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
@@ -2621,7 +2654,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="17"/>
+      <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
@@ -2632,7 +2665,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="10"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
@@ -2645,7 +2678,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="17"/>
+      <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
@@ -2656,7 +2689,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="17"/>
+      <c r="I102" s="10"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
@@ -2667,7 +2700,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="17"/>
+      <c r="I103" s="10"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -2678,7 +2711,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="17"/>
+      <c r="I104" s="10"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
@@ -2689,7 +2722,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="17"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
@@ -2700,7 +2733,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="17"/>
+      <c r="I106" s="10"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
@@ -2711,7 +2744,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="17"/>
+      <c r="I107" s="10"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
@@ -2722,7 +2755,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="17"/>
+      <c r="I108" s="10"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
@@ -2733,7 +2766,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="17"/>
+      <c r="I109" s="10"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
@@ -2746,7 +2779,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="17"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
@@ -2757,7 +2790,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="17"/>
+      <c r="I111" s="10"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
@@ -2768,7 +2801,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="17"/>
+      <c r="I112" s="10"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
@@ -2779,7 +2812,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
       <c r="H113" s="8"/>
-      <c r="I113" s="17"/>
+      <c r="I113" s="10"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
@@ -2790,7 +2823,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="17"/>
+      <c r="I114" s="10"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
@@ -2801,7 +2834,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="9"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="17"/>
+      <c r="I115" s="10"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
@@ -2812,7 +2845,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="17"/>
+      <c r="I116" s="10"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
@@ -2823,7 +2856,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="9"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="17"/>
+      <c r="I117" s="10"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
@@ -2834,7 +2867,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="17"/>
+      <c r="I118" s="10"/>
     </row>
     <row r="119" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
@@ -2847,7 +2880,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="9"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="17"/>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
@@ -2858,7 +2891,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="17"/>
+      <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
@@ -2869,7 +2902,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="9"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="17"/>
+      <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
@@ -2880,7 +2913,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="17"/>
+      <c r="I122" s="10"/>
     </row>
     <row r="123" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
@@ -2891,7 +2924,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="9"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="17"/>
+      <c r="I123" s="10"/>
     </row>
     <row r="124" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
@@ -2902,7 +2935,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="17"/>
+      <c r="I124" s="10"/>
     </row>
     <row r="125" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
@@ -2913,7 +2946,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="9"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="17"/>
+      <c r="I125" s="10"/>
     </row>
     <row r="126" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
@@ -2924,7 +2957,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="17"/>
+      <c r="I126" s="10"/>
     </row>
     <row r="127" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
@@ -2935,7 +2968,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="17"/>
+      <c r="I127" s="10"/>
     </row>
     <row r="128" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
@@ -2948,7 +2981,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="17"/>
+      <c r="I128" s="10"/>
     </row>
     <row r="129" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
@@ -2959,7 +2992,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="17"/>
+      <c r="I129" s="10"/>
     </row>
     <row r="130" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
@@ -2970,7 +3003,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="17"/>
+      <c r="I130" s="10"/>
     </row>
     <row r="131" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
@@ -2981,7 +3014,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="9"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="17"/>
+      <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
@@ -2992,7 +3025,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="17"/>
+      <c r="I132" s="10"/>
     </row>
     <row r="133" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
@@ -3003,7 +3036,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="17"/>
+      <c r="I133" s="10"/>
     </row>
     <row r="134" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
@@ -3014,7 +3047,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="17"/>
+      <c r="I134" s="10"/>
     </row>
     <row r="135" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
@@ -3025,7 +3058,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="17"/>
+      <c r="I135" s="10"/>
     </row>
     <row r="136" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
@@ -3036,1991 +3069,1991 @@
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="17"/>
+      <c r="I136" s="10"/>
     </row>
     <row r="137" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>16</v>
       </c>
-      <c r="B137" s="15"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="9"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="10"/>
+      <c r="E137" s="18"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="15"/>
+      <c r="G137" s="12"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="17"/>
+      <c r="I137" s="10"/>
     </row>
     <row r="138" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="9"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="10"/>
+      <c r="E138" s="18"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="15"/>
+      <c r="G138" s="12"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="17"/>
+      <c r="I138" s="10"/>
     </row>
     <row r="139" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="9"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="10"/>
+      <c r="E139" s="18"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="15"/>
+      <c r="G139" s="12"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="17"/>
+      <c r="I139" s="10"/>
     </row>
     <row r="140" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="9"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="10"/>
+      <c r="E140" s="18"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="15"/>
+      <c r="G140" s="12"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="17"/>
+      <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="9"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="10"/>
+      <c r="E141" s="18"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="15"/>
+      <c r="G141" s="12"/>
       <c r="H141" s="8"/>
-      <c r="I141" s="17"/>
+      <c r="I141" s="10"/>
     </row>
     <row r="142" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="9"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="10"/>
+      <c r="E142" s="18"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="15"/>
+      <c r="G142" s="12"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="17"/>
+      <c r="I142" s="10"/>
     </row>
     <row r="143" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="9"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="10"/>
+      <c r="E143" s="18"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="15"/>
+      <c r="G143" s="12"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="17"/>
+      <c r="I143" s="10"/>
     </row>
     <row r="144" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="9"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="10"/>
+      <c r="E144" s="18"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="15"/>
+      <c r="G144" s="12"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="17"/>
+      <c r="I144" s="10"/>
     </row>
     <row r="145" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="9"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="10"/>
+      <c r="E145" s="18"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="15"/>
+      <c r="G145" s="12"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="17"/>
+      <c r="I145" s="10"/>
     </row>
     <row r="146" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>17</v>
       </c>
-      <c r="B146" s="15"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="9"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="10"/>
+      <c r="E146" s="18"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="15"/>
+      <c r="G146" s="12"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="17"/>
+      <c r="I146" s="10"/>
     </row>
     <row r="147" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="9"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="10"/>
+      <c r="E147" s="18"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="15"/>
+      <c r="G147" s="12"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="17"/>
+      <c r="I147" s="10"/>
     </row>
     <row r="148" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="9"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="10"/>
+      <c r="E148" s="18"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="15"/>
+      <c r="G148" s="12"/>
       <c r="H148" s="8"/>
-      <c r="I148" s="17"/>
+      <c r="I148" s="10"/>
     </row>
     <row r="149" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="9"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="10"/>
+      <c r="E149" s="18"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="15"/>
+      <c r="G149" s="12"/>
       <c r="H149" s="8"/>
-      <c r="I149" s="17"/>
+      <c r="I149" s="10"/>
     </row>
     <row r="150" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="9"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="10"/>
+      <c r="E150" s="18"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="15"/>
+      <c r="G150" s="12"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="17"/>
+      <c r="I150" s="10"/>
     </row>
     <row r="151" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="10"/>
+      <c r="E151" s="18"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="15"/>
+      <c r="G151" s="12"/>
       <c r="H151" s="8"/>
-      <c r="I151" s="17"/>
+      <c r="I151" s="10"/>
     </row>
     <row r="152" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="9"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="10"/>
+      <c r="E152" s="18"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="15"/>
+      <c r="G152" s="12"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="17"/>
+      <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="9"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="10"/>
+      <c r="E153" s="18"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="15"/>
+      <c r="G153" s="12"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="17"/>
+      <c r="I153" s="10"/>
     </row>
     <row r="154" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="9"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="10"/>
+      <c r="E154" s="18"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="15"/>
+      <c r="G154" s="12"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="17"/>
+      <c r="I154" s="10"/>
     </row>
     <row r="155" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>18</v>
       </c>
-      <c r="B155" s="15"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="9"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="10"/>
+      <c r="E155" s="18"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="15"/>
+      <c r="G155" s="12"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="17"/>
+      <c r="I155" s="10"/>
     </row>
     <row r="156" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="9"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="10"/>
+      <c r="E156" s="18"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="15"/>
+      <c r="G156" s="12"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="17"/>
+      <c r="I156" s="10"/>
     </row>
     <row r="157" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="9"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="10"/>
+      <c r="E157" s="18"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="15"/>
+      <c r="G157" s="12"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="17"/>
+      <c r="I157" s="10"/>
     </row>
     <row r="158" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="9"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="10"/>
+      <c r="E158" s="18"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="15"/>
+      <c r="G158" s="12"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="17"/>
+      <c r="I158" s="10"/>
     </row>
     <row r="159" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="9"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="10"/>
+      <c r="E159" s="18"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="15"/>
+      <c r="G159" s="12"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="17"/>
+      <c r="I159" s="10"/>
     </row>
     <row r="160" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="9"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="10"/>
+      <c r="E160" s="18"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="15"/>
+      <c r="G160" s="12"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="17"/>
+      <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="9"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="10"/>
+      <c r="E161" s="18"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="15"/>
+      <c r="G161" s="12"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="17"/>
+      <c r="I161" s="10"/>
     </row>
     <row r="162" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="9"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="10"/>
+      <c r="E162" s="18"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="15"/>
+      <c r="G162" s="12"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="17"/>
+      <c r="I162" s="10"/>
     </row>
     <row r="163" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="9"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="10"/>
+      <c r="E163" s="18"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="15"/>
+      <c r="G163" s="12"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="17"/>
+      <c r="I163" s="10"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>19</v>
       </c>
-      <c r="B164" s="15"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="9"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="10"/>
+      <c r="E164" s="18"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="15"/>
+      <c r="G164" s="12"/>
       <c r="H164" s="8"/>
-      <c r="I164" s="17"/>
+      <c r="I164" s="10"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="9"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="10"/>
+      <c r="E165" s="18"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="15"/>
+      <c r="G165" s="12"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="17"/>
+      <c r="I165" s="10"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="9"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="10"/>
+      <c r="E166" s="18"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="15"/>
+      <c r="G166" s="12"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="17"/>
+      <c r="I166" s="10"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="9"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="10"/>
+      <c r="E167" s="18"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="15"/>
+      <c r="G167" s="12"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="17"/>
+      <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="9"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="10"/>
+      <c r="E168" s="18"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="15"/>
+      <c r="G168" s="12"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="17"/>
+      <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="9"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="10"/>
+      <c r="E169" s="18"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="15"/>
+      <c r="G169" s="12"/>
       <c r="H169" s="8"/>
-      <c r="I169" s="17"/>
+      <c r="I169" s="10"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="9"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="10"/>
+      <c r="E170" s="18"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="15"/>
+      <c r="G170" s="12"/>
       <c r="H170" s="8"/>
-      <c r="I170" s="17"/>
+      <c r="I170" s="10"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="9"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="10"/>
+      <c r="E171" s="18"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="15"/>
+      <c r="G171" s="12"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="17"/>
+      <c r="I171" s="10"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="9"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="10"/>
+      <c r="E172" s="18"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="15"/>
+      <c r="G172" s="12"/>
       <c r="H172" s="8"/>
-      <c r="I172" s="17"/>
+      <c r="I172" s="10"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>20</v>
       </c>
-      <c r="B173" s="15"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="9"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="10"/>
+      <c r="E173" s="18"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="15"/>
+      <c r="G173" s="12"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="17"/>
+      <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="9"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="10"/>
+      <c r="E174" s="18"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="15"/>
+      <c r="G174" s="12"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="17"/>
+      <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="9"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="10"/>
+      <c r="E175" s="18"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="15"/>
+      <c r="G175" s="12"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="17"/>
+      <c r="I175" s="10"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="9"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="10"/>
+      <c r="E176" s="18"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="15"/>
+      <c r="G176" s="12"/>
       <c r="H176" s="8"/>
-      <c r="I176" s="17"/>
+      <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="9"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="10"/>
+      <c r="E177" s="18"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="15"/>
+      <c r="G177" s="12"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="17"/>
+      <c r="I177" s="10"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="9"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="10"/>
+      <c r="E178" s="18"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="15"/>
+      <c r="G178" s="12"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="17"/>
+      <c r="I178" s="10"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="9"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="10"/>
+      <c r="E179" s="18"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="15"/>
+      <c r="G179" s="12"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="17"/>
+      <c r="I179" s="10"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="9"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="10"/>
+      <c r="E180" s="18"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="15"/>
+      <c r="G180" s="12"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="17"/>
+      <c r="I180" s="10"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="9"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="10"/>
+      <c r="E181" s="18"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="15"/>
+      <c r="G181" s="12"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="17"/>
+      <c r="I181" s="10"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>21</v>
       </c>
-      <c r="B182" s="15"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="9"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="10"/>
+      <c r="E182" s="18"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="15"/>
+      <c r="G182" s="12"/>
       <c r="H182" s="8"/>
-      <c r="I182" s="17"/>
+      <c r="I182" s="10"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="9"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="10"/>
+      <c r="E183" s="18"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="15"/>
+      <c r="G183" s="12"/>
       <c r="H183" s="8"/>
-      <c r="I183" s="17"/>
+      <c r="I183" s="10"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="9"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="10"/>
+      <c r="E184" s="18"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="15"/>
+      <c r="G184" s="12"/>
       <c r="H184" s="8"/>
-      <c r="I184" s="17"/>
+      <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="9"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="10"/>
+      <c r="E185" s="18"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="15"/>
+      <c r="G185" s="12"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="17"/>
+      <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="9"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="10"/>
+      <c r="E186" s="18"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="15"/>
+      <c r="G186" s="12"/>
       <c r="H186" s="8"/>
-      <c r="I186" s="17"/>
+      <c r="I186" s="10"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="9"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="10"/>
+      <c r="E187" s="18"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="15"/>
+      <c r="G187" s="12"/>
       <c r="H187" s="8"/>
-      <c r="I187" s="17"/>
+      <c r="I187" s="10"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="9"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="10"/>
+      <c r="E188" s="18"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="15"/>
+      <c r="G188" s="12"/>
       <c r="H188" s="8"/>
-      <c r="I188" s="17"/>
+      <c r="I188" s="10"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="9"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="10"/>
+      <c r="E189" s="18"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="15"/>
+      <c r="G189" s="12"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="17"/>
+      <c r="I189" s="10"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="9"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="10"/>
+      <c r="E190" s="18"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="15"/>
+      <c r="G190" s="12"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="17"/>
+      <c r="I190" s="10"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>22</v>
       </c>
-      <c r="B191" s="15"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="9"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="10"/>
+      <c r="E191" s="18"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="15"/>
+      <c r="G191" s="12"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="17"/>
+      <c r="I191" s="10"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="9"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="10"/>
+      <c r="E192" s="18"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="15"/>
+      <c r="G192" s="12"/>
       <c r="H192" s="8"/>
-      <c r="I192" s="17"/>
+      <c r="I192" s="10"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="9"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="10"/>
+      <c r="E193" s="18"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="15"/>
+      <c r="G193" s="12"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="17"/>
+      <c r="I193" s="10"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="9"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="10"/>
+      <c r="E194" s="18"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="15"/>
+      <c r="G194" s="12"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="17"/>
+      <c r="I194" s="10"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="9"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="10"/>
+      <c r="E195" s="18"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="15"/>
+      <c r="G195" s="12"/>
       <c r="H195" s="8"/>
-      <c r="I195" s="17"/>
+      <c r="I195" s="10"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="9"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="10"/>
+      <c r="E196" s="18"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="15"/>
+      <c r="G196" s="12"/>
       <c r="H196" s="8"/>
-      <c r="I196" s="17"/>
+      <c r="I196" s="10"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="9"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="10"/>
+      <c r="E197" s="18"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="15"/>
+      <c r="G197" s="12"/>
       <c r="H197" s="8"/>
-      <c r="I197" s="17"/>
+      <c r="I197" s="10"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="9"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="10"/>
+      <c r="E198" s="18"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="15"/>
+      <c r="G198" s="12"/>
       <c r="H198" s="8"/>
-      <c r="I198" s="17"/>
+      <c r="I198" s="10"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="9"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="10"/>
+      <c r="E199" s="18"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="15"/>
+      <c r="G199" s="12"/>
       <c r="H199" s="8"/>
-      <c r="I199" s="17"/>
+      <c r="I199" s="10"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>23</v>
       </c>
-      <c r="B200" s="15"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="9"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="10"/>
+      <c r="E200" s="18"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="15"/>
+      <c r="G200" s="12"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="9"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="10"/>
+      <c r="E201" s="18"/>
       <c r="F201" s="8"/>
-      <c r="G201" s="15"/>
+      <c r="G201" s="12"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="9"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="10"/>
+      <c r="E202" s="18"/>
       <c r="F202" s="8"/>
-      <c r="G202" s="15"/>
+      <c r="G202" s="12"/>
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="9"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="10"/>
+      <c r="E203" s="18"/>
       <c r="F203" s="8"/>
-      <c r="G203" s="15"/>
+      <c r="G203" s="12"/>
       <c r="H203" s="8"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="9"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="10"/>
+      <c r="E204" s="18"/>
       <c r="F204" s="8"/>
-      <c r="G204" s="15"/>
+      <c r="G204" s="12"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="9"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="10"/>
+      <c r="E205" s="18"/>
       <c r="F205" s="8"/>
-      <c r="G205" s="15"/>
+      <c r="G205" s="12"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="9"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="10"/>
+      <c r="E206" s="18"/>
       <c r="F206" s="8"/>
-      <c r="G206" s="15"/>
+      <c r="G206" s="12"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="9"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="10"/>
+      <c r="E207" s="18"/>
       <c r="F207" s="8"/>
-      <c r="G207" s="15"/>
+      <c r="G207" s="12"/>
       <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="9"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="10"/>
+      <c r="E208" s="18"/>
       <c r="F208" s="8"/>
-      <c r="G208" s="15"/>
+      <c r="G208" s="12"/>
       <c r="H208" s="8"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>24</v>
       </c>
-      <c r="B209" s="15"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="9"/>
       <c r="D209" s="7"/>
-      <c r="E209" s="10"/>
+      <c r="E209" s="18"/>
       <c r="F209" s="8"/>
-      <c r="G209" s="15"/>
+      <c r="G209" s="12"/>
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="9"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="10"/>
+      <c r="E210" s="18"/>
       <c r="F210" s="8"/>
-      <c r="G210" s="15"/>
+      <c r="G210" s="12"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="9"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="10"/>
+      <c r="E211" s="18"/>
       <c r="F211" s="8"/>
-      <c r="G211" s="15"/>
+      <c r="G211" s="12"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="9"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="10"/>
+      <c r="E212" s="18"/>
       <c r="F212" s="8"/>
-      <c r="G212" s="15"/>
+      <c r="G212" s="12"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="9"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="10"/>
+      <c r="E213" s="18"/>
       <c r="F213" s="8"/>
-      <c r="G213" s="15"/>
+      <c r="G213" s="12"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="9"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="10"/>
+      <c r="E214" s="18"/>
       <c r="F214" s="8"/>
-      <c r="G214" s="15"/>
+      <c r="G214" s="12"/>
       <c r="H214" s="8"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="9"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="10"/>
+      <c r="E215" s="18"/>
       <c r="F215" s="8"/>
-      <c r="G215" s="15"/>
+      <c r="G215" s="12"/>
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="9"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="10"/>
+      <c r="E216" s="18"/>
       <c r="F216" s="8"/>
-      <c r="G216" s="15"/>
+      <c r="G216" s="12"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="12"/>
       <c r="C217" s="9"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="10"/>
+      <c r="E217" s="18"/>
       <c r="F217" s="8"/>
-      <c r="G217" s="15"/>
+      <c r="G217" s="12"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>25</v>
       </c>
-      <c r="B218" s="15"/>
+      <c r="B218" s="12"/>
       <c r="C218" s="9"/>
       <c r="D218" s="7"/>
-      <c r="E218" s="10"/>
+      <c r="E218" s="18"/>
       <c r="F218" s="8"/>
-      <c r="G218" s="15"/>
+      <c r="G218" s="12"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="12"/>
       <c r="C219" s="9"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="10"/>
+      <c r="E219" s="18"/>
       <c r="F219" s="8"/>
-      <c r="G219" s="15"/>
+      <c r="G219" s="12"/>
       <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="9"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="10"/>
+      <c r="E220" s="18"/>
       <c r="F220" s="8"/>
-      <c r="G220" s="15"/>
+      <c r="G220" s="12"/>
       <c r="H220" s="8"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="12"/>
       <c r="C221" s="9"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="10"/>
+      <c r="E221" s="18"/>
       <c r="F221" s="8"/>
-      <c r="G221" s="15"/>
+      <c r="G221" s="12"/>
       <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="12"/>
       <c r="C222" s="9"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="10"/>
+      <c r="E222" s="18"/>
       <c r="F222" s="8"/>
-      <c r="G222" s="15"/>
+      <c r="G222" s="12"/>
       <c r="H222" s="8"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="9"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="10"/>
+      <c r="E223" s="18"/>
       <c r="F223" s="8"/>
-      <c r="G223" s="15"/>
+      <c r="G223" s="12"/>
       <c r="H223" s="8"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="12"/>
       <c r="C224" s="9"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="10"/>
+      <c r="E224" s="18"/>
       <c r="F224" s="8"/>
-      <c r="G224" s="15"/>
+      <c r="G224" s="12"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="9"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="10"/>
+      <c r="E225" s="18"/>
       <c r="F225" s="8"/>
-      <c r="G225" s="15"/>
+      <c r="G225" s="12"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="12"/>
       <c r="C226" s="9"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="10"/>
+      <c r="E226" s="18"/>
       <c r="F226" s="8"/>
-      <c r="G226" s="15"/>
+      <c r="G226" s="12"/>
       <c r="H226" s="8"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>26</v>
       </c>
-      <c r="B227" s="15"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="9"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="10"/>
+      <c r="E227" s="18"/>
       <c r="F227" s="8"/>
-      <c r="G227" s="15"/>
+      <c r="G227" s="12"/>
       <c r="H227" s="8"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="12"/>
       <c r="C228" s="9"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="10"/>
+      <c r="E228" s="18"/>
       <c r="F228" s="8"/>
-      <c r="G228" s="15"/>
+      <c r="G228" s="12"/>
       <c r="H228" s="8"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="9"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="10"/>
+      <c r="E229" s="18"/>
       <c r="F229" s="8"/>
-      <c r="G229" s="15"/>
+      <c r="G229" s="12"/>
       <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="9"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="10"/>
+      <c r="E230" s="18"/>
       <c r="F230" s="8"/>
-      <c r="G230" s="15"/>
+      <c r="G230" s="12"/>
       <c r="H230" s="8"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="12"/>
       <c r="C231" s="9"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="10"/>
+      <c r="E231" s="18"/>
       <c r="F231" s="8"/>
-      <c r="G231" s="15"/>
+      <c r="G231" s="12"/>
       <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="12"/>
       <c r="C232" s="9"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="10"/>
+      <c r="E232" s="18"/>
       <c r="F232" s="8"/>
-      <c r="G232" s="15"/>
+      <c r="G232" s="12"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="9"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="10"/>
+      <c r="E233" s="18"/>
       <c r="F233" s="8"/>
-      <c r="G233" s="15"/>
+      <c r="G233" s="12"/>
       <c r="H233" s="8"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="9"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="10"/>
+      <c r="E234" s="18"/>
       <c r="F234" s="8"/>
-      <c r="G234" s="15"/>
+      <c r="G234" s="12"/>
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="9"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="10"/>
+      <c r="E235" s="18"/>
       <c r="F235" s="8"/>
-      <c r="G235" s="15"/>
+      <c r="G235" s="12"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>27</v>
       </c>
-      <c r="B236" s="15"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="9"/>
       <c r="D236" s="7"/>
-      <c r="E236" s="10"/>
+      <c r="E236" s="18"/>
       <c r="F236" s="8"/>
-      <c r="G236" s="15"/>
+      <c r="G236" s="12"/>
       <c r="H236" s="8"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="9"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="10"/>
+      <c r="E237" s="18"/>
       <c r="F237" s="8"/>
-      <c r="G237" s="15"/>
+      <c r="G237" s="12"/>
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="9"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="10"/>
+      <c r="E238" s="18"/>
       <c r="F238" s="8"/>
-      <c r="G238" s="15"/>
+      <c r="G238" s="12"/>
       <c r="H238" s="8"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="12"/>
       <c r="C239" s="9"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="10"/>
+      <c r="E239" s="18"/>
       <c r="F239" s="8"/>
-      <c r="G239" s="15"/>
+      <c r="G239" s="12"/>
       <c r="H239" s="8"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="12"/>
       <c r="C240" s="9"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="10"/>
+      <c r="E240" s="18"/>
       <c r="F240" s="8"/>
-      <c r="G240" s="15"/>
+      <c r="G240" s="12"/>
       <c r="H240" s="8"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="9"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="10"/>
+      <c r="E241" s="18"/>
       <c r="F241" s="8"/>
-      <c r="G241" s="15"/>
+      <c r="G241" s="12"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="12"/>
       <c r="C242" s="9"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="10"/>
+      <c r="E242" s="18"/>
       <c r="F242" s="8"/>
-      <c r="G242" s="15"/>
+      <c r="G242" s="12"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="9"/>
       <c r="D243" s="8"/>
-      <c r="E243" s="10"/>
+      <c r="E243" s="18"/>
       <c r="F243" s="8"/>
-      <c r="G243" s="15"/>
+      <c r="G243" s="12"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="9"/>
       <c r="D244" s="8"/>
-      <c r="E244" s="10"/>
+      <c r="E244" s="18"/>
       <c r="F244" s="8"/>
-      <c r="G244" s="15"/>
+      <c r="G244" s="12"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>28</v>
       </c>
-      <c r="B245" s="15"/>
+      <c r="B245" s="12"/>
       <c r="C245" s="9"/>
       <c r="D245" s="7"/>
-      <c r="E245" s="10"/>
+      <c r="E245" s="18"/>
       <c r="F245" s="8"/>
-      <c r="G245" s="15"/>
+      <c r="G245" s="12"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="12"/>
       <c r="C246" s="9"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="10"/>
+      <c r="E246" s="18"/>
       <c r="F246" s="8"/>
-      <c r="G246" s="15"/>
+      <c r="G246" s="12"/>
       <c r="H246" s="8"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="9"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="10"/>
+      <c r="E247" s="18"/>
       <c r="F247" s="8"/>
-      <c r="G247" s="15"/>
+      <c r="G247" s="12"/>
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="9"/>
       <c r="D248" s="8"/>
-      <c r="E248" s="10"/>
+      <c r="E248" s="18"/>
       <c r="F248" s="8"/>
-      <c r="G248" s="15"/>
+      <c r="G248" s="12"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="12"/>
       <c r="C249" s="9"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="10"/>
+      <c r="E249" s="18"/>
       <c r="F249" s="8"/>
-      <c r="G249" s="15"/>
+      <c r="G249" s="12"/>
       <c r="H249" s="8"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="9"/>
       <c r="D250" s="8"/>
-      <c r="E250" s="10"/>
+      <c r="E250" s="18"/>
       <c r="F250" s="8"/>
-      <c r="G250" s="15"/>
+      <c r="G250" s="12"/>
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="9"/>
       <c r="D251" s="8"/>
-      <c r="E251" s="10"/>
+      <c r="E251" s="18"/>
       <c r="F251" s="8"/>
-      <c r="G251" s="15"/>
+      <c r="G251" s="12"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="12"/>
       <c r="C252" s="9"/>
       <c r="D252" s="8"/>
-      <c r="E252" s="10"/>
+      <c r="E252" s="18"/>
       <c r="F252" s="8"/>
-      <c r="G252" s="15"/>
+      <c r="G252" s="12"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="12"/>
       <c r="C253" s="9"/>
       <c r="D253" s="8"/>
-      <c r="E253" s="10"/>
+      <c r="E253" s="18"/>
       <c r="F253" s="8"/>
-      <c r="G253" s="15"/>
+      <c r="G253" s="12"/>
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>29</v>
       </c>
-      <c r="B254" s="15"/>
+      <c r="B254" s="12"/>
       <c r="C254" s="9"/>
       <c r="D254" s="7"/>
-      <c r="E254" s="10"/>
+      <c r="E254" s="18"/>
       <c r="F254" s="8"/>
-      <c r="G254" s="15"/>
+      <c r="G254" s="12"/>
       <c r="H254" s="8"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="12"/>
       <c r="C255" s="9"/>
       <c r="D255" s="8"/>
-      <c r="E255" s="10"/>
+      <c r="E255" s="18"/>
       <c r="F255" s="8"/>
-      <c r="G255" s="15"/>
+      <c r="G255" s="12"/>
       <c r="H255" s="8"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="12"/>
       <c r="C256" s="9"/>
       <c r="D256" s="8"/>
-      <c r="E256" s="10"/>
+      <c r="E256" s="18"/>
       <c r="F256" s="8"/>
-      <c r="G256" s="15"/>
+      <c r="G256" s="12"/>
       <c r="H256" s="8"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="9"/>
       <c r="D257" s="8"/>
-      <c r="E257" s="10"/>
+      <c r="E257" s="18"/>
       <c r="F257" s="8"/>
-      <c r="G257" s="15"/>
+      <c r="G257" s="12"/>
       <c r="H257" s="8"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="12"/>
       <c r="C258" s="9"/>
       <c r="D258" s="8"/>
-      <c r="E258" s="10"/>
+      <c r="E258" s="18"/>
       <c r="F258" s="8"/>
-      <c r="G258" s="15"/>
+      <c r="G258" s="12"/>
       <c r="H258" s="8"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="12"/>
       <c r="C259" s="9"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="10"/>
+      <c r="E259" s="18"/>
       <c r="F259" s="8"/>
-      <c r="G259" s="15"/>
+      <c r="G259" s="12"/>
       <c r="H259" s="8"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
-      <c r="B260" s="15"/>
+      <c r="B260" s="12"/>
       <c r="C260" s="9"/>
       <c r="D260" s="8"/>
-      <c r="E260" s="10"/>
+      <c r="E260" s="18"/>
       <c r="F260" s="8"/>
-      <c r="G260" s="15"/>
+      <c r="G260" s="12"/>
       <c r="H260" s="8"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
-      <c r="B261" s="15"/>
+      <c r="B261" s="12"/>
       <c r="C261" s="9"/>
       <c r="D261" s="8"/>
-      <c r="E261" s="10"/>
+      <c r="E261" s="18"/>
       <c r="F261" s="8"/>
-      <c r="G261" s="15"/>
+      <c r="G261" s="12"/>
       <c r="H261" s="8"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
-      <c r="B262" s="15"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="9"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="10"/>
+      <c r="E262" s="18"/>
       <c r="F262" s="8"/>
-      <c r="G262" s="15"/>
+      <c r="G262" s="12"/>
       <c r="H262" s="8"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>30</v>
       </c>
-      <c r="B263" s="15"/>
+      <c r="B263" s="12"/>
       <c r="C263" s="9"/>
       <c r="D263" s="7"/>
-      <c r="E263" s="10"/>
+      <c r="E263" s="18"/>
       <c r="F263" s="8"/>
-      <c r="G263" s="15"/>
+      <c r="G263" s="12"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
-      <c r="B264" s="15"/>
+      <c r="B264" s="12"/>
       <c r="C264" s="9"/>
       <c r="D264" s="8"/>
-      <c r="E264" s="10"/>
+      <c r="E264" s="18"/>
       <c r="F264" s="8"/>
-      <c r="G264" s="15"/>
+      <c r="G264" s="12"/>
       <c r="H264" s="8"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
-      <c r="B265" s="15"/>
+      <c r="B265" s="12"/>
       <c r="C265" s="9"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="10"/>
+      <c r="E265" s="18"/>
       <c r="F265" s="8"/>
-      <c r="G265" s="15"/>
+      <c r="G265" s="12"/>
       <c r="H265" s="8"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="12"/>
       <c r="C266" s="9"/>
       <c r="D266" s="8"/>
-      <c r="E266" s="10"/>
+      <c r="E266" s="18"/>
       <c r="F266" s="8"/>
-      <c r="G266" s="15"/>
+      <c r="G266" s="12"/>
       <c r="H266" s="8"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="12"/>
       <c r="C267" s="9"/>
       <c r="D267" s="8"/>
-      <c r="E267" s="10"/>
+      <c r="E267" s="18"/>
       <c r="F267" s="8"/>
-      <c r="G267" s="15"/>
+      <c r="G267" s="12"/>
       <c r="H267" s="8"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="12"/>
       <c r="C268" s="9"/>
       <c r="D268" s="8"/>
-      <c r="E268" s="10"/>
+      <c r="E268" s="18"/>
       <c r="F268" s="8"/>
-      <c r="G268" s="15"/>
+      <c r="G268" s="12"/>
       <c r="H268" s="8"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="12"/>
       <c r="C269" s="9"/>
       <c r="D269" s="8"/>
-      <c r="E269" s="10"/>
+      <c r="E269" s="18"/>
       <c r="F269" s="8"/>
-      <c r="G269" s="15"/>
+      <c r="G269" s="12"/>
       <c r="H269" s="8"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
-      <c r="B270" s="15"/>
+      <c r="B270" s="12"/>
       <c r="C270" s="9"/>
       <c r="D270" s="8"/>
-      <c r="E270" s="10"/>
+      <c r="E270" s="18"/>
       <c r="F270" s="8"/>
-      <c r="G270" s="15"/>
+      <c r="G270" s="12"/>
       <c r="H270" s="8"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="12"/>
       <c r="C271" s="9"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="10"/>
+      <c r="E271" s="18"/>
       <c r="F271" s="8"/>
-      <c r="G271" s="15"/>
+      <c r="G271" s="12"/>
       <c r="H271" s="8"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>31</v>
       </c>
-      <c r="B272" s="15"/>
+      <c r="B272" s="12"/>
       <c r="C272" s="9"/>
       <c r="D272" s="7"/>
-      <c r="E272" s="10"/>
+      <c r="E272" s="18"/>
       <c r="F272" s="8"/>
-      <c r="G272" s="15"/>
+      <c r="G272" s="12"/>
       <c r="H272" s="8"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="9"/>
       <c r="D273" s="8"/>
-      <c r="E273" s="10"/>
+      <c r="E273" s="18"/>
       <c r="F273" s="8"/>
-      <c r="G273" s="15"/>
+      <c r="G273" s="12"/>
       <c r="H273" s="8"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="9"/>
       <c r="D274" s="8"/>
-      <c r="E274" s="10"/>
+      <c r="E274" s="18"/>
       <c r="F274" s="8"/>
-      <c r="G274" s="15"/>
+      <c r="G274" s="12"/>
       <c r="H274" s="8"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="12"/>
       <c r="C275" s="9"/>
       <c r="D275" s="8"/>
-      <c r="E275" s="10"/>
+      <c r="E275" s="18"/>
       <c r="F275" s="8"/>
-      <c r="G275" s="15"/>
+      <c r="G275" s="12"/>
       <c r="H275" s="8"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
-      <c r="B276" s="15"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="9"/>
       <c r="D276" s="8"/>
-      <c r="E276" s="10"/>
+      <c r="E276" s="18"/>
       <c r="F276" s="8"/>
-      <c r="G276" s="15"/>
+      <c r="G276" s="12"/>
       <c r="H276" s="8"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="12"/>
       <c r="C277" s="9"/>
       <c r="D277" s="8"/>
-      <c r="E277" s="10"/>
+      <c r="E277" s="18"/>
       <c r="F277" s="8"/>
-      <c r="G277" s="15"/>
+      <c r="G277" s="12"/>
       <c r="H277" s="8"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="9"/>
       <c r="D278" s="8"/>
-      <c r="E278" s="10"/>
+      <c r="E278" s="18"/>
       <c r="F278" s="8"/>
-      <c r="G278" s="15"/>
+      <c r="G278" s="12"/>
       <c r="H278" s="8"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="9"/>
       <c r="D279" s="8"/>
-      <c r="E279" s="10"/>
+      <c r="E279" s="18"/>
       <c r="F279" s="8"/>
-      <c r="G279" s="15"/>
+      <c r="G279" s="12"/>
       <c r="H279" s="8"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="12"/>
       <c r="C280" s="9"/>
       <c r="D280" s="8"/>
-      <c r="E280" s="10"/>
+      <c r="E280" s="18"/>
       <c r="F280" s="8"/>
-      <c r="G280" s="15"/>
+      <c r="G280" s="12"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>32</v>
       </c>
-      <c r="B281" s="15"/>
+      <c r="B281" s="12"/>
       <c r="C281" s="9"/>
       <c r="D281" s="7"/>
-      <c r="E281" s="10"/>
+      <c r="E281" s="18"/>
       <c r="F281" s="8"/>
-      <c r="G281" s="15"/>
+      <c r="G281" s="12"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
-      <c r="B282" s="15"/>
+      <c r="B282" s="12"/>
       <c r="C282" s="9"/>
       <c r="D282" s="8"/>
-      <c r="E282" s="10"/>
+      <c r="E282" s="18"/>
       <c r="F282" s="8"/>
-      <c r="G282" s="15"/>
+      <c r="G282" s="12"/>
       <c r="H282" s="8"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
-      <c r="B283" s="15"/>
+      <c r="B283" s="12"/>
       <c r="C283" s="9"/>
       <c r="D283" s="8"/>
-      <c r="E283" s="10"/>
+      <c r="E283" s="18"/>
       <c r="F283" s="8"/>
-      <c r="G283" s="15"/>
+      <c r="G283" s="12"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
-      <c r="B284" s="15"/>
+      <c r="B284" s="12"/>
       <c r="C284" s="9"/>
       <c r="D284" s="8"/>
-      <c r="E284" s="10"/>
+      <c r="E284" s="18"/>
       <c r="F284" s="8"/>
-      <c r="G284" s="15"/>
+      <c r="G284" s="12"/>
       <c r="H284" s="8"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
-      <c r="B285" s="15"/>
+      <c r="B285" s="12"/>
       <c r="C285" s="9"/>
       <c r="D285" s="8"/>
-      <c r="E285" s="10"/>
+      <c r="E285" s="18"/>
       <c r="F285" s="8"/>
-      <c r="G285" s="15"/>
+      <c r="G285" s="12"/>
       <c r="H285" s="8"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
-      <c r="B286" s="15"/>
+      <c r="B286" s="12"/>
       <c r="C286" s="9"/>
       <c r="D286" s="8"/>
-      <c r="E286" s="10"/>
+      <c r="E286" s="18"/>
       <c r="F286" s="8"/>
-      <c r="G286" s="15"/>
+      <c r="G286" s="12"/>
       <c r="H286" s="8"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
-      <c r="B287" s="15"/>
+      <c r="B287" s="12"/>
       <c r="C287" s="9"/>
       <c r="D287" s="8"/>
-      <c r="E287" s="10"/>
+      <c r="E287" s="18"/>
       <c r="F287" s="8"/>
-      <c r="G287" s="15"/>
+      <c r="G287" s="12"/>
       <c r="H287" s="8"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
-      <c r="B288" s="15"/>
+      <c r="B288" s="12"/>
       <c r="C288" s="9"/>
       <c r="D288" s="8"/>
-      <c r="E288" s="10"/>
+      <c r="E288" s="18"/>
       <c r="F288" s="8"/>
-      <c r="G288" s="15"/>
+      <c r="G288" s="12"/>
       <c r="H288" s="8"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
-      <c r="B289" s="15"/>
+      <c r="B289" s="12"/>
       <c r="C289" s="9"/>
       <c r="D289" s="8"/>
-      <c r="E289" s="10"/>
+      <c r="E289" s="18"/>
       <c r="F289" s="8"/>
-      <c r="G289" s="15"/>
+      <c r="G289" s="12"/>
       <c r="H289" s="8"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>33</v>
       </c>
-      <c r="B290" s="15"/>
+      <c r="B290" s="12"/>
       <c r="C290" s="9"/>
       <c r="D290" s="7"/>
-      <c r="E290" s="10"/>
+      <c r="E290" s="18"/>
       <c r="F290" s="8"/>
-      <c r="G290" s="15"/>
+      <c r="G290" s="12"/>
       <c r="H290" s="8"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
-      <c r="B291" s="15"/>
+      <c r="B291" s="12"/>
       <c r="C291" s="9"/>
       <c r="D291" s="8"/>
-      <c r="E291" s="10"/>
+      <c r="E291" s="18"/>
       <c r="F291" s="8"/>
-      <c r="G291" s="15"/>
+      <c r="G291" s="12"/>
       <c r="H291" s="8"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="12"/>
       <c r="C292" s="9"/>
       <c r="D292" s="8"/>
-      <c r="E292" s="10"/>
+      <c r="E292" s="18"/>
       <c r="F292" s="8"/>
-      <c r="G292" s="15"/>
+      <c r="G292" s="12"/>
       <c r="H292" s="8"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
-      <c r="B293" s="15"/>
+      <c r="B293" s="12"/>
       <c r="C293" s="9"/>
       <c r="D293" s="8"/>
-      <c r="E293" s="10"/>
+      <c r="E293" s="18"/>
       <c r="F293" s="8"/>
-      <c r="G293" s="15"/>
+      <c r="G293" s="12"/>
       <c r="H293" s="8"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="9"/>
       <c r="D294" s="8"/>
-      <c r="E294" s="10"/>
+      <c r="E294" s="18"/>
       <c r="F294" s="8"/>
-      <c r="G294" s="15"/>
+      <c r="G294" s="12"/>
       <c r="H294" s="8"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
-      <c r="B295" s="15"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="9"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="10"/>
+      <c r="E295" s="18"/>
       <c r="F295" s="8"/>
-      <c r="G295" s="15"/>
+      <c r="G295" s="12"/>
       <c r="H295" s="8"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
-      <c r="B296" s="15"/>
+      <c r="B296" s="12"/>
       <c r="C296" s="9"/>
       <c r="D296" s="8"/>
-      <c r="E296" s="10"/>
+      <c r="E296" s="18"/>
       <c r="F296" s="8"/>
-      <c r="G296" s="15"/>
+      <c r="G296" s="12"/>
       <c r="H296" s="8"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
-      <c r="B297" s="15"/>
+      <c r="B297" s="12"/>
       <c r="C297" s="9"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="10"/>
+      <c r="E297" s="18"/>
       <c r="F297" s="8"/>
-      <c r="G297" s="15"/>
+      <c r="G297" s="12"/>
       <c r="H297" s="8"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
-      <c r="B298" s="15"/>
+      <c r="B298" s="12"/>
       <c r="C298" s="9"/>
       <c r="D298" s="8"/>
-      <c r="E298" s="10"/>
+      <c r="E298" s="18"/>
       <c r="F298" s="8"/>
-      <c r="G298" s="15"/>
+      <c r="G298" s="12"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>34</v>
       </c>
-      <c r="B299" s="15"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="9"/>
       <c r="D299" s="7"/>
-      <c r="E299" s="10"/>
+      <c r="E299" s="18"/>
       <c r="F299" s="8"/>
-      <c r="G299" s="15"/>
+      <c r="G299" s="12"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
-      <c r="B300" s="15"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="9"/>
       <c r="D300" s="8"/>
-      <c r="E300" s="10"/>
+      <c r="E300" s="18"/>
       <c r="F300" s="8"/>
-      <c r="G300" s="15"/>
+      <c r="G300" s="12"/>
       <c r="H300" s="8"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
-      <c r="B301" s="15"/>
+      <c r="B301" s="12"/>
       <c r="C301" s="9"/>
       <c r="D301" s="8"/>
-      <c r="E301" s="10"/>
+      <c r="E301" s="18"/>
       <c r="F301" s="8"/>
-      <c r="G301" s="15"/>
+      <c r="G301" s="12"/>
       <c r="H301" s="8"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
-      <c r="B302" s="15"/>
+      <c r="B302" s="12"/>
       <c r="C302" s="9"/>
       <c r="D302" s="8"/>
-      <c r="E302" s="10"/>
+      <c r="E302" s="18"/>
       <c r="F302" s="8"/>
-      <c r="G302" s="15"/>
+      <c r="G302" s="12"/>
       <c r="H302" s="8"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
-      <c r="B303" s="15"/>
+      <c r="B303" s="12"/>
       <c r="C303" s="9"/>
       <c r="D303" s="8"/>
-      <c r="E303" s="10"/>
+      <c r="E303" s="18"/>
       <c r="F303" s="8"/>
-      <c r="G303" s="15"/>
+      <c r="G303" s="12"/>
       <c r="H303" s="8"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
-      <c r="B304" s="15"/>
+      <c r="B304" s="12"/>
       <c r="C304" s="9"/>
       <c r="D304" s="8"/>
-      <c r="E304" s="10"/>
+      <c r="E304" s="18"/>
       <c r="F304" s="8"/>
-      <c r="G304" s="15"/>
+      <c r="G304" s="12"/>
       <c r="H304" s="8"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
-      <c r="B305" s="15"/>
+      <c r="B305" s="12"/>
       <c r="C305" s="9"/>
       <c r="D305" s="8"/>
-      <c r="E305" s="10"/>
+      <c r="E305" s="18"/>
       <c r="F305" s="8"/>
-      <c r="G305" s="15"/>
+      <c r="G305" s="12"/>
       <c r="H305" s="8"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
-      <c r="B306" s="15"/>
+      <c r="B306" s="12"/>
       <c r="C306" s="9"/>
       <c r="D306" s="8"/>
-      <c r="E306" s="10"/>
+      <c r="E306" s="18"/>
       <c r="F306" s="8"/>
-      <c r="G306" s="15"/>
+      <c r="G306" s="12"/>
       <c r="H306" s="8"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
-      <c r="B307" s="15"/>
+      <c r="B307" s="12"/>
       <c r="C307" s="9"/>
       <c r="D307" s="8"/>
-      <c r="E307" s="10"/>
+      <c r="E307" s="18"/>
       <c r="F307" s="8"/>
-      <c r="G307" s="15"/>
+      <c r="G307" s="12"/>
       <c r="H307" s="8"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>35</v>
       </c>
-      <c r="B308" s="15"/>
+      <c r="B308" s="12"/>
       <c r="C308" s="9"/>
       <c r="D308" s="7"/>
-      <c r="E308" s="10"/>
+      <c r="E308" s="18"/>
       <c r="F308" s="8"/>
-      <c r="G308" s="15"/>
+      <c r="G308" s="12"/>
       <c r="H308" s="8"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
-      <c r="B309" s="15"/>
+      <c r="B309" s="12"/>
       <c r="C309" s="9"/>
       <c r="D309" s="8"/>
-      <c r="E309" s="10"/>
+      <c r="E309" s="18"/>
       <c r="F309" s="8"/>
-      <c r="G309" s="15"/>
+      <c r="G309" s="12"/>
       <c r="H309" s="8"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
-      <c r="B310" s="15"/>
+      <c r="B310" s="12"/>
       <c r="C310" s="9"/>
       <c r="D310" s="8"/>
-      <c r="E310" s="10"/>
+      <c r="E310" s="18"/>
       <c r="F310" s="8"/>
-      <c r="G310" s="15"/>
+      <c r="G310" s="12"/>
       <c r="H310" s="8"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
-      <c r="B311" s="15"/>
+      <c r="B311" s="12"/>
       <c r="C311" s="9"/>
       <c r="D311" s="8"/>
-      <c r="E311" s="10"/>
+      <c r="E311" s="18"/>
       <c r="F311" s="8"/>
-      <c r="G311" s="15"/>
+      <c r="G311" s="12"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="12"/>
       <c r="C312" s="9"/>
       <c r="D312" s="8"/>
-      <c r="E312" s="10"/>
+      <c r="E312" s="18"/>
       <c r="F312" s="8"/>
-      <c r="G312" s="15"/>
+      <c r="G312" s="12"/>
       <c r="H312" s="8"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
-      <c r="B313" s="15"/>
+      <c r="B313" s="12"/>
       <c r="C313" s="9"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="10"/>
+      <c r="E313" s="18"/>
       <c r="F313" s="8"/>
-      <c r="G313" s="15"/>
+      <c r="G313" s="12"/>
       <c r="H313" s="8"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
-      <c r="B314" s="15"/>
+      <c r="B314" s="12"/>
       <c r="C314" s="9"/>
       <c r="D314" s="8"/>
-      <c r="E314" s="10"/>
+      <c r="E314" s="18"/>
       <c r="F314" s="8"/>
-      <c r="G314" s="15"/>
+      <c r="G314" s="12"/>
       <c r="H314" s="8"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
-      <c r="B315" s="15"/>
+      <c r="B315" s="12"/>
       <c r="C315" s="9"/>
       <c r="D315" s="8"/>
-      <c r="E315" s="10"/>
+      <c r="E315" s="18"/>
       <c r="F315" s="8"/>
-      <c r="G315" s="15"/>
+      <c r="G315" s="12"/>
       <c r="H315" s="8"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
-      <c r="B316" s="15"/>
+      <c r="B316" s="12"/>
       <c r="C316" s="9"/>
       <c r="D316" s="8"/>
-      <c r="E316" s="10"/>
+      <c r="E316" s="18"/>
       <c r="F316" s="8"/>
-      <c r="G316" s="15"/>
+      <c r="G316" s="12"/>
       <c r="H316" s="8"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>36</v>
       </c>
-      <c r="B317" s="15"/>
+      <c r="B317" s="12"/>
       <c r="C317" s="9"/>
       <c r="D317" s="7"/>
-      <c r="E317" s="10"/>
+      <c r="E317" s="18"/>
       <c r="F317" s="8"/>
       <c r="H317" s="8"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
-      <c r="B318" s="15"/>
+      <c r="B318" s="12"/>
       <c r="C318" s="9"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="10"/>
+      <c r="E318" s="18"/>
       <c r="F318" s="8"/>
       <c r="H318" s="8"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
-      <c r="B319" s="15"/>
+      <c r="B319" s="12"/>
       <c r="C319" s="9"/>
       <c r="D319" s="8"/>
-      <c r="E319" s="10"/>
+      <c r="E319" s="18"/>
       <c r="F319" s="8"/>
       <c r="H319" s="8"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
-      <c r="B320" s="15"/>
+      <c r="B320" s="12"/>
       <c r="C320" s="9"/>
       <c r="D320" s="8"/>
-      <c r="E320" s="10"/>
+      <c r="E320" s="18"/>
       <c r="F320" s="8"/>
       <c r="H320" s="8"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
-      <c r="B321" s="15"/>
+      <c r="B321" s="12"/>
       <c r="C321" s="9"/>
       <c r="D321" s="8"/>
-      <c r="E321" s="10"/>
+      <c r="E321" s="18"/>
       <c r="F321" s="8"/>
       <c r="H321" s="8"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
-      <c r="B322" s="15"/>
+      <c r="B322" s="12"/>
       <c r="C322" s="9"/>
       <c r="D322" s="8"/>
-      <c r="E322" s="10"/>
+      <c r="E322" s="18"/>
       <c r="F322" s="8"/>
       <c r="H322" s="8"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
-      <c r="B323" s="15"/>
+      <c r="B323" s="12"/>
       <c r="C323" s="9"/>
       <c r="D323" s="8"/>
-      <c r="E323" s="10"/>
+      <c r="E323" s="18"/>
       <c r="F323" s="8"/>
       <c r="H323" s="8"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
-      <c r="B324" s="15"/>
+      <c r="B324" s="12"/>
       <c r="C324" s="9"/>
       <c r="D324" s="8"/>
-      <c r="E324" s="10"/>
+      <c r="E324" s="18"/>
       <c r="F324" s="8"/>
       <c r="H324" s="8"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
-      <c r="B325" s="15"/>
+      <c r="B325" s="12"/>
       <c r="C325" s="9"/>
       <c r="D325" s="8"/>
-      <c r="E325" s="10"/>
+      <c r="E325" s="18"/>
       <c r="F325" s="8"/>
       <c r="H325" s="8"/>
     </row>
@@ -5028,326 +5061,326 @@
       <c r="A326" s="9">
         <v>37</v>
       </c>
-      <c r="B326" s="15"/>
+      <c r="B326" s="12"/>
       <c r="C326" s="9"/>
       <c r="D326" s="7"/>
-      <c r="E326" s="10"/>
+      <c r="E326" s="18"/>
       <c r="F326" s="8"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
-      <c r="B327" s="15"/>
+      <c r="B327" s="12"/>
       <c r="C327" s="9"/>
       <c r="D327" s="8"/>
-      <c r="E327" s="10"/>
+      <c r="E327" s="18"/>
       <c r="F327" s="8"/>
       <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
-      <c r="B328" s="15"/>
+      <c r="B328" s="12"/>
       <c r="C328" s="9"/>
       <c r="D328" s="8"/>
-      <c r="E328" s="10"/>
+      <c r="E328" s="18"/>
       <c r="F328" s="8"/>
       <c r="H328" s="8"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
-      <c r="B329" s="15"/>
+      <c r="B329" s="12"/>
       <c r="C329" s="9"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="10"/>
+      <c r="E329" s="18"/>
       <c r="F329" s="8"/>
       <c r="H329" s="8"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
-      <c r="B330" s="15"/>
+      <c r="B330" s="12"/>
       <c r="C330" s="9"/>
       <c r="D330" s="8"/>
-      <c r="E330" s="10"/>
+      <c r="E330" s="18"/>
       <c r="F330" s="8"/>
       <c r="H330" s="8"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="12"/>
       <c r="C331" s="9"/>
       <c r="D331" s="8"/>
-      <c r="E331" s="10"/>
+      <c r="E331" s="18"/>
       <c r="F331" s="8"/>
       <c r="H331" s="8"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="12"/>
       <c r="C332" s="9"/>
       <c r="D332" s="8"/>
-      <c r="E332" s="10"/>
+      <c r="E332" s="18"/>
       <c r="F332" s="8"/>
       <c r="H332" s="8"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
-      <c r="B333" s="15"/>
+      <c r="B333" s="12"/>
       <c r="C333" s="9"/>
       <c r="D333" s="8"/>
-      <c r="E333" s="10"/>
+      <c r="E333" s="18"/>
       <c r="F333" s="8"/>
       <c r="H333" s="8"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="9"/>
       <c r="D334" s="8"/>
-      <c r="E334" s="10"/>
+      <c r="E334" s="18"/>
       <c r="F334" s="8"/>
       <c r="H334" s="8"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B335" s="15"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="9"/>
       <c r="D335" s="7"/>
-      <c r="E335" s="10"/>
+      <c r="E335" s="18"/>
       <c r="F335" s="8"/>
       <c r="H335" s="8"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B336" s="15"/>
+      <c r="B336" s="12"/>
       <c r="C336" s="9"/>
       <c r="D336" s="8"/>
-      <c r="E336" s="10"/>
+      <c r="E336" s="18"/>
       <c r="F336" s="8"/>
       <c r="H336" s="8"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B337" s="15"/>
+      <c r="B337" s="12"/>
       <c r="C337" s="9"/>
       <c r="D337" s="8"/>
-      <c r="E337" s="10"/>
+      <c r="E337" s="18"/>
       <c r="F337" s="8"/>
       <c r="H337" s="8"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B338" s="15"/>
+      <c r="B338" s="12"/>
       <c r="C338" s="9"/>
       <c r="D338" s="8"/>
-      <c r="E338" s="10"/>
+      <c r="E338" s="18"/>
       <c r="F338" s="8"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B339" s="15"/>
+      <c r="B339" s="12"/>
       <c r="C339" s="9"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="10"/>
+      <c r="E339" s="18"/>
       <c r="F339" s="8"/>
       <c r="H339" s="8"/>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B340" s="15"/>
+      <c r="B340" s="12"/>
       <c r="C340" s="9"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="10"/>
+      <c r="E340" s="18"/>
       <c r="F340" s="8"/>
       <c r="H340" s="8"/>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B341" s="15"/>
+      <c r="B341" s="12"/>
       <c r="C341" s="9"/>
       <c r="D341" s="8"/>
-      <c r="E341" s="10"/>
+      <c r="E341" s="18"/>
       <c r="F341" s="8"/>
       <c r="H341" s="8"/>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B342" s="15"/>
+      <c r="B342" s="12"/>
       <c r="C342" s="9"/>
       <c r="D342" s="8"/>
-      <c r="E342" s="10"/>
+      <c r="E342" s="18"/>
       <c r="F342" s="8"/>
       <c r="H342" s="8"/>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B343" s="15"/>
+      <c r="B343" s="12"/>
       <c r="C343" s="9"/>
       <c r="D343" s="8"/>
-      <c r="E343" s="10"/>
+      <c r="E343" s="18"/>
       <c r="F343" s="8"/>
       <c r="H343" s="8"/>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B344" s="15"/>
+      <c r="B344" s="12"/>
       <c r="C344" s="9"/>
       <c r="D344" s="7"/>
-      <c r="E344" s="10"/>
+      <c r="E344" s="18"/>
       <c r="F344" s="8"/>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B345" s="15"/>
+      <c r="B345" s="12"/>
       <c r="C345" s="9"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="10"/>
+      <c r="E345" s="18"/>
       <c r="F345" s="8"/>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B346" s="15"/>
+      <c r="B346" s="12"/>
       <c r="C346" s="9"/>
       <c r="D346" s="8"/>
-      <c r="E346" s="10"/>
+      <c r="E346" s="18"/>
       <c r="F346" s="8"/>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B347" s="15"/>
+      <c r="B347" s="12"/>
       <c r="C347" s="9"/>
       <c r="D347" s="8"/>
-      <c r="E347" s="10"/>
+      <c r="E347" s="18"/>
       <c r="F347" s="8"/>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B348" s="15"/>
+      <c r="B348" s="12"/>
       <c r="C348" s="9"/>
       <c r="D348" s="8"/>
-      <c r="E348" s="10"/>
+      <c r="E348" s="18"/>
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B349" s="15"/>
+      <c r="B349" s="12"/>
       <c r="C349" s="9"/>
       <c r="D349" s="8"/>
-      <c r="E349" s="10"/>
+      <c r="E349" s="18"/>
       <c r="F349" s="8"/>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B350" s="15"/>
+      <c r="B350" s="12"/>
       <c r="C350" s="9"/>
       <c r="D350" s="8"/>
-      <c r="E350" s="10"/>
+      <c r="E350" s="18"/>
       <c r="F350" s="8"/>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B351" s="15"/>
+      <c r="B351" s="12"/>
       <c r="C351" s="9"/>
       <c r="D351" s="8"/>
-      <c r="E351" s="10"/>
+      <c r="E351" s="18"/>
       <c r="F351" s="8"/>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B352" s="15"/>
+      <c r="B352" s="12"/>
       <c r="C352" s="9"/>
       <c r="D352" s="8"/>
-      <c r="E352" s="10"/>
+      <c r="E352" s="18"/>
       <c r="F352" s="8"/>
     </row>
     <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="9"/>
       <c r="D353" s="7"/>
-      <c r="E353" s="10"/>
+      <c r="E353" s="18"/>
       <c r="F353" s="8"/>
     </row>
     <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="9"/>
       <c r="D354" s="8"/>
-      <c r="E354" s="10"/>
+      <c r="E354" s="18"/>
       <c r="F354" s="8"/>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="9"/>
       <c r="D355" s="8"/>
-      <c r="E355" s="10"/>
+      <c r="E355" s="18"/>
       <c r="F355" s="8"/>
     </row>
     <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="9"/>
       <c r="D356" s="8"/>
-      <c r="E356" s="10"/>
+      <c r="E356" s="18"/>
       <c r="F356" s="8"/>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="9"/>
       <c r="D357" s="8"/>
-      <c r="E357" s="10"/>
+      <c r="E357" s="18"/>
       <c r="F357" s="8"/>
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="9"/>
       <c r="D358" s="8"/>
-      <c r="E358" s="10"/>
+      <c r="E358" s="18"/>
       <c r="F358" s="8"/>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="9"/>
       <c r="D359" s="8"/>
-      <c r="E359" s="10"/>
+      <c r="E359" s="18"/>
       <c r="F359" s="8"/>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="9"/>
       <c r="D360" s="8"/>
-      <c r="E360" s="10"/>
+      <c r="E360" s="18"/>
       <c r="F360" s="8"/>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="9"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="10"/>
+      <c r="E361" s="18"/>
       <c r="F361" s="8"/>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="9"/>
       <c r="D362" s="7"/>
-      <c r="E362" s="10"/>
+      <c r="E362" s="18"/>
       <c r="F362" s="8"/>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="9"/>
       <c r="D363" s="8"/>
-      <c r="E363" s="10"/>
+      <c r="E363" s="18"/>
       <c r="F363" s="8"/>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="9"/>
       <c r="D364" s="8"/>
-      <c r="E364" s="10"/>
+      <c r="E364" s="18"/>
       <c r="F364" s="8"/>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="9"/>
       <c r="D365" s="8"/>
-      <c r="E365" s="10"/>
+      <c r="E365" s="18"/>
       <c r="F365" s="8"/>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="9"/>
       <c r="D366" s="8"/>
-      <c r="E366" s="10"/>
+      <c r="E366" s="18"/>
       <c r="F366" s="8"/>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="9"/>
       <c r="D367" s="8"/>
-      <c r="E367" s="10"/>
+      <c r="E367" s="18"/>
       <c r="F367" s="8"/>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="9"/>
       <c r="D368" s="8"/>
-      <c r="E368" s="10"/>
+      <c r="E368" s="18"/>
       <c r="F368" s="8"/>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="9"/>
       <c r="D369" s="8"/>
-      <c r="E369" s="10"/>
+      <c r="E369" s="18"/>
       <c r="F369" s="8"/>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="9"/>
       <c r="D370" s="8"/>
-      <c r="E370" s="10"/>
+      <c r="E370" s="18"/>
       <c r="F370" s="8"/>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.3">
@@ -6090,67 +6123,292 @@
     </row>
   </sheetData>
   <mergeCells count="371">
-    <mergeCell ref="D407:D415"/>
-    <mergeCell ref="D416:D424"/>
-    <mergeCell ref="D425:D433"/>
-    <mergeCell ref="D434:D442"/>
-    <mergeCell ref="D443:D451"/>
-    <mergeCell ref="C371:C379"/>
-    <mergeCell ref="C380:C388"/>
-    <mergeCell ref="C389:C397"/>
-    <mergeCell ref="C398:C406"/>
-    <mergeCell ref="D263:D271"/>
-    <mergeCell ref="D272:D280"/>
-    <mergeCell ref="D281:D289"/>
-    <mergeCell ref="D290:D298"/>
-    <mergeCell ref="D299:D307"/>
-    <mergeCell ref="D308:D316"/>
-    <mergeCell ref="D317:D325"/>
-    <mergeCell ref="D326:D334"/>
-    <mergeCell ref="D335:D343"/>
-    <mergeCell ref="D344:D352"/>
-    <mergeCell ref="D353:D361"/>
-    <mergeCell ref="D362:D370"/>
-    <mergeCell ref="D371:D379"/>
-    <mergeCell ref="D380:D388"/>
-    <mergeCell ref="D389:D397"/>
-    <mergeCell ref="D398:D406"/>
-    <mergeCell ref="C290:C298"/>
-    <mergeCell ref="C299:C307"/>
-    <mergeCell ref="C308:C316"/>
-    <mergeCell ref="C317:C325"/>
-    <mergeCell ref="C326:C334"/>
-    <mergeCell ref="C335:C343"/>
-    <mergeCell ref="C344:C352"/>
-    <mergeCell ref="C353:C361"/>
-    <mergeCell ref="C362:C370"/>
-    <mergeCell ref="F497:F505"/>
-    <mergeCell ref="F506:F514"/>
-    <mergeCell ref="F515:F523"/>
-    <mergeCell ref="F524:F532"/>
-    <mergeCell ref="F533:F541"/>
-    <mergeCell ref="F542:F550"/>
-    <mergeCell ref="F551:F559"/>
-    <mergeCell ref="F560:F568"/>
-    <mergeCell ref="F569:F577"/>
-    <mergeCell ref="F416:F424"/>
-    <mergeCell ref="F425:F433"/>
-    <mergeCell ref="F434:F442"/>
-    <mergeCell ref="F443:F451"/>
-    <mergeCell ref="F452:F460"/>
-    <mergeCell ref="F461:F469"/>
-    <mergeCell ref="F470:F478"/>
-    <mergeCell ref="F479:F487"/>
-    <mergeCell ref="F488:F496"/>
-    <mergeCell ref="F335:F343"/>
-    <mergeCell ref="F344:F352"/>
-    <mergeCell ref="F353:F361"/>
-    <mergeCell ref="F362:F370"/>
-    <mergeCell ref="F371:F379"/>
-    <mergeCell ref="F380:F388"/>
-    <mergeCell ref="F389:F397"/>
-    <mergeCell ref="F398:F406"/>
-    <mergeCell ref="F407:F415"/>
+    <mergeCell ref="D218:D226"/>
+    <mergeCell ref="D227:D235"/>
+    <mergeCell ref="D236:D244"/>
+    <mergeCell ref="D245:D253"/>
+    <mergeCell ref="D254:D262"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="C173:C181"/>
+    <mergeCell ref="C182:C190"/>
+    <mergeCell ref="C191:C199"/>
+    <mergeCell ref="C200:C208"/>
+    <mergeCell ref="C209:C217"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="D92:D100"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="D110:D118"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="D137:D145"/>
+    <mergeCell ref="D146:D154"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="D164:D172"/>
+    <mergeCell ref="D173:D181"/>
+    <mergeCell ref="D182:D190"/>
+    <mergeCell ref="D191:D199"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D209:D217"/>
+    <mergeCell ref="E200:E208"/>
+    <mergeCell ref="E209:E217"/>
+    <mergeCell ref="E218:E226"/>
+    <mergeCell ref="E335:E343"/>
+    <mergeCell ref="E344:E352"/>
+    <mergeCell ref="E164:E172"/>
+    <mergeCell ref="H47:H55"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="C146:C154"/>
+    <mergeCell ref="E110:E118"/>
+    <mergeCell ref="E119:E127"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="E137:E145"/>
+    <mergeCell ref="E146:E154"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="E353:E361"/>
+    <mergeCell ref="E362:E370"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="E281:E289"/>
+    <mergeCell ref="E290:E298"/>
+    <mergeCell ref="E299:E307"/>
+    <mergeCell ref="E308:E316"/>
+    <mergeCell ref="E317:E325"/>
+    <mergeCell ref="E326:E334"/>
+    <mergeCell ref="E227:E235"/>
+    <mergeCell ref="E236:E244"/>
+    <mergeCell ref="E245:E253"/>
+    <mergeCell ref="E254:E262"/>
+    <mergeCell ref="E263:E271"/>
+    <mergeCell ref="E272:E280"/>
+    <mergeCell ref="E173:E181"/>
+    <mergeCell ref="E182:E190"/>
+    <mergeCell ref="E191:E199"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="F56:F64"/>
+    <mergeCell ref="F65:F73"/>
+    <mergeCell ref="F74:F82"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="F92:F100"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F118"/>
+    <mergeCell ref="F119:F127"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F137:F145"/>
+    <mergeCell ref="F146:F154"/>
+    <mergeCell ref="H38:H46"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="G65:G73"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="G92:G100"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E47:E55"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="E65:E73"/>
+    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="H56:H64"/>
+    <mergeCell ref="H65:H73"/>
+    <mergeCell ref="H74:H82"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="G227:G235"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="G164:G172"/>
+    <mergeCell ref="G173:G181"/>
+    <mergeCell ref="G182:G190"/>
+    <mergeCell ref="G191:G199"/>
+    <mergeCell ref="G110:G118"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="G128:G136"/>
+    <mergeCell ref="G137:G145"/>
+    <mergeCell ref="G146:G154"/>
+    <mergeCell ref="F182:F190"/>
+    <mergeCell ref="F191:F199"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F164:F172"/>
+    <mergeCell ref="F173:F181"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="G290:G298"/>
+    <mergeCell ref="G299:G307"/>
+    <mergeCell ref="G308:G316"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="B137:B145"/>
+    <mergeCell ref="B146:B154"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="B164:B172"/>
+    <mergeCell ref="G245:G253"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="G263:G271"/>
+    <mergeCell ref="G272:G280"/>
+    <mergeCell ref="G281:G289"/>
+    <mergeCell ref="G200:G208"/>
+    <mergeCell ref="G209:G217"/>
+    <mergeCell ref="G218:G226"/>
+    <mergeCell ref="B218:B226"/>
+    <mergeCell ref="B227:B235"/>
+    <mergeCell ref="B236:B244"/>
+    <mergeCell ref="B245:B253"/>
+    <mergeCell ref="B254:B262"/>
+    <mergeCell ref="B173:B181"/>
+    <mergeCell ref="B182:B190"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="B209:B217"/>
+    <mergeCell ref="B308:B316"/>
+    <mergeCell ref="B317:B325"/>
+    <mergeCell ref="B326:B334"/>
+    <mergeCell ref="B335:B343"/>
+    <mergeCell ref="B344:B352"/>
+    <mergeCell ref="B263:B271"/>
+    <mergeCell ref="B272:B280"/>
+    <mergeCell ref="B281:B289"/>
+    <mergeCell ref="B290:B298"/>
+    <mergeCell ref="B299:B307"/>
+    <mergeCell ref="H83:H91"/>
+    <mergeCell ref="H92:H100"/>
+    <mergeCell ref="H101:H109"/>
+    <mergeCell ref="H110:H118"/>
+    <mergeCell ref="H119:H127"/>
+    <mergeCell ref="H128:H136"/>
+    <mergeCell ref="H137:H145"/>
+    <mergeCell ref="H146:H154"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="H164:H172"/>
+    <mergeCell ref="H173:H181"/>
+    <mergeCell ref="H182:H190"/>
+    <mergeCell ref="H191:H199"/>
+    <mergeCell ref="H200:H208"/>
+    <mergeCell ref="H209:H217"/>
+    <mergeCell ref="H218:H226"/>
+    <mergeCell ref="H227:H235"/>
+    <mergeCell ref="H236:H244"/>
+    <mergeCell ref="H326:H334"/>
+    <mergeCell ref="H335:H343"/>
+    <mergeCell ref="H245:H253"/>
+    <mergeCell ref="H254:H262"/>
+    <mergeCell ref="H263:H271"/>
+    <mergeCell ref="H272:H280"/>
+    <mergeCell ref="H281:H289"/>
+    <mergeCell ref="H290:H298"/>
+    <mergeCell ref="H299:H307"/>
+    <mergeCell ref="H308:H316"/>
+    <mergeCell ref="H317:H325"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="I38:I46"/>
+    <mergeCell ref="I47:I55"/>
+    <mergeCell ref="I56:I64"/>
+    <mergeCell ref="I65:I73"/>
+    <mergeCell ref="I74:I82"/>
+    <mergeCell ref="I164:I172"/>
+    <mergeCell ref="I173:I181"/>
+    <mergeCell ref="I182:I190"/>
+    <mergeCell ref="I191:I199"/>
+    <mergeCell ref="I83:I91"/>
+    <mergeCell ref="I92:I100"/>
+    <mergeCell ref="I101:I109"/>
+    <mergeCell ref="I110:I118"/>
+    <mergeCell ref="I119:I127"/>
+    <mergeCell ref="I128:I136"/>
+    <mergeCell ref="I137:I145"/>
+    <mergeCell ref="I146:I154"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="A137:A145"/>
+    <mergeCell ref="A146:A154"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="A164:A172"/>
+    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="A182:A190"/>
+    <mergeCell ref="A191:A199"/>
+    <mergeCell ref="A200:A208"/>
+    <mergeCell ref="A209:A217"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="A227:A235"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A245:A253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="A263:A271"/>
+    <mergeCell ref="A272:A280"/>
+    <mergeCell ref="A281:A289"/>
+    <mergeCell ref="A290:A298"/>
+    <mergeCell ref="A299:A307"/>
+    <mergeCell ref="A308:A316"/>
+    <mergeCell ref="A317:A325"/>
     <mergeCell ref="A326:A334"/>
     <mergeCell ref="F200:F208"/>
     <mergeCell ref="F209:F217"/>
@@ -6175,292 +6433,67 @@
     <mergeCell ref="C263:C271"/>
     <mergeCell ref="C272:C280"/>
     <mergeCell ref="C281:C289"/>
-    <mergeCell ref="A245:A253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="A263:A271"/>
-    <mergeCell ref="A272:A280"/>
-    <mergeCell ref="A281:A289"/>
-    <mergeCell ref="A290:A298"/>
-    <mergeCell ref="A299:A307"/>
-    <mergeCell ref="A308:A316"/>
-    <mergeCell ref="A317:A325"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A173:A181"/>
-    <mergeCell ref="A182:A190"/>
-    <mergeCell ref="A191:A199"/>
-    <mergeCell ref="A200:A208"/>
-    <mergeCell ref="A209:A217"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="A227:A235"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="A128:A136"/>
-    <mergeCell ref="A137:A145"/>
-    <mergeCell ref="A146:A154"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="I164:I172"/>
-    <mergeCell ref="I173:I181"/>
-    <mergeCell ref="I182:I190"/>
-    <mergeCell ref="I191:I199"/>
-    <mergeCell ref="I83:I91"/>
-    <mergeCell ref="I92:I100"/>
-    <mergeCell ref="I101:I109"/>
-    <mergeCell ref="I110:I118"/>
-    <mergeCell ref="I119:I127"/>
-    <mergeCell ref="I128:I136"/>
-    <mergeCell ref="I137:I145"/>
-    <mergeCell ref="I146:I154"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="I11:I19"/>
-    <mergeCell ref="I20:I28"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="I38:I46"/>
-    <mergeCell ref="I47:I55"/>
-    <mergeCell ref="I56:I64"/>
-    <mergeCell ref="I65:I73"/>
-    <mergeCell ref="I74:I82"/>
-    <mergeCell ref="H326:H334"/>
-    <mergeCell ref="H335:H343"/>
-    <mergeCell ref="H245:H253"/>
-    <mergeCell ref="H254:H262"/>
-    <mergeCell ref="H263:H271"/>
-    <mergeCell ref="H272:H280"/>
-    <mergeCell ref="H281:H289"/>
-    <mergeCell ref="H290:H298"/>
-    <mergeCell ref="H299:H307"/>
-    <mergeCell ref="H308:H316"/>
-    <mergeCell ref="H317:H325"/>
-    <mergeCell ref="H164:H172"/>
-    <mergeCell ref="H173:H181"/>
-    <mergeCell ref="H182:H190"/>
-    <mergeCell ref="H191:H199"/>
-    <mergeCell ref="H200:H208"/>
-    <mergeCell ref="H209:H217"/>
-    <mergeCell ref="H218:H226"/>
-    <mergeCell ref="H227:H235"/>
-    <mergeCell ref="H236:H244"/>
-    <mergeCell ref="H83:H91"/>
-    <mergeCell ref="H92:H100"/>
-    <mergeCell ref="H101:H109"/>
-    <mergeCell ref="H110:H118"/>
-    <mergeCell ref="H119:H127"/>
-    <mergeCell ref="H128:H136"/>
-    <mergeCell ref="H137:H145"/>
-    <mergeCell ref="H146:H154"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="B308:B316"/>
-    <mergeCell ref="B317:B325"/>
-    <mergeCell ref="B326:B334"/>
-    <mergeCell ref="B335:B343"/>
-    <mergeCell ref="B344:B352"/>
-    <mergeCell ref="B263:B271"/>
-    <mergeCell ref="B272:B280"/>
-    <mergeCell ref="B281:B289"/>
-    <mergeCell ref="B290:B298"/>
-    <mergeCell ref="B299:B307"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="B227:B235"/>
-    <mergeCell ref="B236:B244"/>
-    <mergeCell ref="B245:B253"/>
-    <mergeCell ref="B254:B262"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="B182:B190"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="G290:G298"/>
-    <mergeCell ref="G299:G307"/>
-    <mergeCell ref="G308:G316"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="B146:B154"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="G245:G253"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="G263:G271"/>
-    <mergeCell ref="G272:G280"/>
-    <mergeCell ref="G281:G289"/>
-    <mergeCell ref="G200:G208"/>
-    <mergeCell ref="G209:G217"/>
-    <mergeCell ref="G218:G226"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="G227:G235"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="G164:G172"/>
-    <mergeCell ref="G173:G181"/>
-    <mergeCell ref="G182:G190"/>
-    <mergeCell ref="G191:G199"/>
-    <mergeCell ref="G110:G118"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="G128:G136"/>
-    <mergeCell ref="G137:G145"/>
-    <mergeCell ref="G146:G154"/>
-    <mergeCell ref="F182:F190"/>
-    <mergeCell ref="F191:F199"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F164:F172"/>
-    <mergeCell ref="F173:F181"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="H38:H46"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="G65:G73"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="G92:G100"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E47:E55"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="E65:E73"/>
-    <mergeCell ref="E74:E82"/>
-    <mergeCell ref="E92:E100"/>
-    <mergeCell ref="H56:H64"/>
-    <mergeCell ref="H65:H73"/>
-    <mergeCell ref="H74:H82"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="F56:F64"/>
-    <mergeCell ref="F65:F73"/>
-    <mergeCell ref="F74:F82"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="F92:F100"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F118"/>
-    <mergeCell ref="F119:F127"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F137:F145"/>
-    <mergeCell ref="F146:F154"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="E137:E145"/>
-    <mergeCell ref="E146:E154"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="E353:E361"/>
-    <mergeCell ref="E362:E370"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="E281:E289"/>
-    <mergeCell ref="E290:E298"/>
-    <mergeCell ref="E299:E307"/>
-    <mergeCell ref="E308:E316"/>
-    <mergeCell ref="E317:E325"/>
-    <mergeCell ref="E326:E334"/>
-    <mergeCell ref="E227:E235"/>
-    <mergeCell ref="E236:E244"/>
-    <mergeCell ref="E245:E253"/>
-    <mergeCell ref="E254:E262"/>
-    <mergeCell ref="E263:E271"/>
-    <mergeCell ref="E272:E280"/>
-    <mergeCell ref="E173:E181"/>
-    <mergeCell ref="E182:E190"/>
-    <mergeCell ref="E191:E199"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="E218:E226"/>
-    <mergeCell ref="E335:E343"/>
-    <mergeCell ref="E344:E352"/>
-    <mergeCell ref="E164:E172"/>
-    <mergeCell ref="H47:H55"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="C92:C100"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="C110:C118"/>
-    <mergeCell ref="C119:C127"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C146:C154"/>
-    <mergeCell ref="E110:E118"/>
-    <mergeCell ref="E119:E127"/>
-    <mergeCell ref="D146:D154"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="D164:D172"/>
-    <mergeCell ref="D173:D181"/>
-    <mergeCell ref="D182:D190"/>
-    <mergeCell ref="D191:D199"/>
-    <mergeCell ref="D200:D208"/>
-    <mergeCell ref="D209:D217"/>
-    <mergeCell ref="E200:E208"/>
-    <mergeCell ref="E209:E217"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="D92:D100"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="D110:D118"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="D137:D145"/>
-    <mergeCell ref="D218:D226"/>
-    <mergeCell ref="D227:D235"/>
-    <mergeCell ref="D236:D244"/>
-    <mergeCell ref="D245:D253"/>
-    <mergeCell ref="D254:D262"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="C173:C181"/>
-    <mergeCell ref="C182:C190"/>
-    <mergeCell ref="C191:C199"/>
-    <mergeCell ref="C200:C208"/>
-    <mergeCell ref="C209:C217"/>
+    <mergeCell ref="F335:F343"/>
+    <mergeCell ref="F344:F352"/>
+    <mergeCell ref="F353:F361"/>
+    <mergeCell ref="F362:F370"/>
+    <mergeCell ref="F371:F379"/>
+    <mergeCell ref="F380:F388"/>
+    <mergeCell ref="F389:F397"/>
+    <mergeCell ref="F398:F406"/>
+    <mergeCell ref="F407:F415"/>
+    <mergeCell ref="F416:F424"/>
+    <mergeCell ref="F425:F433"/>
+    <mergeCell ref="F434:F442"/>
+    <mergeCell ref="F443:F451"/>
+    <mergeCell ref="F452:F460"/>
+    <mergeCell ref="F461:F469"/>
+    <mergeCell ref="F470:F478"/>
+    <mergeCell ref="F479:F487"/>
+    <mergeCell ref="F488:F496"/>
+    <mergeCell ref="F497:F505"/>
+    <mergeCell ref="F506:F514"/>
+    <mergeCell ref="F515:F523"/>
+    <mergeCell ref="F524:F532"/>
+    <mergeCell ref="F533:F541"/>
+    <mergeCell ref="F542:F550"/>
+    <mergeCell ref="F551:F559"/>
+    <mergeCell ref="F560:F568"/>
+    <mergeCell ref="F569:F577"/>
+    <mergeCell ref="D344:D352"/>
+    <mergeCell ref="D353:D361"/>
+    <mergeCell ref="D362:D370"/>
+    <mergeCell ref="D371:D379"/>
+    <mergeCell ref="D380:D388"/>
+    <mergeCell ref="D389:D397"/>
+    <mergeCell ref="D398:D406"/>
+    <mergeCell ref="C290:C298"/>
+    <mergeCell ref="C299:C307"/>
+    <mergeCell ref="C308:C316"/>
+    <mergeCell ref="C317:C325"/>
+    <mergeCell ref="C326:C334"/>
+    <mergeCell ref="C335:C343"/>
+    <mergeCell ref="C344:C352"/>
+    <mergeCell ref="C353:C361"/>
+    <mergeCell ref="C362:C370"/>
+    <mergeCell ref="D263:D271"/>
+    <mergeCell ref="D272:D280"/>
+    <mergeCell ref="D281:D289"/>
+    <mergeCell ref="D290:D298"/>
+    <mergeCell ref="D299:D307"/>
+    <mergeCell ref="D308:D316"/>
+    <mergeCell ref="D317:D325"/>
+    <mergeCell ref="D326:D334"/>
+    <mergeCell ref="D335:D343"/>
+    <mergeCell ref="D407:D415"/>
+    <mergeCell ref="D416:D424"/>
+    <mergeCell ref="D425:D433"/>
+    <mergeCell ref="D434:D442"/>
+    <mergeCell ref="D443:D451"/>
+    <mergeCell ref="C371:C379"/>
+    <mergeCell ref="C380:C388"/>
+    <mergeCell ref="C389:C397"/>
+    <mergeCell ref="C398:C406"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{DFE75C78-3AAA-4B97-AB47-A50070B792D0}"/>
@@ -6472,9 +6505,10 @@
     <hyperlink ref="I65" r:id="rId7" xr:uid="{CC6228FD-9E3F-4EB0-8F7A-3EAC000C1412}"/>
     <hyperlink ref="D74" r:id="rId8" xr:uid="{5BB43C6E-FA2A-4F4F-BC50-13BF38CC821A}"/>
     <hyperlink ref="D83" r:id="rId9" xr:uid="{D22E6D84-CA32-405E-8FFF-6C2917B63A90}"/>
+    <hyperlink ref="D92" r:id="rId10" xr:uid="{C019381E-925B-45A9-B2B8-1B702847110D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Problems/Dynamic Programming.xlsx
+++ b/Problems/Dynamic Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43961BA2-23F9-4BAB-84AA-C57AB3967992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB55BCA-6611-4E52-BA3E-464A87D28B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -596,6 +596,65 @@
     <t>A. Boredom</t>
   </si>
   <si>
+    <t>06.07.21</t>
+  </si>
+  <si>
+    <t>Parsa's Humongous Tree</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are given a tree of n nodes . In each node two values l and r are attached to it. You have to assign each node a value a[v] which is  l[v] &lt;= a[v] &lt;= r[v]. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You have to calculate for each edge abs(a[v] - a[u]) and sum them for all edge . You have to maximize this number. </t>
+    </r>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1528/submission/121501166</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">here for each node v, we will either assign l[v] or r[v]. (it is proven in the editorial and you discussed about it) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so now, it is problem of dp. For each node if you put l[v] then you have to count the maximum sum you can get from v's subtree. Similarly for if you put r[v]. than you have to take the maximum from them . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dp(v, 0) ---&gt; maximum value of subtree of v if you assign l[v] in the node. dp(v, 1) ---&gt; maximum value of subtree of v if you assign r[v] in the node. Answer is max(dp(1, 0) , dp(1, 1))</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">this is amazing . </t>
     </r>
@@ -618,18 +677,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> it is a problem from a2oj ladder . </t>
+      <t xml:space="preserve"> it is a problem from a2oj ladder . Classic dp problem.</t>
     </r>
   </si>
   <si>
-    <t>06.07.21</t>
-  </si>
-  <si>
-    <t>Parsa's Humongous Tree</t>
+    <t xml:space="preserve">calculating for each child. </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">You are given a tree of n nodes . In each node two values l and r are attached to it. You have to assign each node a value a[v] which is  l[v] &lt;= a[v] &lt;= r[v]. </t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Sub :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://oj.uz/submission/447169  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Billal Sir's Sub:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://ideone.com/dfVtc5</t>
+    </r>
+  </si>
+  <si>
+    <t>25.07.21</t>
+  </si>
+  <si>
+    <t>Zapina</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given n programmers and n different tasks. i-th programmer is happy if he is given exactly i tasks. </t>
     </r>
     <r>
       <rPr>
@@ -640,18 +745,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">You have to calculate for each edge abs(a[v] - a[u]) and sum them for all edge . You have to maximize this number. </t>
+      <t xml:space="preserve">In how many ways you can distribute these tasks between then if atleast one of them happy </t>
     </r>
-  </si>
-  <si>
-    <t>https://codeforces.com/contest/1528/submission/121501166</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Print ans modulo 1e9 + 7;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://discord.com/channels/866594507054383144/866751522892808222/868579389875564544</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are 3 state of dp. 1. which programmer I am considering.
+2. How many tasks are remaining
+3. Whether I find a happy programmer or not. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">So, what we will try to do is, for current student we need to think how many tasks can we give to that student. We will give current student 0 tasks, 1 tasks, 2 tasks, ... and so on up to the total remaining tasks. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if there are 4 task remaining. if i have to assign 2 task to 2nd programmer. then there are 4C2 ways to do that. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dp(prog, rem, happy) ----&gt; how many ways you can distribute remaining "rem" tasks between prog to n if one of them are happy.
+Recurrence: dp(prog, rem, happy) = sum(i, 0, rem) : ncr(rem, i) * dp(prog +1, rem - i, happy | (i == prog) 
+Base Case : if (prog &gt; n) if no task is left and atleast one is happy return 1. otherwise 0. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +924,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -805,7 +978,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -832,11 +1005,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -844,19 +1026,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1404,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9898A-9ECF-4948-BCC0-B50754857C19}">
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92:F100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,9 +1643,9 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1478,9 +1654,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
@@ -1489,9 +1665,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -1500,9 +1676,9 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -1511,9 +1687,9 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -1522,9 +1698,9 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1533,9 +1709,9 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -1544,9 +1720,9 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
@@ -1555,9 +1731,9 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -1570,7 +1746,7 @@
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1582,7 +1758,7 @@
       <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -1593,7 +1769,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1604,7 +1780,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -1615,7 +1791,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -1626,7 +1802,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -1637,7 +1813,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -1648,7 +1824,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -1659,7 +1835,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -1670,7 +1846,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -1685,7 +1861,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1696,7 +1872,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1707,7 +1883,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -1718,7 +1894,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -1729,7 +1905,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -1740,7 +1916,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
@@ -1751,7 +1927,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -1762,7 +1938,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -1773,7 +1949,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
@@ -1798,7 +1974,7 @@
       <c r="H29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -1809,7 +1985,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -1820,7 +1996,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
@@ -1831,7 +2007,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1842,7 +2018,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1853,7 +2029,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
@@ -1864,7 +2040,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
@@ -1875,7 +2051,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -1886,7 +2062,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
@@ -1911,7 +2087,7 @@
       <c r="H38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
@@ -1922,7 +2098,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
@@ -1933,7 +2109,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -1944,7 +2120,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1955,7 +2131,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -1966,7 +2142,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
@@ -1977,7 +2153,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
@@ -1988,7 +2164,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="10"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
@@ -1999,7 +2175,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="10"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
@@ -2011,18 +2187,18 @@
       <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -2033,7 +2209,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="10"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -2044,7 +2220,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="10"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
@@ -2055,7 +2231,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="10"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
@@ -2066,7 +2242,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="10"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
@@ -2077,7 +2253,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="10"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -2088,7 +2264,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="10"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -2099,7 +2275,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
@@ -2110,7 +2286,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="10"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
@@ -2133,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
@@ -2144,7 +2320,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="10"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
@@ -2155,7 +2331,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="10"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -2166,7 +2342,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="10"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
@@ -2177,7 +2353,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="10"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
@@ -2188,7 +2364,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
@@ -2199,7 +2375,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="10"/>
+      <c r="I62" s="17"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -2210,7 +2386,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="10"/>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
@@ -2221,7 +2397,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="10"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
@@ -2240,7 +2416,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2253,7 +2429,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="10"/>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
@@ -2264,7 +2440,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="10"/>
+      <c r="I67" s="17"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -2275,7 +2451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="10"/>
+      <c r="I68" s="17"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
@@ -2286,7 +2462,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="10"/>
+      <c r="I69" s="17"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
@@ -2297,7 +2473,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="10"/>
+      <c r="I70" s="17"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
@@ -2308,7 +2484,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="10"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
@@ -2319,7 +2495,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="10"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2330,7 +2506,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="10"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
@@ -2342,7 +2518,7 @@
       <c r="C74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -2355,7 +2531,7 @@
       <c r="H74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
@@ -2366,7 +2542,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="10"/>
+      <c r="I75" s="17"/>
     </row>
     <row r="76" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
@@ -2377,7 +2553,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="10"/>
+      <c r="I76" s="17"/>
     </row>
     <row r="77" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -2388,7 +2564,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
@@ -2399,7 +2575,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="10"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
@@ -2410,7 +2586,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="10"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
@@ -2421,7 +2597,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="10"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -2432,7 +2608,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="10"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
@@ -2443,7 +2619,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="10"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
@@ -2455,20 +2631,20 @@
       <c r="C83" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -2479,7 +2655,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
@@ -2490,7 +2666,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="10"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -2501,7 +2677,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="10"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
@@ -2512,7 +2688,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="10"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
@@ -2523,7 +2699,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="10"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
@@ -2534,7 +2710,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="10"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
@@ -2545,7 +2721,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="10"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
@@ -2556,28 +2732,32 @@
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="10"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>11</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="17" t="s">
+      <c r="F92" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="8"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="10"/>
+      <c r="H92" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -2588,7 +2768,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="10"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
@@ -2599,7 +2779,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="10"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
@@ -2610,7 +2790,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="10"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
@@ -2621,7 +2801,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="10"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -2632,7 +2812,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="10"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
@@ -2643,7 +2823,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="10"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
@@ -2654,7 +2834,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="10"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
@@ -2665,20 +2845,32 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="10"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>12</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+      <c r="B101" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="10"/>
+      <c r="H101" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
@@ -2689,7 +2881,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="10"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
@@ -2700,7 +2892,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="10"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -2711,7 +2903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="10"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
@@ -2722,7 +2914,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="10"/>
+      <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
@@ -2733,7 +2925,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="10"/>
+      <c r="I106" s="17"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
@@ -2744,7 +2936,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="10"/>
+      <c r="I107" s="17"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
@@ -2755,9 +2947,9 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -2766,7 +2958,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="10"/>
+      <c r="I109" s="17"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
@@ -2779,7 +2971,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="10"/>
+      <c r="I110" s="17"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
@@ -2790,7 +2982,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="10"/>
+      <c r="I111" s="17"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
@@ -2801,7 +2993,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="10"/>
+      <c r="I112" s="17"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
@@ -2812,7 +3004,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
       <c r="H113" s="8"/>
-      <c r="I113" s="10"/>
+      <c r="I113" s="17"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
@@ -2823,7 +3015,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="10"/>
+      <c r="I114" s="17"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
@@ -2834,7 +3026,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="9"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="10"/>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
@@ -2845,7 +3037,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="10"/>
+      <c r="I116" s="17"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
@@ -2856,7 +3048,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="9"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="10"/>
+      <c r="I117" s="17"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
@@ -2867,7 +3059,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="10"/>
+      <c r="I118" s="17"/>
     </row>
     <row r="119" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
@@ -2880,7 +3072,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="9"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="10"/>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
@@ -2891,7 +3083,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="10"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
@@ -2902,7 +3094,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="9"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="10"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
@@ -2913,7 +3105,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="10"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
@@ -2924,7 +3116,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="9"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="10"/>
+      <c r="I123" s="17"/>
     </row>
     <row r="124" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
@@ -2935,7 +3127,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="10"/>
+      <c r="I124" s="17"/>
     </row>
     <row r="125" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
@@ -2946,7 +3138,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="9"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="10"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
@@ -2957,7 +3149,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="10"/>
+      <c r="I126" s="17"/>
     </row>
     <row r="127" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
@@ -2968,7 +3160,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="10"/>
+      <c r="I127" s="17"/>
     </row>
     <row r="128" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
@@ -2981,7 +3173,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="10"/>
+      <c r="I128" s="17"/>
     </row>
     <row r="129" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
@@ -2992,7 +3184,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="10"/>
+      <c r="I129" s="17"/>
     </row>
     <row r="130" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
@@ -3003,7 +3195,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="10"/>
+      <c r="I130" s="17"/>
     </row>
     <row r="131" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
@@ -3014,7 +3206,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="9"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="10"/>
+      <c r="I131" s="17"/>
     </row>
     <row r="132" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
@@ -3025,7 +3217,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="10"/>
+      <c r="I132" s="17"/>
     </row>
     <row r="133" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
@@ -3036,7 +3228,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="10"/>
+      <c r="I133" s="17"/>
     </row>
     <row r="134" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
@@ -3047,7 +3239,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="10"/>
+      <c r="I134" s="17"/>
     </row>
     <row r="135" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
@@ -3058,7 +3250,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="10"/>
+      <c r="I135" s="17"/>
     </row>
     <row r="136" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
@@ -3069,1991 +3261,1991 @@
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="10"/>
+      <c r="I136" s="17"/>
     </row>
     <row r="137" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>16</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="9"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="18"/>
+      <c r="E137" s="11"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="12"/>
+      <c r="G137" s="15"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="10"/>
+      <c r="I137" s="17"/>
     </row>
     <row r="138" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
-      <c r="B138" s="12"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="9"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="18"/>
+      <c r="E138" s="11"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="12"/>
+      <c r="G138" s="15"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="10"/>
+      <c r="I138" s="17"/>
     </row>
     <row r="139" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="12"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="9"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="18"/>
+      <c r="E139" s="11"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="12"/>
+      <c r="G139" s="15"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="10"/>
+      <c r="I139" s="17"/>
     </row>
     <row r="140" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="12"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="9"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="18"/>
+      <c r="E140" s="11"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="12"/>
+      <c r="G140" s="15"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="10"/>
+      <c r="I140" s="17"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="12"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="9"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="18"/>
+      <c r="E141" s="11"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="12"/>
+      <c r="G141" s="15"/>
       <c r="H141" s="8"/>
-      <c r="I141" s="10"/>
+      <c r="I141" s="17"/>
     </row>
     <row r="142" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
-      <c r="B142" s="12"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="9"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="18"/>
+      <c r="E142" s="11"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="12"/>
+      <c r="G142" s="15"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="10"/>
+      <c r="I142" s="17"/>
     </row>
     <row r="143" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="12"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="9"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="18"/>
+      <c r="E143" s="11"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="12"/>
+      <c r="G143" s="15"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="10"/>
+      <c r="I143" s="17"/>
     </row>
     <row r="144" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="12"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="9"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="18"/>
+      <c r="E144" s="11"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="12"/>
+      <c r="G144" s="15"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="10"/>
+      <c r="I144" s="17"/>
     </row>
     <row r="145" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="9"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="18"/>
+      <c r="E145" s="11"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="12"/>
+      <c r="G145" s="15"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="10"/>
+      <c r="I145" s="17"/>
     </row>
     <row r="146" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>17</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="9"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="18"/>
+      <c r="E146" s="11"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="12"/>
+      <c r="G146" s="15"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="10"/>
+      <c r="I146" s="17"/>
     </row>
     <row r="147" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
-      <c r="B147" s="12"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="9"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="18"/>
+      <c r="E147" s="11"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="12"/>
+      <c r="G147" s="15"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="10"/>
+      <c r="I147" s="17"/>
     </row>
     <row r="148" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
-      <c r="B148" s="12"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="9"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="18"/>
+      <c r="E148" s="11"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="12"/>
+      <c r="G148" s="15"/>
       <c r="H148" s="8"/>
-      <c r="I148" s="10"/>
+      <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
-      <c r="B149" s="12"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="9"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="18"/>
+      <c r="E149" s="11"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="12"/>
+      <c r="G149" s="15"/>
       <c r="H149" s="8"/>
-      <c r="I149" s="10"/>
+      <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
-      <c r="B150" s="12"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="9"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="18"/>
+      <c r="E150" s="11"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="12"/>
+      <c r="G150" s="15"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="10"/>
+      <c r="I150" s="17"/>
     </row>
     <row r="151" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
-      <c r="B151" s="12"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="18"/>
+      <c r="E151" s="11"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="12"/>
+      <c r="G151" s="15"/>
       <c r="H151" s="8"/>
-      <c r="I151" s="10"/>
+      <c r="I151" s="17"/>
     </row>
     <row r="152" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
-      <c r="B152" s="12"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="9"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="18"/>
+      <c r="E152" s="11"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="12"/>
+      <c r="G152" s="15"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="10"/>
+      <c r="I152" s="17"/>
     </row>
     <row r="153" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
-      <c r="B153" s="12"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="9"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="18"/>
+      <c r="E153" s="11"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="12"/>
+      <c r="G153" s="15"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="10"/>
+      <c r="I153" s="17"/>
     </row>
     <row r="154" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
-      <c r="B154" s="12"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="9"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="18"/>
+      <c r="E154" s="11"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="12"/>
+      <c r="G154" s="15"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="10"/>
+      <c r="I154" s="17"/>
     </row>
     <row r="155" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>18</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="9"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="18"/>
+      <c r="E155" s="11"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="12"/>
+      <c r="G155" s="15"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="10"/>
+      <c r="I155" s="17"/>
     </row>
     <row r="156" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
-      <c r="B156" s="12"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="9"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="18"/>
+      <c r="E156" s="11"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="12"/>
+      <c r="G156" s="15"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="10"/>
+      <c r="I156" s="17"/>
     </row>
     <row r="157" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
-      <c r="B157" s="12"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="9"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="18"/>
+      <c r="E157" s="11"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="12"/>
+      <c r="G157" s="15"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="10"/>
+      <c r="I157" s="17"/>
     </row>
     <row r="158" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
-      <c r="B158" s="12"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="9"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="18"/>
+      <c r="E158" s="11"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="12"/>
+      <c r="G158" s="15"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="10"/>
+      <c r="I158" s="17"/>
     </row>
     <row r="159" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
-      <c r="B159" s="12"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="9"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="18"/>
+      <c r="E159" s="11"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="12"/>
+      <c r="G159" s="15"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="10"/>
+      <c r="I159" s="17"/>
     </row>
     <row r="160" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="12"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="9"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="18"/>
+      <c r="E160" s="11"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="12"/>
+      <c r="G160" s="15"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="10"/>
+      <c r="I160" s="17"/>
     </row>
     <row r="161" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
-      <c r="B161" s="12"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="9"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="18"/>
+      <c r="E161" s="11"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="12"/>
+      <c r="G161" s="15"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="10"/>
+      <c r="I161" s="17"/>
     </row>
     <row r="162" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
-      <c r="B162" s="12"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="9"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="18"/>
+      <c r="E162" s="11"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="12"/>
+      <c r="G162" s="15"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="10"/>
+      <c r="I162" s="17"/>
     </row>
     <row r="163" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
-      <c r="B163" s="12"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="9"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="18"/>
+      <c r="E163" s="11"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="12"/>
+      <c r="G163" s="15"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="10"/>
+      <c r="I163" s="17"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>19</v>
       </c>
-      <c r="B164" s="12"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="9"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="18"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="12"/>
+      <c r="G164" s="15"/>
       <c r="H164" s="8"/>
-      <c r="I164" s="10"/>
+      <c r="I164" s="17"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
-      <c r="B165" s="12"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="9"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="18"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="12"/>
+      <c r="G165" s="15"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="10"/>
+      <c r="I165" s="17"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
-      <c r="B166" s="12"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="9"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="18"/>
+      <c r="E166" s="11"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="12"/>
+      <c r="G166" s="15"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="10"/>
+      <c r="I166" s="17"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
-      <c r="B167" s="12"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="9"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="18"/>
+      <c r="E167" s="11"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="12"/>
+      <c r="G167" s="15"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="10"/>
+      <c r="I167" s="17"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
-      <c r="B168" s="12"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="9"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="18"/>
+      <c r="E168" s="11"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="12"/>
+      <c r="G168" s="15"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="10"/>
+      <c r="I168" s="17"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
-      <c r="B169" s="12"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="9"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="18"/>
+      <c r="E169" s="11"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="12"/>
+      <c r="G169" s="15"/>
       <c r="H169" s="8"/>
-      <c r="I169" s="10"/>
+      <c r="I169" s="17"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
-      <c r="B170" s="12"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="9"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="18"/>
+      <c r="E170" s="11"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="12"/>
+      <c r="G170" s="15"/>
       <c r="H170" s="8"/>
-      <c r="I170" s="10"/>
+      <c r="I170" s="17"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
-      <c r="B171" s="12"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="9"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="18"/>
+      <c r="E171" s="11"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="12"/>
+      <c r="G171" s="15"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="10"/>
+      <c r="I171" s="17"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
-      <c r="B172" s="12"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="9"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="18"/>
+      <c r="E172" s="11"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="12"/>
+      <c r="G172" s="15"/>
       <c r="H172" s="8"/>
-      <c r="I172" s="10"/>
+      <c r="I172" s="17"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>20</v>
       </c>
-      <c r="B173" s="12"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="9"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="18"/>
+      <c r="E173" s="11"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="12"/>
+      <c r="G173" s="15"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="10"/>
+      <c r="I173" s="17"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
-      <c r="B174" s="12"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="9"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="18"/>
+      <c r="E174" s="11"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="12"/>
+      <c r="G174" s="15"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="10"/>
+      <c r="I174" s="17"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
-      <c r="B175" s="12"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="9"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="18"/>
+      <c r="E175" s="11"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="12"/>
+      <c r="G175" s="15"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="10"/>
+      <c r="I175" s="17"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
-      <c r="B176" s="12"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="9"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="18"/>
+      <c r="E176" s="11"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="12"/>
+      <c r="G176" s="15"/>
       <c r="H176" s="8"/>
-      <c r="I176" s="10"/>
+      <c r="I176" s="17"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
-      <c r="B177" s="12"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="9"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="18"/>
+      <c r="E177" s="11"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="12"/>
+      <c r="G177" s="15"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="10"/>
+      <c r="I177" s="17"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
-      <c r="B178" s="12"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="9"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="18"/>
+      <c r="E178" s="11"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="12"/>
+      <c r="G178" s="15"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="10"/>
+      <c r="I178" s="17"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
-      <c r="B179" s="12"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="9"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="18"/>
+      <c r="E179" s="11"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="12"/>
+      <c r="G179" s="15"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="10"/>
+      <c r="I179" s="17"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
-      <c r="B180" s="12"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="9"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="18"/>
+      <c r="E180" s="11"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="12"/>
+      <c r="G180" s="15"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="10"/>
+      <c r="I180" s="17"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
-      <c r="B181" s="12"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="9"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="18"/>
+      <c r="E181" s="11"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="12"/>
+      <c r="G181" s="15"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="10"/>
+      <c r="I181" s="17"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>21</v>
       </c>
-      <c r="B182" s="12"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="9"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="18"/>
+      <c r="E182" s="11"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="12"/>
+      <c r="G182" s="15"/>
       <c r="H182" s="8"/>
-      <c r="I182" s="10"/>
+      <c r="I182" s="17"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
-      <c r="B183" s="12"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="9"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="18"/>
+      <c r="E183" s="11"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="12"/>
+      <c r="G183" s="15"/>
       <c r="H183" s="8"/>
-      <c r="I183" s="10"/>
+      <c r="I183" s="17"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
-      <c r="B184" s="12"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="9"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="18"/>
+      <c r="E184" s="11"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="12"/>
+      <c r="G184" s="15"/>
       <c r="H184" s="8"/>
-      <c r="I184" s="10"/>
+      <c r="I184" s="17"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
-      <c r="B185" s="12"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="9"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="18"/>
+      <c r="E185" s="11"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="12"/>
+      <c r="G185" s="15"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="10"/>
+      <c r="I185" s="17"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
-      <c r="B186" s="12"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="9"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="18"/>
+      <c r="E186" s="11"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="12"/>
+      <c r="G186" s="15"/>
       <c r="H186" s="8"/>
-      <c r="I186" s="10"/>
+      <c r="I186" s="17"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
-      <c r="B187" s="12"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="9"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="18"/>
+      <c r="E187" s="11"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="12"/>
+      <c r="G187" s="15"/>
       <c r="H187" s="8"/>
-      <c r="I187" s="10"/>
+      <c r="I187" s="17"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
-      <c r="B188" s="12"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="9"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="18"/>
+      <c r="E188" s="11"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="12"/>
+      <c r="G188" s="15"/>
       <c r="H188" s="8"/>
-      <c r="I188" s="10"/>
+      <c r="I188" s="17"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
-      <c r="B189" s="12"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="9"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="18"/>
+      <c r="E189" s="11"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="12"/>
+      <c r="G189" s="15"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="10"/>
+      <c r="I189" s="17"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
-      <c r="B190" s="12"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="9"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="18"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="12"/>
+      <c r="G190" s="15"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="10"/>
+      <c r="I190" s="17"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>22</v>
       </c>
-      <c r="B191" s="12"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="9"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="18"/>
+      <c r="E191" s="11"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="12"/>
+      <c r="G191" s="15"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="10"/>
+      <c r="I191" s="17"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
-      <c r="B192" s="12"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="9"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="18"/>
+      <c r="E192" s="11"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="12"/>
+      <c r="G192" s="15"/>
       <c r="H192" s="8"/>
-      <c r="I192" s="10"/>
+      <c r="I192" s="17"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
-      <c r="B193" s="12"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="9"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="18"/>
+      <c r="E193" s="11"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="12"/>
+      <c r="G193" s="15"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="10"/>
+      <c r="I193" s="17"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
-      <c r="B194" s="12"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="9"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="18"/>
+      <c r="E194" s="11"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="12"/>
+      <c r="G194" s="15"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="10"/>
+      <c r="I194" s="17"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
-      <c r="B195" s="12"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="9"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="18"/>
+      <c r="E195" s="11"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="12"/>
+      <c r="G195" s="15"/>
       <c r="H195" s="8"/>
-      <c r="I195" s="10"/>
+      <c r="I195" s="17"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
-      <c r="B196" s="12"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="9"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="18"/>
+      <c r="E196" s="11"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="12"/>
+      <c r="G196" s="15"/>
       <c r="H196" s="8"/>
-      <c r="I196" s="10"/>
+      <c r="I196" s="17"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
-      <c r="B197" s="12"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="9"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="18"/>
+      <c r="E197" s="11"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="12"/>
+      <c r="G197" s="15"/>
       <c r="H197" s="8"/>
-      <c r="I197" s="10"/>
+      <c r="I197" s="17"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
-      <c r="B198" s="12"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="9"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="18"/>
+      <c r="E198" s="11"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="12"/>
+      <c r="G198" s="15"/>
       <c r="H198" s="8"/>
-      <c r="I198" s="10"/>
+      <c r="I198" s="17"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
-      <c r="B199" s="12"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="9"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="18"/>
+      <c r="E199" s="11"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="12"/>
+      <c r="G199" s="15"/>
       <c r="H199" s="8"/>
-      <c r="I199" s="10"/>
+      <c r="I199" s="17"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>23</v>
       </c>
-      <c r="B200" s="12"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="9"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="18"/>
+      <c r="E200" s="11"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="12"/>
+      <c r="G200" s="15"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
-      <c r="B201" s="12"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="9"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="18"/>
+      <c r="E201" s="11"/>
       <c r="F201" s="8"/>
-      <c r="G201" s="12"/>
+      <c r="G201" s="15"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
-      <c r="B202" s="12"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="9"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="18"/>
+      <c r="E202" s="11"/>
       <c r="F202" s="8"/>
-      <c r="G202" s="12"/>
+      <c r="G202" s="15"/>
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
-      <c r="B203" s="12"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="9"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="18"/>
+      <c r="E203" s="11"/>
       <c r="F203" s="8"/>
-      <c r="G203" s="12"/>
+      <c r="G203" s="15"/>
       <c r="H203" s="8"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="12"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="9"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="18"/>
+      <c r="E204" s="11"/>
       <c r="F204" s="8"/>
-      <c r="G204" s="12"/>
+      <c r="G204" s="15"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="12"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="9"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="18"/>
+      <c r="E205" s="11"/>
       <c r="F205" s="8"/>
-      <c r="G205" s="12"/>
+      <c r="G205" s="15"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="12"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="9"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="18"/>
+      <c r="E206" s="11"/>
       <c r="F206" s="8"/>
-      <c r="G206" s="12"/>
+      <c r="G206" s="15"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
-      <c r="B207" s="12"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="9"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="18"/>
+      <c r="E207" s="11"/>
       <c r="F207" s="8"/>
-      <c r="G207" s="12"/>
+      <c r="G207" s="15"/>
       <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
-      <c r="B208" s="12"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="9"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="18"/>
+      <c r="E208" s="11"/>
       <c r="F208" s="8"/>
-      <c r="G208" s="12"/>
+      <c r="G208" s="15"/>
       <c r="H208" s="8"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>24</v>
       </c>
-      <c r="B209" s="12"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="9"/>
       <c r="D209" s="7"/>
-      <c r="E209" s="18"/>
+      <c r="E209" s="11"/>
       <c r="F209" s="8"/>
-      <c r="G209" s="12"/>
+      <c r="G209" s="15"/>
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
-      <c r="B210" s="12"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="9"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="18"/>
+      <c r="E210" s="11"/>
       <c r="F210" s="8"/>
-      <c r="G210" s="12"/>
+      <c r="G210" s="15"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
-      <c r="B211" s="12"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="9"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="18"/>
+      <c r="E211" s="11"/>
       <c r="F211" s="8"/>
-      <c r="G211" s="12"/>
+      <c r="G211" s="15"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
-      <c r="B212" s="12"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="9"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="18"/>
+      <c r="E212" s="11"/>
       <c r="F212" s="8"/>
-      <c r="G212" s="12"/>
+      <c r="G212" s="15"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
-      <c r="B213" s="12"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="9"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="18"/>
+      <c r="E213" s="11"/>
       <c r="F213" s="8"/>
-      <c r="G213" s="12"/>
+      <c r="G213" s="15"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
-      <c r="B214" s="12"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="9"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="18"/>
+      <c r="E214" s="11"/>
       <c r="F214" s="8"/>
-      <c r="G214" s="12"/>
+      <c r="G214" s="15"/>
       <c r="H214" s="8"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
-      <c r="B215" s="12"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="9"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="18"/>
+      <c r="E215" s="11"/>
       <c r="F215" s="8"/>
-      <c r="G215" s="12"/>
+      <c r="G215" s="15"/>
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
-      <c r="B216" s="12"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="9"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="18"/>
+      <c r="E216" s="11"/>
       <c r="F216" s="8"/>
-      <c r="G216" s="12"/>
+      <c r="G216" s="15"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
-      <c r="B217" s="12"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="9"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="18"/>
+      <c r="E217" s="11"/>
       <c r="F217" s="8"/>
-      <c r="G217" s="12"/>
+      <c r="G217" s="15"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>25</v>
       </c>
-      <c r="B218" s="12"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="9"/>
       <c r="D218" s="7"/>
-      <c r="E218" s="18"/>
+      <c r="E218" s="11"/>
       <c r="F218" s="8"/>
-      <c r="G218" s="12"/>
+      <c r="G218" s="15"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
-      <c r="B219" s="12"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="9"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="18"/>
+      <c r="E219" s="11"/>
       <c r="F219" s="8"/>
-      <c r="G219" s="12"/>
+      <c r="G219" s="15"/>
       <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
-      <c r="B220" s="12"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="9"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="18"/>
+      <c r="E220" s="11"/>
       <c r="F220" s="8"/>
-      <c r="G220" s="12"/>
+      <c r="G220" s="15"/>
       <c r="H220" s="8"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
-      <c r="B221" s="12"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="9"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="18"/>
+      <c r="E221" s="11"/>
       <c r="F221" s="8"/>
-      <c r="G221" s="12"/>
+      <c r="G221" s="15"/>
       <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
-      <c r="B222" s="12"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="9"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="18"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="8"/>
-      <c r="G222" s="12"/>
+      <c r="G222" s="15"/>
       <c r="H222" s="8"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
-      <c r="B223" s="12"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="9"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="18"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="8"/>
-      <c r="G223" s="12"/>
+      <c r="G223" s="15"/>
       <c r="H223" s="8"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="12"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="9"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="18"/>
+      <c r="E224" s="11"/>
       <c r="F224" s="8"/>
-      <c r="G224" s="12"/>
+      <c r="G224" s="15"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
-      <c r="B225" s="12"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="9"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="18"/>
+      <c r="E225" s="11"/>
       <c r="F225" s="8"/>
-      <c r="G225" s="12"/>
+      <c r="G225" s="15"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
-      <c r="B226" s="12"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="9"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="18"/>
+      <c r="E226" s="11"/>
       <c r="F226" s="8"/>
-      <c r="G226" s="12"/>
+      <c r="G226" s="15"/>
       <c r="H226" s="8"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>26</v>
       </c>
-      <c r="B227" s="12"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="9"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="18"/>
+      <c r="E227" s="11"/>
       <c r="F227" s="8"/>
-      <c r="G227" s="12"/>
+      <c r="G227" s="15"/>
       <c r="H227" s="8"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
-      <c r="B228" s="12"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="9"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="18"/>
+      <c r="E228" s="11"/>
       <c r="F228" s="8"/>
-      <c r="G228" s="12"/>
+      <c r="G228" s="15"/>
       <c r="H228" s="8"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
-      <c r="B229" s="12"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="9"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="18"/>
+      <c r="E229" s="11"/>
       <c r="F229" s="8"/>
-      <c r="G229" s="12"/>
+      <c r="G229" s="15"/>
       <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
-      <c r="B230" s="12"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="9"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="18"/>
+      <c r="E230" s="11"/>
       <c r="F230" s="8"/>
-      <c r="G230" s="12"/>
+      <c r="G230" s="15"/>
       <c r="H230" s="8"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
-      <c r="B231" s="12"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="9"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="18"/>
+      <c r="E231" s="11"/>
       <c r="F231" s="8"/>
-      <c r="G231" s="12"/>
+      <c r="G231" s="15"/>
       <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
-      <c r="B232" s="12"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="9"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="18"/>
+      <c r="E232" s="11"/>
       <c r="F232" s="8"/>
-      <c r="G232" s="12"/>
+      <c r="G232" s="15"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
-      <c r="B233" s="12"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="9"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="18"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="8"/>
-      <c r="G233" s="12"/>
+      <c r="G233" s="15"/>
       <c r="H233" s="8"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
-      <c r="B234" s="12"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="9"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="18"/>
+      <c r="E234" s="11"/>
       <c r="F234" s="8"/>
-      <c r="G234" s="12"/>
+      <c r="G234" s="15"/>
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
-      <c r="B235" s="12"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="9"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="18"/>
+      <c r="E235" s="11"/>
       <c r="F235" s="8"/>
-      <c r="G235" s="12"/>
+      <c r="G235" s="15"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>27</v>
       </c>
-      <c r="B236" s="12"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="9"/>
       <c r="D236" s="7"/>
-      <c r="E236" s="18"/>
+      <c r="E236" s="11"/>
       <c r="F236" s="8"/>
-      <c r="G236" s="12"/>
+      <c r="G236" s="15"/>
       <c r="H236" s="8"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
-      <c r="B237" s="12"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="9"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="18"/>
+      <c r="E237" s="11"/>
       <c r="F237" s="8"/>
-      <c r="G237" s="12"/>
+      <c r="G237" s="15"/>
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
-      <c r="B238" s="12"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="9"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="18"/>
+      <c r="E238" s="11"/>
       <c r="F238" s="8"/>
-      <c r="G238" s="12"/>
+      <c r="G238" s="15"/>
       <c r="H238" s="8"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
-      <c r="B239" s="12"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="9"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="18"/>
+      <c r="E239" s="11"/>
       <c r="F239" s="8"/>
-      <c r="G239" s="12"/>
+      <c r="G239" s="15"/>
       <c r="H239" s="8"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
-      <c r="B240" s="12"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="9"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="18"/>
+      <c r="E240" s="11"/>
       <c r="F240" s="8"/>
-      <c r="G240" s="12"/>
+      <c r="G240" s="15"/>
       <c r="H240" s="8"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
-      <c r="B241" s="12"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="9"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="18"/>
+      <c r="E241" s="11"/>
       <c r="F241" s="8"/>
-      <c r="G241" s="12"/>
+      <c r="G241" s="15"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
-      <c r="B242" s="12"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="9"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="18"/>
+      <c r="E242" s="11"/>
       <c r="F242" s="8"/>
-      <c r="G242" s="12"/>
+      <c r="G242" s="15"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
-      <c r="B243" s="12"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="9"/>
       <c r="D243" s="8"/>
-      <c r="E243" s="18"/>
+      <c r="E243" s="11"/>
       <c r="F243" s="8"/>
-      <c r="G243" s="12"/>
+      <c r="G243" s="15"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
-      <c r="B244" s="12"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="9"/>
       <c r="D244" s="8"/>
-      <c r="E244" s="18"/>
+      <c r="E244" s="11"/>
       <c r="F244" s="8"/>
-      <c r="G244" s="12"/>
+      <c r="G244" s="15"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>28</v>
       </c>
-      <c r="B245" s="12"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="9"/>
       <c r="D245" s="7"/>
-      <c r="E245" s="18"/>
+      <c r="E245" s="11"/>
       <c r="F245" s="8"/>
-      <c r="G245" s="12"/>
+      <c r="G245" s="15"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
-      <c r="B246" s="12"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="9"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="18"/>
+      <c r="E246" s="11"/>
       <c r="F246" s="8"/>
-      <c r="G246" s="12"/>
+      <c r="G246" s="15"/>
       <c r="H246" s="8"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
-      <c r="B247" s="12"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="9"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="18"/>
+      <c r="E247" s="11"/>
       <c r="F247" s="8"/>
-      <c r="G247" s="12"/>
+      <c r="G247" s="15"/>
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
-      <c r="B248" s="12"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="9"/>
       <c r="D248" s="8"/>
-      <c r="E248" s="18"/>
+      <c r="E248" s="11"/>
       <c r="F248" s="8"/>
-      <c r="G248" s="12"/>
+      <c r="G248" s="15"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
-      <c r="B249" s="12"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="9"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="18"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="8"/>
-      <c r="G249" s="12"/>
+      <c r="G249" s="15"/>
       <c r="H249" s="8"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
-      <c r="B250" s="12"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="9"/>
       <c r="D250" s="8"/>
-      <c r="E250" s="18"/>
+      <c r="E250" s="11"/>
       <c r="F250" s="8"/>
-      <c r="G250" s="12"/>
+      <c r="G250" s="15"/>
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
-      <c r="B251" s="12"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="9"/>
       <c r="D251" s="8"/>
-      <c r="E251" s="18"/>
+      <c r="E251" s="11"/>
       <c r="F251" s="8"/>
-      <c r="G251" s="12"/>
+      <c r="G251" s="15"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
-      <c r="B252" s="12"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="9"/>
       <c r="D252" s="8"/>
-      <c r="E252" s="18"/>
+      <c r="E252" s="11"/>
       <c r="F252" s="8"/>
-      <c r="G252" s="12"/>
+      <c r="G252" s="15"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
-      <c r="B253" s="12"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="9"/>
       <c r="D253" s="8"/>
-      <c r="E253" s="18"/>
+      <c r="E253" s="11"/>
       <c r="F253" s="8"/>
-      <c r="G253" s="12"/>
+      <c r="G253" s="15"/>
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>29</v>
       </c>
-      <c r="B254" s="12"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="9"/>
       <c r="D254" s="7"/>
-      <c r="E254" s="18"/>
+      <c r="E254" s="11"/>
       <c r="F254" s="8"/>
-      <c r="G254" s="12"/>
+      <c r="G254" s="15"/>
       <c r="H254" s="8"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
-      <c r="B255" s="12"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="9"/>
       <c r="D255" s="8"/>
-      <c r="E255" s="18"/>
+      <c r="E255" s="11"/>
       <c r="F255" s="8"/>
-      <c r="G255" s="12"/>
+      <c r="G255" s="15"/>
       <c r="H255" s="8"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
-      <c r="B256" s="12"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="9"/>
       <c r="D256" s="8"/>
-      <c r="E256" s="18"/>
+      <c r="E256" s="11"/>
       <c r="F256" s="8"/>
-      <c r="G256" s="12"/>
+      <c r="G256" s="15"/>
       <c r="H256" s="8"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
-      <c r="B257" s="12"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="9"/>
       <c r="D257" s="8"/>
-      <c r="E257" s="18"/>
+      <c r="E257" s="11"/>
       <c r="F257" s="8"/>
-      <c r="G257" s="12"/>
+      <c r="G257" s="15"/>
       <c r="H257" s="8"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
-      <c r="B258" s="12"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="9"/>
       <c r="D258" s="8"/>
-      <c r="E258" s="18"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="8"/>
-      <c r="G258" s="12"/>
+      <c r="G258" s="15"/>
       <c r="H258" s="8"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
-      <c r="B259" s="12"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="9"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="18"/>
+      <c r="E259" s="11"/>
       <c r="F259" s="8"/>
-      <c r="G259" s="12"/>
+      <c r="G259" s="15"/>
       <c r="H259" s="8"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
-      <c r="B260" s="12"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="9"/>
       <c r="D260" s="8"/>
-      <c r="E260" s="18"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="8"/>
-      <c r="G260" s="12"/>
+      <c r="G260" s="15"/>
       <c r="H260" s="8"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
-      <c r="B261" s="12"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="9"/>
       <c r="D261" s="8"/>
-      <c r="E261" s="18"/>
+      <c r="E261" s="11"/>
       <c r="F261" s="8"/>
-      <c r="G261" s="12"/>
+      <c r="G261" s="15"/>
       <c r="H261" s="8"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
-      <c r="B262" s="12"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="9"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="18"/>
+      <c r="E262" s="11"/>
       <c r="F262" s="8"/>
-      <c r="G262" s="12"/>
+      <c r="G262" s="15"/>
       <c r="H262" s="8"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>30</v>
       </c>
-      <c r="B263" s="12"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="9"/>
       <c r="D263" s="7"/>
-      <c r="E263" s="18"/>
+      <c r="E263" s="11"/>
       <c r="F263" s="8"/>
-      <c r="G263" s="12"/>
+      <c r="G263" s="15"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
-      <c r="B264" s="12"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="9"/>
       <c r="D264" s="8"/>
-      <c r="E264" s="18"/>
+      <c r="E264" s="11"/>
       <c r="F264" s="8"/>
-      <c r="G264" s="12"/>
+      <c r="G264" s="15"/>
       <c r="H264" s="8"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
-      <c r="B265" s="12"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="9"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="18"/>
+      <c r="E265" s="11"/>
       <c r="F265" s="8"/>
-      <c r="G265" s="12"/>
+      <c r="G265" s="15"/>
       <c r="H265" s="8"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
-      <c r="B266" s="12"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="9"/>
       <c r="D266" s="8"/>
-      <c r="E266" s="18"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="8"/>
-      <c r="G266" s="12"/>
+      <c r="G266" s="15"/>
       <c r="H266" s="8"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
-      <c r="B267" s="12"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="9"/>
       <c r="D267" s="8"/>
-      <c r="E267" s="18"/>
+      <c r="E267" s="11"/>
       <c r="F267" s="8"/>
-      <c r="G267" s="12"/>
+      <c r="G267" s="15"/>
       <c r="H267" s="8"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
-      <c r="B268" s="12"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="9"/>
       <c r="D268" s="8"/>
-      <c r="E268" s="18"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="8"/>
-      <c r="G268" s="12"/>
+      <c r="G268" s="15"/>
       <c r="H268" s="8"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
-      <c r="B269" s="12"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="9"/>
       <c r="D269" s="8"/>
-      <c r="E269" s="18"/>
+      <c r="E269" s="11"/>
       <c r="F269" s="8"/>
-      <c r="G269" s="12"/>
+      <c r="G269" s="15"/>
       <c r="H269" s="8"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
-      <c r="B270" s="12"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="9"/>
       <c r="D270" s="8"/>
-      <c r="E270" s="18"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="8"/>
-      <c r="G270" s="12"/>
+      <c r="G270" s="15"/>
       <c r="H270" s="8"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
-      <c r="B271" s="12"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="9"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="18"/>
+      <c r="E271" s="11"/>
       <c r="F271" s="8"/>
-      <c r="G271" s="12"/>
+      <c r="G271" s="15"/>
       <c r="H271" s="8"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>31</v>
       </c>
-      <c r="B272" s="12"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="9"/>
       <c r="D272" s="7"/>
-      <c r="E272" s="18"/>
+      <c r="E272" s="11"/>
       <c r="F272" s="8"/>
-      <c r="G272" s="12"/>
+      <c r="G272" s="15"/>
       <c r="H272" s="8"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
-      <c r="B273" s="12"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="9"/>
       <c r="D273" s="8"/>
-      <c r="E273" s="18"/>
+      <c r="E273" s="11"/>
       <c r="F273" s="8"/>
-      <c r="G273" s="12"/>
+      <c r="G273" s="15"/>
       <c r="H273" s="8"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
-      <c r="B274" s="12"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="9"/>
       <c r="D274" s="8"/>
-      <c r="E274" s="18"/>
+      <c r="E274" s="11"/>
       <c r="F274" s="8"/>
-      <c r="G274" s="12"/>
+      <c r="G274" s="15"/>
       <c r="H274" s="8"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
-      <c r="B275" s="12"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="9"/>
       <c r="D275" s="8"/>
-      <c r="E275" s="18"/>
+      <c r="E275" s="11"/>
       <c r="F275" s="8"/>
-      <c r="G275" s="12"/>
+      <c r="G275" s="15"/>
       <c r="H275" s="8"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
-      <c r="B276" s="12"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="9"/>
       <c r="D276" s="8"/>
-      <c r="E276" s="18"/>
+      <c r="E276" s="11"/>
       <c r="F276" s="8"/>
-      <c r="G276" s="12"/>
+      <c r="G276" s="15"/>
       <c r="H276" s="8"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
-      <c r="B277" s="12"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="9"/>
       <c r="D277" s="8"/>
-      <c r="E277" s="18"/>
+      <c r="E277" s="11"/>
       <c r="F277" s="8"/>
-      <c r="G277" s="12"/>
+      <c r="G277" s="15"/>
       <c r="H277" s="8"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
-      <c r="B278" s="12"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="9"/>
       <c r="D278" s="8"/>
-      <c r="E278" s="18"/>
+      <c r="E278" s="11"/>
       <c r="F278" s="8"/>
-      <c r="G278" s="12"/>
+      <c r="G278" s="15"/>
       <c r="H278" s="8"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
-      <c r="B279" s="12"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="9"/>
       <c r="D279" s="8"/>
-      <c r="E279" s="18"/>
+      <c r="E279" s="11"/>
       <c r="F279" s="8"/>
-      <c r="G279" s="12"/>
+      <c r="G279" s="15"/>
       <c r="H279" s="8"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
-      <c r="B280" s="12"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="9"/>
       <c r="D280" s="8"/>
-      <c r="E280" s="18"/>
+      <c r="E280" s="11"/>
       <c r="F280" s="8"/>
-      <c r="G280" s="12"/>
+      <c r="G280" s="15"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>32</v>
       </c>
-      <c r="B281" s="12"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="9"/>
       <c r="D281" s="7"/>
-      <c r="E281" s="18"/>
+      <c r="E281" s="11"/>
       <c r="F281" s="8"/>
-      <c r="G281" s="12"/>
+      <c r="G281" s="15"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
-      <c r="B282" s="12"/>
+      <c r="B282" s="15"/>
       <c r="C282" s="9"/>
       <c r="D282" s="8"/>
-      <c r="E282" s="18"/>
+      <c r="E282" s="11"/>
       <c r="F282" s="8"/>
-      <c r="G282" s="12"/>
+      <c r="G282" s="15"/>
       <c r="H282" s="8"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
-      <c r="B283" s="12"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="9"/>
       <c r="D283" s="8"/>
-      <c r="E283" s="18"/>
+      <c r="E283" s="11"/>
       <c r="F283" s="8"/>
-      <c r="G283" s="12"/>
+      <c r="G283" s="15"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
-      <c r="B284" s="12"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="9"/>
       <c r="D284" s="8"/>
-      <c r="E284" s="18"/>
+      <c r="E284" s="11"/>
       <c r="F284" s="8"/>
-      <c r="G284" s="12"/>
+      <c r="G284" s="15"/>
       <c r="H284" s="8"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
-      <c r="B285" s="12"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="9"/>
       <c r="D285" s="8"/>
-      <c r="E285" s="18"/>
+      <c r="E285" s="11"/>
       <c r="F285" s="8"/>
-      <c r="G285" s="12"/>
+      <c r="G285" s="15"/>
       <c r="H285" s="8"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
-      <c r="B286" s="12"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="9"/>
       <c r="D286" s="8"/>
-      <c r="E286" s="18"/>
+      <c r="E286" s="11"/>
       <c r="F286" s="8"/>
-      <c r="G286" s="12"/>
+      <c r="G286" s="15"/>
       <c r="H286" s="8"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
-      <c r="B287" s="12"/>
+      <c r="B287" s="15"/>
       <c r="C287" s="9"/>
       <c r="D287" s="8"/>
-      <c r="E287" s="18"/>
+      <c r="E287" s="11"/>
       <c r="F287" s="8"/>
-      <c r="G287" s="12"/>
+      <c r="G287" s="15"/>
       <c r="H287" s="8"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
-      <c r="B288" s="12"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="9"/>
       <c r="D288" s="8"/>
-      <c r="E288" s="18"/>
+      <c r="E288" s="11"/>
       <c r="F288" s="8"/>
-      <c r="G288" s="12"/>
+      <c r="G288" s="15"/>
       <c r="H288" s="8"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
-      <c r="B289" s="12"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="9"/>
       <c r="D289" s="8"/>
-      <c r="E289" s="18"/>
+      <c r="E289" s="11"/>
       <c r="F289" s="8"/>
-      <c r="G289" s="12"/>
+      <c r="G289" s="15"/>
       <c r="H289" s="8"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>33</v>
       </c>
-      <c r="B290" s="12"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="9"/>
       <c r="D290" s="7"/>
-      <c r="E290" s="18"/>
+      <c r="E290" s="11"/>
       <c r="F290" s="8"/>
-      <c r="G290" s="12"/>
+      <c r="G290" s="15"/>
       <c r="H290" s="8"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
-      <c r="B291" s="12"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="9"/>
       <c r="D291" s="8"/>
-      <c r="E291" s="18"/>
+      <c r="E291" s="11"/>
       <c r="F291" s="8"/>
-      <c r="G291" s="12"/>
+      <c r="G291" s="15"/>
       <c r="H291" s="8"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
-      <c r="B292" s="12"/>
+      <c r="B292" s="15"/>
       <c r="C292" s="9"/>
       <c r="D292" s="8"/>
-      <c r="E292" s="18"/>
+      <c r="E292" s="11"/>
       <c r="F292" s="8"/>
-      <c r="G292" s="12"/>
+      <c r="G292" s="15"/>
       <c r="H292" s="8"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
-      <c r="B293" s="12"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="9"/>
       <c r="D293" s="8"/>
-      <c r="E293" s="18"/>
+      <c r="E293" s="11"/>
       <c r="F293" s="8"/>
-      <c r="G293" s="12"/>
+      <c r="G293" s="15"/>
       <c r="H293" s="8"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
-      <c r="B294" s="12"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="9"/>
       <c r="D294" s="8"/>
-      <c r="E294" s="18"/>
+      <c r="E294" s="11"/>
       <c r="F294" s="8"/>
-      <c r="G294" s="12"/>
+      <c r="G294" s="15"/>
       <c r="H294" s="8"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
-      <c r="B295" s="12"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="9"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="18"/>
+      <c r="E295" s="11"/>
       <c r="F295" s="8"/>
-      <c r="G295" s="12"/>
+      <c r="G295" s="15"/>
       <c r="H295" s="8"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
-      <c r="B296" s="12"/>
+      <c r="B296" s="15"/>
       <c r="C296" s="9"/>
       <c r="D296" s="8"/>
-      <c r="E296" s="18"/>
+      <c r="E296" s="11"/>
       <c r="F296" s="8"/>
-      <c r="G296" s="12"/>
+      <c r="G296" s="15"/>
       <c r="H296" s="8"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
-      <c r="B297" s="12"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="9"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="18"/>
+      <c r="E297" s="11"/>
       <c r="F297" s="8"/>
-      <c r="G297" s="12"/>
+      <c r="G297" s="15"/>
       <c r="H297" s="8"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
-      <c r="B298" s="12"/>
+      <c r="B298" s="15"/>
       <c r="C298" s="9"/>
       <c r="D298" s="8"/>
-      <c r="E298" s="18"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="8"/>
-      <c r="G298" s="12"/>
+      <c r="G298" s="15"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>34</v>
       </c>
-      <c r="B299" s="12"/>
+      <c r="B299" s="15"/>
       <c r="C299" s="9"/>
       <c r="D299" s="7"/>
-      <c r="E299" s="18"/>
+      <c r="E299" s="11"/>
       <c r="F299" s="8"/>
-      <c r="G299" s="12"/>
+      <c r="G299" s="15"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
-      <c r="B300" s="12"/>
+      <c r="B300" s="15"/>
       <c r="C300" s="9"/>
       <c r="D300" s="8"/>
-      <c r="E300" s="18"/>
+      <c r="E300" s="11"/>
       <c r="F300" s="8"/>
-      <c r="G300" s="12"/>
+      <c r="G300" s="15"/>
       <c r="H300" s="8"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
-      <c r="B301" s="12"/>
+      <c r="B301" s="15"/>
       <c r="C301" s="9"/>
       <c r="D301" s="8"/>
-      <c r="E301" s="18"/>
+      <c r="E301" s="11"/>
       <c r="F301" s="8"/>
-      <c r="G301" s="12"/>
+      <c r="G301" s="15"/>
       <c r="H301" s="8"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
-      <c r="B302" s="12"/>
+      <c r="B302" s="15"/>
       <c r="C302" s="9"/>
       <c r="D302" s="8"/>
-      <c r="E302" s="18"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="8"/>
-      <c r="G302" s="12"/>
+      <c r="G302" s="15"/>
       <c r="H302" s="8"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
-      <c r="B303" s="12"/>
+      <c r="B303" s="15"/>
       <c r="C303" s="9"/>
       <c r="D303" s="8"/>
-      <c r="E303" s="18"/>
+      <c r="E303" s="11"/>
       <c r="F303" s="8"/>
-      <c r="G303" s="12"/>
+      <c r="G303" s="15"/>
       <c r="H303" s="8"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
-      <c r="B304" s="12"/>
+      <c r="B304" s="15"/>
       <c r="C304" s="9"/>
       <c r="D304" s="8"/>
-      <c r="E304" s="18"/>
+      <c r="E304" s="11"/>
       <c r="F304" s="8"/>
-      <c r="G304" s="12"/>
+      <c r="G304" s="15"/>
       <c r="H304" s="8"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
-      <c r="B305" s="12"/>
+      <c r="B305" s="15"/>
       <c r="C305" s="9"/>
       <c r="D305" s="8"/>
-      <c r="E305" s="18"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="8"/>
-      <c r="G305" s="12"/>
+      <c r="G305" s="15"/>
       <c r="H305" s="8"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
-      <c r="B306" s="12"/>
+      <c r="B306" s="15"/>
       <c r="C306" s="9"/>
       <c r="D306" s="8"/>
-      <c r="E306" s="18"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="8"/>
-      <c r="G306" s="12"/>
+      <c r="G306" s="15"/>
       <c r="H306" s="8"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
-      <c r="B307" s="12"/>
+      <c r="B307" s="15"/>
       <c r="C307" s="9"/>
       <c r="D307" s="8"/>
-      <c r="E307" s="18"/>
+      <c r="E307" s="11"/>
       <c r="F307" s="8"/>
-      <c r="G307" s="12"/>
+      <c r="G307" s="15"/>
       <c r="H307" s="8"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>35</v>
       </c>
-      <c r="B308" s="12"/>
+      <c r="B308" s="15"/>
       <c r="C308" s="9"/>
       <c r="D308" s="7"/>
-      <c r="E308" s="18"/>
+      <c r="E308" s="11"/>
       <c r="F308" s="8"/>
-      <c r="G308" s="12"/>
+      <c r="G308" s="15"/>
       <c r="H308" s="8"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
-      <c r="B309" s="12"/>
+      <c r="B309" s="15"/>
       <c r="C309" s="9"/>
       <c r="D309" s="8"/>
-      <c r="E309" s="18"/>
+      <c r="E309" s="11"/>
       <c r="F309" s="8"/>
-      <c r="G309" s="12"/>
+      <c r="G309" s="15"/>
       <c r="H309" s="8"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
-      <c r="B310" s="12"/>
+      <c r="B310" s="15"/>
       <c r="C310" s="9"/>
       <c r="D310" s="8"/>
-      <c r="E310" s="18"/>
+      <c r="E310" s="11"/>
       <c r="F310" s="8"/>
-      <c r="G310" s="12"/>
+      <c r="G310" s="15"/>
       <c r="H310" s="8"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
-      <c r="B311" s="12"/>
+      <c r="B311" s="15"/>
       <c r="C311" s="9"/>
       <c r="D311" s="8"/>
-      <c r="E311" s="18"/>
+      <c r="E311" s="11"/>
       <c r="F311" s="8"/>
-      <c r="G311" s="12"/>
+      <c r="G311" s="15"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
-      <c r="B312" s="12"/>
+      <c r="B312" s="15"/>
       <c r="C312" s="9"/>
       <c r="D312" s="8"/>
-      <c r="E312" s="18"/>
+      <c r="E312" s="11"/>
       <c r="F312" s="8"/>
-      <c r="G312" s="12"/>
+      <c r="G312" s="15"/>
       <c r="H312" s="8"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
-      <c r="B313" s="12"/>
+      <c r="B313" s="15"/>
       <c r="C313" s="9"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="18"/>
+      <c r="E313" s="11"/>
       <c r="F313" s="8"/>
-      <c r="G313" s="12"/>
+      <c r="G313" s="15"/>
       <c r="H313" s="8"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
-      <c r="B314" s="12"/>
+      <c r="B314" s="15"/>
       <c r="C314" s="9"/>
       <c r="D314" s="8"/>
-      <c r="E314" s="18"/>
+      <c r="E314" s="11"/>
       <c r="F314" s="8"/>
-      <c r="G314" s="12"/>
+      <c r="G314" s="15"/>
       <c r="H314" s="8"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
-      <c r="B315" s="12"/>
+      <c r="B315" s="15"/>
       <c r="C315" s="9"/>
       <c r="D315" s="8"/>
-      <c r="E315" s="18"/>
+      <c r="E315" s="11"/>
       <c r="F315" s="8"/>
-      <c r="G315" s="12"/>
+      <c r="G315" s="15"/>
       <c r="H315" s="8"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
-      <c r="B316" s="12"/>
+      <c r="B316" s="15"/>
       <c r="C316" s="9"/>
       <c r="D316" s="8"/>
-      <c r="E316" s="18"/>
+      <c r="E316" s="11"/>
       <c r="F316" s="8"/>
-      <c r="G316" s="12"/>
+      <c r="G316" s="15"/>
       <c r="H316" s="8"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>36</v>
       </c>
-      <c r="B317" s="12"/>
+      <c r="B317" s="15"/>
       <c r="C317" s="9"/>
       <c r="D317" s="7"/>
-      <c r="E317" s="18"/>
+      <c r="E317" s="11"/>
       <c r="F317" s="8"/>
       <c r="H317" s="8"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
-      <c r="B318" s="12"/>
+      <c r="B318" s="15"/>
       <c r="C318" s="9"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="18"/>
+      <c r="E318" s="11"/>
       <c r="F318" s="8"/>
       <c r="H318" s="8"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
-      <c r="B319" s="12"/>
+      <c r="B319" s="15"/>
       <c r="C319" s="9"/>
       <c r="D319" s="8"/>
-      <c r="E319" s="18"/>
+      <c r="E319" s="11"/>
       <c r="F319" s="8"/>
       <c r="H319" s="8"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
-      <c r="B320" s="12"/>
+      <c r="B320" s="15"/>
       <c r="C320" s="9"/>
       <c r="D320" s="8"/>
-      <c r="E320" s="18"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="8"/>
       <c r="H320" s="8"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
-      <c r="B321" s="12"/>
+      <c r="B321" s="15"/>
       <c r="C321" s="9"/>
       <c r="D321" s="8"/>
-      <c r="E321" s="18"/>
+      <c r="E321" s="11"/>
       <c r="F321" s="8"/>
       <c r="H321" s="8"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
-      <c r="B322" s="12"/>
+      <c r="B322" s="15"/>
       <c r="C322" s="9"/>
       <c r="D322" s="8"/>
-      <c r="E322" s="18"/>
+      <c r="E322" s="11"/>
       <c r="F322" s="8"/>
       <c r="H322" s="8"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
-      <c r="B323" s="12"/>
+      <c r="B323" s="15"/>
       <c r="C323" s="9"/>
       <c r="D323" s="8"/>
-      <c r="E323" s="18"/>
+      <c r="E323" s="11"/>
       <c r="F323" s="8"/>
       <c r="H323" s="8"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
-      <c r="B324" s="12"/>
+      <c r="B324" s="15"/>
       <c r="C324" s="9"/>
       <c r="D324" s="8"/>
-      <c r="E324" s="18"/>
+      <c r="E324" s="11"/>
       <c r="F324" s="8"/>
       <c r="H324" s="8"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
-      <c r="B325" s="12"/>
+      <c r="B325" s="15"/>
       <c r="C325" s="9"/>
       <c r="D325" s="8"/>
-      <c r="E325" s="18"/>
+      <c r="E325" s="11"/>
       <c r="F325" s="8"/>
       <c r="H325" s="8"/>
     </row>
@@ -5061,326 +5253,326 @@
       <c r="A326" s="9">
         <v>37</v>
       </c>
-      <c r="B326" s="12"/>
+      <c r="B326" s="15"/>
       <c r="C326" s="9"/>
       <c r="D326" s="7"/>
-      <c r="E326" s="18"/>
+      <c r="E326" s="11"/>
       <c r="F326" s="8"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
-      <c r="B327" s="12"/>
+      <c r="B327" s="15"/>
       <c r="C327" s="9"/>
       <c r="D327" s="8"/>
-      <c r="E327" s="18"/>
+      <c r="E327" s="11"/>
       <c r="F327" s="8"/>
       <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
-      <c r="B328" s="12"/>
+      <c r="B328" s="15"/>
       <c r="C328" s="9"/>
       <c r="D328" s="8"/>
-      <c r="E328" s="18"/>
+      <c r="E328" s="11"/>
       <c r="F328" s="8"/>
       <c r="H328" s="8"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
-      <c r="B329" s="12"/>
+      <c r="B329" s="15"/>
       <c r="C329" s="9"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="18"/>
+      <c r="E329" s="11"/>
       <c r="F329" s="8"/>
       <c r="H329" s="8"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
-      <c r="B330" s="12"/>
+      <c r="B330" s="15"/>
       <c r="C330" s="9"/>
       <c r="D330" s="8"/>
-      <c r="E330" s="18"/>
+      <c r="E330" s="11"/>
       <c r="F330" s="8"/>
       <c r="H330" s="8"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
-      <c r="B331" s="12"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="9"/>
       <c r="D331" s="8"/>
-      <c r="E331" s="18"/>
+      <c r="E331" s="11"/>
       <c r="F331" s="8"/>
       <c r="H331" s="8"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
-      <c r="B332" s="12"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="9"/>
       <c r="D332" s="8"/>
-      <c r="E332" s="18"/>
+      <c r="E332" s="11"/>
       <c r="F332" s="8"/>
       <c r="H332" s="8"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
-      <c r="B333" s="12"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="9"/>
       <c r="D333" s="8"/>
-      <c r="E333" s="18"/>
+      <c r="E333" s="11"/>
       <c r="F333" s="8"/>
       <c r="H333" s="8"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
-      <c r="B334" s="12"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="9"/>
       <c r="D334" s="8"/>
-      <c r="E334" s="18"/>
+      <c r="E334" s="11"/>
       <c r="F334" s="8"/>
       <c r="H334" s="8"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B335" s="12"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="9"/>
       <c r="D335" s="7"/>
-      <c r="E335" s="18"/>
+      <c r="E335" s="11"/>
       <c r="F335" s="8"/>
       <c r="H335" s="8"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B336" s="12"/>
+      <c r="B336" s="15"/>
       <c r="C336" s="9"/>
       <c r="D336" s="8"/>
-      <c r="E336" s="18"/>
+      <c r="E336" s="11"/>
       <c r="F336" s="8"/>
       <c r="H336" s="8"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B337" s="12"/>
+      <c r="B337" s="15"/>
       <c r="C337" s="9"/>
       <c r="D337" s="8"/>
-      <c r="E337" s="18"/>
+      <c r="E337" s="11"/>
       <c r="F337" s="8"/>
       <c r="H337" s="8"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B338" s="12"/>
+      <c r="B338" s="15"/>
       <c r="C338" s="9"/>
       <c r="D338" s="8"/>
-      <c r="E338" s="18"/>
+      <c r="E338" s="11"/>
       <c r="F338" s="8"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B339" s="12"/>
+      <c r="B339" s="15"/>
       <c r="C339" s="9"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="18"/>
+      <c r="E339" s="11"/>
       <c r="F339" s="8"/>
       <c r="H339" s="8"/>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B340" s="12"/>
+      <c r="B340" s="15"/>
       <c r="C340" s="9"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="18"/>
+      <c r="E340" s="11"/>
       <c r="F340" s="8"/>
       <c r="H340" s="8"/>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B341" s="12"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="9"/>
       <c r="D341" s="8"/>
-      <c r="E341" s="18"/>
+      <c r="E341" s="11"/>
       <c r="F341" s="8"/>
       <c r="H341" s="8"/>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B342" s="12"/>
+      <c r="B342" s="15"/>
       <c r="C342" s="9"/>
       <c r="D342" s="8"/>
-      <c r="E342" s="18"/>
+      <c r="E342" s="11"/>
       <c r="F342" s="8"/>
       <c r="H342" s="8"/>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B343" s="12"/>
+      <c r="B343" s="15"/>
       <c r="C343" s="9"/>
       <c r="D343" s="8"/>
-      <c r="E343" s="18"/>
+      <c r="E343" s="11"/>
       <c r="F343" s="8"/>
       <c r="H343" s="8"/>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B344" s="12"/>
+      <c r="B344" s="15"/>
       <c r="C344" s="9"/>
       <c r="D344" s="7"/>
-      <c r="E344" s="18"/>
+      <c r="E344" s="11"/>
       <c r="F344" s="8"/>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B345" s="12"/>
+      <c r="B345" s="15"/>
       <c r="C345" s="9"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="18"/>
+      <c r="E345" s="11"/>
       <c r="F345" s="8"/>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B346" s="12"/>
+      <c r="B346" s="15"/>
       <c r="C346" s="9"/>
       <c r="D346" s="8"/>
-      <c r="E346" s="18"/>
+      <c r="E346" s="11"/>
       <c r="F346" s="8"/>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B347" s="12"/>
+      <c r="B347" s="15"/>
       <c r="C347" s="9"/>
       <c r="D347" s="8"/>
-      <c r="E347" s="18"/>
+      <c r="E347" s="11"/>
       <c r="F347" s="8"/>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B348" s="12"/>
+      <c r="B348" s="15"/>
       <c r="C348" s="9"/>
       <c r="D348" s="8"/>
-      <c r="E348" s="18"/>
+      <c r="E348" s="11"/>
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B349" s="12"/>
+      <c r="B349" s="15"/>
       <c r="C349" s="9"/>
       <c r="D349" s="8"/>
-      <c r="E349" s="18"/>
+      <c r="E349" s="11"/>
       <c r="F349" s="8"/>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B350" s="12"/>
+      <c r="B350" s="15"/>
       <c r="C350" s="9"/>
       <c r="D350" s="8"/>
-      <c r="E350" s="18"/>
+      <c r="E350" s="11"/>
       <c r="F350" s="8"/>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B351" s="12"/>
+      <c r="B351" s="15"/>
       <c r="C351" s="9"/>
       <c r="D351" s="8"/>
-      <c r="E351" s="18"/>
+      <c r="E351" s="11"/>
       <c r="F351" s="8"/>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B352" s="12"/>
+      <c r="B352" s="15"/>
       <c r="C352" s="9"/>
       <c r="D352" s="8"/>
-      <c r="E352" s="18"/>
+      <c r="E352" s="11"/>
       <c r="F352" s="8"/>
     </row>
     <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="9"/>
       <c r="D353" s="7"/>
-      <c r="E353" s="18"/>
+      <c r="E353" s="11"/>
       <c r="F353" s="8"/>
     </row>
     <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="9"/>
       <c r="D354" s="8"/>
-      <c r="E354" s="18"/>
+      <c r="E354" s="11"/>
       <c r="F354" s="8"/>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="9"/>
       <c r="D355" s="8"/>
-      <c r="E355" s="18"/>
+      <c r="E355" s="11"/>
       <c r="F355" s="8"/>
     </row>
     <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="9"/>
       <c r="D356" s="8"/>
-      <c r="E356" s="18"/>
+      <c r="E356" s="11"/>
       <c r="F356" s="8"/>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="9"/>
       <c r="D357" s="8"/>
-      <c r="E357" s="18"/>
+      <c r="E357" s="11"/>
       <c r="F357" s="8"/>
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="9"/>
       <c r="D358" s="8"/>
-      <c r="E358" s="18"/>
+      <c r="E358" s="11"/>
       <c r="F358" s="8"/>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="9"/>
       <c r="D359" s="8"/>
-      <c r="E359" s="18"/>
+      <c r="E359" s="11"/>
       <c r="F359" s="8"/>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="9"/>
       <c r="D360" s="8"/>
-      <c r="E360" s="18"/>
+      <c r="E360" s="11"/>
       <c r="F360" s="8"/>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="9"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="18"/>
+      <c r="E361" s="11"/>
       <c r="F361" s="8"/>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="9"/>
       <c r="D362" s="7"/>
-      <c r="E362" s="18"/>
+      <c r="E362" s="11"/>
       <c r="F362" s="8"/>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="9"/>
       <c r="D363" s="8"/>
-      <c r="E363" s="18"/>
+      <c r="E363" s="11"/>
       <c r="F363" s="8"/>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="9"/>
       <c r="D364" s="8"/>
-      <c r="E364" s="18"/>
+      <c r="E364" s="11"/>
       <c r="F364" s="8"/>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="9"/>
       <c r="D365" s="8"/>
-      <c r="E365" s="18"/>
+      <c r="E365" s="11"/>
       <c r="F365" s="8"/>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="9"/>
       <c r="D366" s="8"/>
-      <c r="E366" s="18"/>
+      <c r="E366" s="11"/>
       <c r="F366" s="8"/>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="9"/>
       <c r="D367" s="8"/>
-      <c r="E367" s="18"/>
+      <c r="E367" s="11"/>
       <c r="F367" s="8"/>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="9"/>
       <c r="D368" s="8"/>
-      <c r="E368" s="18"/>
+      <c r="E368" s="11"/>
       <c r="F368" s="8"/>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="9"/>
       <c r="D369" s="8"/>
-      <c r="E369" s="18"/>
+      <c r="E369" s="11"/>
       <c r="F369" s="8"/>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="9"/>
       <c r="D370" s="8"/>
-      <c r="E370" s="18"/>
+      <c r="E370" s="11"/>
       <c r="F370" s="8"/>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.3">
@@ -6123,37 +6315,322 @@
     </row>
   </sheetData>
   <mergeCells count="371">
-    <mergeCell ref="D218:D226"/>
-    <mergeCell ref="D227:D235"/>
-    <mergeCell ref="D236:D244"/>
-    <mergeCell ref="D245:D253"/>
-    <mergeCell ref="D254:D262"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="C173:C181"/>
-    <mergeCell ref="C182:C190"/>
-    <mergeCell ref="C191:C199"/>
-    <mergeCell ref="C200:C208"/>
-    <mergeCell ref="C209:C217"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="D92:D100"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="D110:D118"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="D137:D145"/>
-    <mergeCell ref="D146:D154"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="D164:D172"/>
-    <mergeCell ref="D173:D181"/>
-    <mergeCell ref="D182:D190"/>
-    <mergeCell ref="D191:D199"/>
-    <mergeCell ref="D200:D208"/>
-    <mergeCell ref="D209:D217"/>
-    <mergeCell ref="E200:E208"/>
-    <mergeCell ref="E209:E217"/>
+    <mergeCell ref="D407:D415"/>
+    <mergeCell ref="D416:D424"/>
+    <mergeCell ref="D425:D433"/>
+    <mergeCell ref="D434:D442"/>
+    <mergeCell ref="D443:D451"/>
+    <mergeCell ref="C371:C379"/>
+    <mergeCell ref="C380:C388"/>
+    <mergeCell ref="C389:C397"/>
+    <mergeCell ref="C398:C406"/>
+    <mergeCell ref="D263:D271"/>
+    <mergeCell ref="D272:D280"/>
+    <mergeCell ref="D281:D289"/>
+    <mergeCell ref="D290:D298"/>
+    <mergeCell ref="D299:D307"/>
+    <mergeCell ref="D308:D316"/>
+    <mergeCell ref="D317:D325"/>
+    <mergeCell ref="D326:D334"/>
+    <mergeCell ref="D335:D343"/>
+    <mergeCell ref="D344:D352"/>
+    <mergeCell ref="D353:D361"/>
+    <mergeCell ref="D362:D370"/>
+    <mergeCell ref="D371:D379"/>
+    <mergeCell ref="D380:D388"/>
+    <mergeCell ref="D389:D397"/>
+    <mergeCell ref="D398:D406"/>
+    <mergeCell ref="C290:C298"/>
+    <mergeCell ref="C299:C307"/>
+    <mergeCell ref="C308:C316"/>
+    <mergeCell ref="C317:C325"/>
+    <mergeCell ref="C326:C334"/>
+    <mergeCell ref="C335:C343"/>
+    <mergeCell ref="C344:C352"/>
+    <mergeCell ref="C353:C361"/>
+    <mergeCell ref="C362:C370"/>
+    <mergeCell ref="F497:F505"/>
+    <mergeCell ref="F506:F514"/>
+    <mergeCell ref="F515:F523"/>
+    <mergeCell ref="F524:F532"/>
+    <mergeCell ref="F533:F541"/>
+    <mergeCell ref="F542:F550"/>
+    <mergeCell ref="F551:F559"/>
+    <mergeCell ref="F560:F568"/>
+    <mergeCell ref="F569:F577"/>
+    <mergeCell ref="F416:F424"/>
+    <mergeCell ref="F425:F433"/>
+    <mergeCell ref="F434:F442"/>
+    <mergeCell ref="F443:F451"/>
+    <mergeCell ref="F452:F460"/>
+    <mergeCell ref="F461:F469"/>
+    <mergeCell ref="F470:F478"/>
+    <mergeCell ref="F479:F487"/>
+    <mergeCell ref="F488:F496"/>
+    <mergeCell ref="F335:F343"/>
+    <mergeCell ref="F344:F352"/>
+    <mergeCell ref="F353:F361"/>
+    <mergeCell ref="F362:F370"/>
+    <mergeCell ref="F371:F379"/>
+    <mergeCell ref="F380:F388"/>
+    <mergeCell ref="F389:F397"/>
+    <mergeCell ref="F398:F406"/>
+    <mergeCell ref="F407:F415"/>
+    <mergeCell ref="A326:A334"/>
+    <mergeCell ref="F200:F208"/>
+    <mergeCell ref="F209:F217"/>
+    <mergeCell ref="F218:F226"/>
+    <mergeCell ref="F227:F235"/>
+    <mergeCell ref="F236:F244"/>
+    <mergeCell ref="F245:F253"/>
+    <mergeCell ref="F254:F262"/>
+    <mergeCell ref="F263:F271"/>
+    <mergeCell ref="F272:F280"/>
+    <mergeCell ref="F281:F289"/>
+    <mergeCell ref="F290:F298"/>
+    <mergeCell ref="F299:F307"/>
+    <mergeCell ref="F308:F316"/>
+    <mergeCell ref="F317:F325"/>
+    <mergeCell ref="F326:F334"/>
+    <mergeCell ref="C218:C226"/>
+    <mergeCell ref="C227:C235"/>
+    <mergeCell ref="C236:C244"/>
+    <mergeCell ref="C245:C253"/>
+    <mergeCell ref="C254:C262"/>
+    <mergeCell ref="C263:C271"/>
+    <mergeCell ref="C272:C280"/>
+    <mergeCell ref="C281:C289"/>
+    <mergeCell ref="A245:A253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="A263:A271"/>
+    <mergeCell ref="A272:A280"/>
+    <mergeCell ref="A281:A289"/>
+    <mergeCell ref="A290:A298"/>
+    <mergeCell ref="A299:A307"/>
+    <mergeCell ref="A308:A316"/>
+    <mergeCell ref="A317:A325"/>
+    <mergeCell ref="A164:A172"/>
+    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="A182:A190"/>
+    <mergeCell ref="A191:A199"/>
+    <mergeCell ref="A200:A208"/>
+    <mergeCell ref="A209:A217"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="A227:A235"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="A137:A145"/>
+    <mergeCell ref="A146:A154"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="I164:I172"/>
+    <mergeCell ref="I173:I181"/>
+    <mergeCell ref="I182:I190"/>
+    <mergeCell ref="I191:I199"/>
+    <mergeCell ref="I83:I91"/>
+    <mergeCell ref="I92:I100"/>
+    <mergeCell ref="I101:I109"/>
+    <mergeCell ref="I110:I118"/>
+    <mergeCell ref="I119:I127"/>
+    <mergeCell ref="I128:I136"/>
+    <mergeCell ref="I137:I145"/>
+    <mergeCell ref="I146:I154"/>
+    <mergeCell ref="I155:I163"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="I38:I46"/>
+    <mergeCell ref="I47:I55"/>
+    <mergeCell ref="I56:I64"/>
+    <mergeCell ref="I65:I73"/>
+    <mergeCell ref="I74:I82"/>
+    <mergeCell ref="H326:H334"/>
+    <mergeCell ref="H335:H343"/>
+    <mergeCell ref="H245:H253"/>
+    <mergeCell ref="H254:H262"/>
+    <mergeCell ref="H263:H271"/>
+    <mergeCell ref="H272:H280"/>
+    <mergeCell ref="H281:H289"/>
+    <mergeCell ref="H290:H298"/>
+    <mergeCell ref="H299:H307"/>
+    <mergeCell ref="H308:H316"/>
+    <mergeCell ref="H317:H325"/>
+    <mergeCell ref="H164:H172"/>
+    <mergeCell ref="H173:H181"/>
+    <mergeCell ref="H182:H190"/>
+    <mergeCell ref="H191:H199"/>
+    <mergeCell ref="H200:H208"/>
+    <mergeCell ref="H209:H217"/>
+    <mergeCell ref="H218:H226"/>
+    <mergeCell ref="H227:H235"/>
+    <mergeCell ref="H236:H244"/>
+    <mergeCell ref="H83:H91"/>
+    <mergeCell ref="H92:H100"/>
+    <mergeCell ref="H101:H109"/>
+    <mergeCell ref="H110:H118"/>
+    <mergeCell ref="H119:H127"/>
+    <mergeCell ref="H128:H136"/>
+    <mergeCell ref="H137:H145"/>
+    <mergeCell ref="H146:H154"/>
+    <mergeCell ref="H155:H163"/>
+    <mergeCell ref="B308:B316"/>
+    <mergeCell ref="B317:B325"/>
+    <mergeCell ref="B326:B334"/>
+    <mergeCell ref="B335:B343"/>
+    <mergeCell ref="B344:B352"/>
+    <mergeCell ref="B263:B271"/>
+    <mergeCell ref="B272:B280"/>
+    <mergeCell ref="B281:B289"/>
+    <mergeCell ref="B290:B298"/>
+    <mergeCell ref="B299:B307"/>
+    <mergeCell ref="B218:B226"/>
+    <mergeCell ref="B227:B235"/>
+    <mergeCell ref="B236:B244"/>
+    <mergeCell ref="B245:B253"/>
+    <mergeCell ref="B254:B262"/>
+    <mergeCell ref="B173:B181"/>
+    <mergeCell ref="B182:B190"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="B209:B217"/>
+    <mergeCell ref="G290:G298"/>
+    <mergeCell ref="G299:G307"/>
+    <mergeCell ref="G308:G316"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="B137:B145"/>
+    <mergeCell ref="B146:B154"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="B164:B172"/>
+    <mergeCell ref="G245:G253"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="G263:G271"/>
+    <mergeCell ref="G272:G280"/>
+    <mergeCell ref="G281:G289"/>
+    <mergeCell ref="G200:G208"/>
+    <mergeCell ref="G209:G217"/>
+    <mergeCell ref="G218:G226"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="G227:G235"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G155:G163"/>
+    <mergeCell ref="G164:G172"/>
+    <mergeCell ref="G173:G181"/>
+    <mergeCell ref="G182:G190"/>
+    <mergeCell ref="G191:G199"/>
+    <mergeCell ref="G110:G118"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="G128:G136"/>
+    <mergeCell ref="G137:G145"/>
+    <mergeCell ref="G146:G154"/>
+    <mergeCell ref="F182:F190"/>
+    <mergeCell ref="F191:F199"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F164:F172"/>
+    <mergeCell ref="F173:F181"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="H38:H46"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="G65:G73"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="G92:G100"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E47:E55"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="E65:E73"/>
+    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="H56:H64"/>
+    <mergeCell ref="H65:H73"/>
+    <mergeCell ref="H74:H82"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="F155:F163"/>
+    <mergeCell ref="F56:F64"/>
+    <mergeCell ref="F65:F73"/>
+    <mergeCell ref="F74:F82"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="F92:F100"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F118"/>
+    <mergeCell ref="F119:F127"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F137:F145"/>
+    <mergeCell ref="F146:F154"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="E137:E145"/>
+    <mergeCell ref="E146:E154"/>
+    <mergeCell ref="E155:E163"/>
+    <mergeCell ref="E353:E361"/>
+    <mergeCell ref="E362:E370"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="E281:E289"/>
+    <mergeCell ref="E290:E298"/>
+    <mergeCell ref="E299:E307"/>
+    <mergeCell ref="E308:E316"/>
+    <mergeCell ref="E317:E325"/>
+    <mergeCell ref="E326:E334"/>
+    <mergeCell ref="E227:E235"/>
+    <mergeCell ref="E236:E244"/>
+    <mergeCell ref="E245:E253"/>
+    <mergeCell ref="E254:E262"/>
+    <mergeCell ref="E263:E271"/>
+    <mergeCell ref="E272:E280"/>
+    <mergeCell ref="E173:E181"/>
+    <mergeCell ref="E182:E190"/>
+    <mergeCell ref="E191:E199"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="G20:G28"/>
     <mergeCell ref="E218:E226"/>
     <mergeCell ref="E335:E343"/>
     <mergeCell ref="E344:E352"/>
@@ -6178,322 +6655,37 @@
     <mergeCell ref="C146:C154"/>
     <mergeCell ref="E110:E118"/>
     <mergeCell ref="E119:E127"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="E137:E145"/>
-    <mergeCell ref="E146:E154"/>
-    <mergeCell ref="E155:E163"/>
-    <mergeCell ref="E353:E361"/>
-    <mergeCell ref="E362:E370"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="E281:E289"/>
-    <mergeCell ref="E290:E298"/>
-    <mergeCell ref="E299:E307"/>
-    <mergeCell ref="E308:E316"/>
-    <mergeCell ref="E317:E325"/>
-    <mergeCell ref="E326:E334"/>
-    <mergeCell ref="E227:E235"/>
-    <mergeCell ref="E236:E244"/>
-    <mergeCell ref="E245:E253"/>
-    <mergeCell ref="E254:E262"/>
-    <mergeCell ref="E263:E271"/>
-    <mergeCell ref="E272:E280"/>
-    <mergeCell ref="E173:E181"/>
-    <mergeCell ref="E182:E190"/>
-    <mergeCell ref="E191:E199"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="F155:F163"/>
-    <mergeCell ref="F56:F64"/>
-    <mergeCell ref="F65:F73"/>
-    <mergeCell ref="F74:F82"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="F92:F100"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F118"/>
-    <mergeCell ref="F119:F127"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F137:F145"/>
-    <mergeCell ref="F146:F154"/>
-    <mergeCell ref="H38:H46"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="G65:G73"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="G92:G100"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E47:E55"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="E65:E73"/>
-    <mergeCell ref="E74:E82"/>
-    <mergeCell ref="E92:E100"/>
-    <mergeCell ref="H56:H64"/>
-    <mergeCell ref="H65:H73"/>
-    <mergeCell ref="H74:H82"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="G227:G235"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G155:G163"/>
-    <mergeCell ref="G164:G172"/>
-    <mergeCell ref="G173:G181"/>
-    <mergeCell ref="G182:G190"/>
-    <mergeCell ref="G191:G199"/>
-    <mergeCell ref="G110:G118"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="G128:G136"/>
-    <mergeCell ref="G137:G145"/>
-    <mergeCell ref="G146:G154"/>
-    <mergeCell ref="F182:F190"/>
-    <mergeCell ref="F191:F199"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F164:F172"/>
-    <mergeCell ref="F173:F181"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="G290:G298"/>
-    <mergeCell ref="G299:G307"/>
-    <mergeCell ref="G308:G316"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="B146:B154"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="G245:G253"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="G263:G271"/>
-    <mergeCell ref="G272:G280"/>
-    <mergeCell ref="G281:G289"/>
-    <mergeCell ref="G200:G208"/>
-    <mergeCell ref="G209:G217"/>
-    <mergeCell ref="G218:G226"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="B227:B235"/>
-    <mergeCell ref="B236:B244"/>
-    <mergeCell ref="B245:B253"/>
-    <mergeCell ref="B254:B262"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="B182:B190"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="B308:B316"/>
-    <mergeCell ref="B317:B325"/>
-    <mergeCell ref="B326:B334"/>
-    <mergeCell ref="B335:B343"/>
-    <mergeCell ref="B344:B352"/>
-    <mergeCell ref="B263:B271"/>
-    <mergeCell ref="B272:B280"/>
-    <mergeCell ref="B281:B289"/>
-    <mergeCell ref="B290:B298"/>
-    <mergeCell ref="B299:B307"/>
-    <mergeCell ref="H83:H91"/>
-    <mergeCell ref="H92:H100"/>
-    <mergeCell ref="H101:H109"/>
-    <mergeCell ref="H110:H118"/>
-    <mergeCell ref="H119:H127"/>
-    <mergeCell ref="H128:H136"/>
-    <mergeCell ref="H137:H145"/>
-    <mergeCell ref="H146:H154"/>
-    <mergeCell ref="H155:H163"/>
-    <mergeCell ref="H164:H172"/>
-    <mergeCell ref="H173:H181"/>
-    <mergeCell ref="H182:H190"/>
-    <mergeCell ref="H191:H199"/>
-    <mergeCell ref="H200:H208"/>
-    <mergeCell ref="H209:H217"/>
-    <mergeCell ref="H218:H226"/>
-    <mergeCell ref="H227:H235"/>
-    <mergeCell ref="H236:H244"/>
-    <mergeCell ref="H326:H334"/>
-    <mergeCell ref="H335:H343"/>
-    <mergeCell ref="H245:H253"/>
-    <mergeCell ref="H254:H262"/>
-    <mergeCell ref="H263:H271"/>
-    <mergeCell ref="H272:H280"/>
-    <mergeCell ref="H281:H289"/>
-    <mergeCell ref="H290:H298"/>
-    <mergeCell ref="H299:H307"/>
-    <mergeCell ref="H308:H316"/>
-    <mergeCell ref="H317:H325"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="I11:I19"/>
-    <mergeCell ref="I20:I28"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="I38:I46"/>
-    <mergeCell ref="I47:I55"/>
-    <mergeCell ref="I56:I64"/>
-    <mergeCell ref="I65:I73"/>
-    <mergeCell ref="I74:I82"/>
-    <mergeCell ref="I164:I172"/>
-    <mergeCell ref="I173:I181"/>
-    <mergeCell ref="I182:I190"/>
-    <mergeCell ref="I191:I199"/>
-    <mergeCell ref="I83:I91"/>
-    <mergeCell ref="I92:I100"/>
-    <mergeCell ref="I101:I109"/>
-    <mergeCell ref="I110:I118"/>
-    <mergeCell ref="I119:I127"/>
-    <mergeCell ref="I128:I136"/>
-    <mergeCell ref="I137:I145"/>
-    <mergeCell ref="I146:I154"/>
-    <mergeCell ref="I155:I163"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="A128:A136"/>
-    <mergeCell ref="A137:A145"/>
-    <mergeCell ref="A146:A154"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A173:A181"/>
-    <mergeCell ref="A182:A190"/>
-    <mergeCell ref="A191:A199"/>
-    <mergeCell ref="A200:A208"/>
-    <mergeCell ref="A209:A217"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="A227:A235"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A245:A253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="A263:A271"/>
-    <mergeCell ref="A272:A280"/>
-    <mergeCell ref="A281:A289"/>
-    <mergeCell ref="A290:A298"/>
-    <mergeCell ref="A299:A307"/>
-    <mergeCell ref="A308:A316"/>
-    <mergeCell ref="A317:A325"/>
-    <mergeCell ref="A326:A334"/>
-    <mergeCell ref="F200:F208"/>
-    <mergeCell ref="F209:F217"/>
-    <mergeCell ref="F218:F226"/>
-    <mergeCell ref="F227:F235"/>
-    <mergeCell ref="F236:F244"/>
-    <mergeCell ref="F245:F253"/>
-    <mergeCell ref="F254:F262"/>
-    <mergeCell ref="F263:F271"/>
-    <mergeCell ref="F272:F280"/>
-    <mergeCell ref="F281:F289"/>
-    <mergeCell ref="F290:F298"/>
-    <mergeCell ref="F299:F307"/>
-    <mergeCell ref="F308:F316"/>
-    <mergeCell ref="F317:F325"/>
-    <mergeCell ref="F326:F334"/>
-    <mergeCell ref="C218:C226"/>
-    <mergeCell ref="C227:C235"/>
-    <mergeCell ref="C236:C244"/>
-    <mergeCell ref="C245:C253"/>
-    <mergeCell ref="C254:C262"/>
-    <mergeCell ref="C263:C271"/>
-    <mergeCell ref="C272:C280"/>
-    <mergeCell ref="C281:C289"/>
-    <mergeCell ref="F335:F343"/>
-    <mergeCell ref="F344:F352"/>
-    <mergeCell ref="F353:F361"/>
-    <mergeCell ref="F362:F370"/>
-    <mergeCell ref="F371:F379"/>
-    <mergeCell ref="F380:F388"/>
-    <mergeCell ref="F389:F397"/>
-    <mergeCell ref="F398:F406"/>
-    <mergeCell ref="F407:F415"/>
-    <mergeCell ref="F416:F424"/>
-    <mergeCell ref="F425:F433"/>
-    <mergeCell ref="F434:F442"/>
-    <mergeCell ref="F443:F451"/>
-    <mergeCell ref="F452:F460"/>
-    <mergeCell ref="F461:F469"/>
-    <mergeCell ref="F470:F478"/>
-    <mergeCell ref="F479:F487"/>
-    <mergeCell ref="F488:F496"/>
-    <mergeCell ref="F497:F505"/>
-    <mergeCell ref="F506:F514"/>
-    <mergeCell ref="F515:F523"/>
-    <mergeCell ref="F524:F532"/>
-    <mergeCell ref="F533:F541"/>
-    <mergeCell ref="F542:F550"/>
-    <mergeCell ref="F551:F559"/>
-    <mergeCell ref="F560:F568"/>
-    <mergeCell ref="F569:F577"/>
-    <mergeCell ref="D344:D352"/>
-    <mergeCell ref="D353:D361"/>
-    <mergeCell ref="D362:D370"/>
-    <mergeCell ref="D371:D379"/>
-    <mergeCell ref="D380:D388"/>
-    <mergeCell ref="D389:D397"/>
-    <mergeCell ref="D398:D406"/>
-    <mergeCell ref="C290:C298"/>
-    <mergeCell ref="C299:C307"/>
-    <mergeCell ref="C308:C316"/>
-    <mergeCell ref="C317:C325"/>
-    <mergeCell ref="C326:C334"/>
-    <mergeCell ref="C335:C343"/>
-    <mergeCell ref="C344:C352"/>
-    <mergeCell ref="C353:C361"/>
-    <mergeCell ref="C362:C370"/>
-    <mergeCell ref="D263:D271"/>
-    <mergeCell ref="D272:D280"/>
-    <mergeCell ref="D281:D289"/>
-    <mergeCell ref="D290:D298"/>
-    <mergeCell ref="D299:D307"/>
-    <mergeCell ref="D308:D316"/>
-    <mergeCell ref="D317:D325"/>
-    <mergeCell ref="D326:D334"/>
-    <mergeCell ref="D335:D343"/>
-    <mergeCell ref="D407:D415"/>
-    <mergeCell ref="D416:D424"/>
-    <mergeCell ref="D425:D433"/>
-    <mergeCell ref="D434:D442"/>
-    <mergeCell ref="D443:D451"/>
-    <mergeCell ref="C371:C379"/>
-    <mergeCell ref="C380:C388"/>
-    <mergeCell ref="C389:C397"/>
-    <mergeCell ref="C398:C406"/>
+    <mergeCell ref="D146:D154"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="D164:D172"/>
+    <mergeCell ref="D173:D181"/>
+    <mergeCell ref="D182:D190"/>
+    <mergeCell ref="D191:D199"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D209:D217"/>
+    <mergeCell ref="E200:E208"/>
+    <mergeCell ref="E209:E217"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="D92:D100"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="D110:D118"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="D137:D145"/>
+    <mergeCell ref="D218:D226"/>
+    <mergeCell ref="D227:D235"/>
+    <mergeCell ref="D236:D244"/>
+    <mergeCell ref="D245:D253"/>
+    <mergeCell ref="D254:D262"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="C173:C181"/>
+    <mergeCell ref="C182:C190"/>
+    <mergeCell ref="C191:C199"/>
+    <mergeCell ref="C200:C208"/>
+    <mergeCell ref="C209:C217"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{DFE75C78-3AAA-4B97-AB47-A50070B792D0}"/>
@@ -6506,9 +6698,10 @@
     <hyperlink ref="D74" r:id="rId8" xr:uid="{5BB43C6E-FA2A-4F4F-BC50-13BF38CC821A}"/>
     <hyperlink ref="D83" r:id="rId9" xr:uid="{D22E6D84-CA32-405E-8FFF-6C2917B63A90}"/>
     <hyperlink ref="D92" r:id="rId10" xr:uid="{C019381E-925B-45A9-B2B8-1B702847110D}"/>
+    <hyperlink ref="H101" r:id="rId11" xr:uid="{D8DC702C-2DF5-47C8-8D24-DDF583A4CA29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Problems/Dynamic Programming.xlsx
+++ b/Problems/Dynamic Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB55BCA-6611-4E52-BA3E-464A87D28B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BA1B9-EC79-4F9C-A79E-AE94BDE11E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -803,6 +803,83 @@
       <t xml:space="preserve">Dp(prog, rem, happy) ----&gt; how many ways you can distribute remaining "rem" tasks between prog to n if one of them are happy.
 Recurrence: dp(prog, rem, happy) = sum(i, 0, rem) : ncr(rem, i) * dp(prog +1, rem - i, happy | (i == prog) 
 Base Case : if (prog &gt; n) if no task is left and atleast one is happy return 1. otherwise 0. </t>
+    </r>
+  </si>
+  <si>
+    <t>27.07.21</t>
+  </si>
+  <si>
+    <r>
+      <t>There is a k-tree which has infinite node. Every node has exactly k children.  The cost of edge between root and k-children nodes consisting of {1 to k} for every root at every level.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In how many ways you can choose a path so that sum of the edges of that path is n and atleast one edge is atleast d. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">first I thought it was same as the problem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Zapina. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">But it wasn't </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">there are 2 state of dp : 1. remaining sum.
+2. whether atleast an edge is taken which is greater than or equal to d.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each state has a loop for taking an edge between 1 to k. 
+Dp(baki, happy) ----&gt; how many paths are there whose sum is baki and atleast one of the edge is &gt;= d. 
+Recurrence : for(int i = 1; i &lt;= k; i++) dp(baki - i, (happy | (i &gt;= d)))
+Base Case : if(baki &lt; 0) return 0;
+if( baki == 0 &amp;&amp; happy == 1) return 1; else return 0;</t>
     </r>
   </si>
 </sst>
@@ -1008,6 +1085,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1031,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1580,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9898A-9ECF-4948-BCC0-B50754857C19}">
   <dimension ref="A1:I577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101:F109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,8 +1668,8 @@
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" customWidth="1"/>
-    <col min="6" max="6" width="75.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
@@ -1643,9 +1720,9 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1654,9 +1731,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
@@ -1665,9 +1742,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -1676,9 +1753,9 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -1687,9 +1764,9 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -1698,9 +1775,9 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1709,9 +1786,9 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -1720,9 +1797,9 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
@@ -1731,9 +1808,9 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -1746,7 +1823,7 @@
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1758,7 +1835,7 @@
       <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -1769,7 +1846,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1780,7 +1857,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -1791,7 +1868,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -1802,7 +1879,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -1813,7 +1890,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -1824,7 +1901,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -1835,7 +1912,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -1846,7 +1923,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -1861,7 +1938,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1872,7 +1949,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1883,7 +1960,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -1894,7 +1971,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -1905,7 +1982,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -1916,7 +1993,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
@@ -1927,7 +2004,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -1938,7 +2015,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -1949,7 +2026,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
@@ -1974,7 +2051,7 @@
       <c r="H29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -1985,7 +2062,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -1996,7 +2073,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
@@ -2007,7 +2084,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -2018,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -2029,7 +2106,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="17"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
@@ -2040,7 +2117,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
@@ -2051,7 +2128,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -2062,13 +2139,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>5</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="9"/>
@@ -2087,7 +2164,7 @@
       <c r="H38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
@@ -2098,7 +2175,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="17"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
@@ -2109,7 +2186,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="17"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -2120,7 +2197,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="17"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -2131,7 +2208,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="17"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -2142,7 +2219,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="17"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
@@ -2153,7 +2230,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="17"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
@@ -2164,7 +2241,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
@@ -2175,7 +2252,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="17"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
@@ -2191,14 +2268,14 @@
         <v>32</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -2209,7 +2286,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -2220,7 +2297,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="17"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
@@ -2231,7 +2308,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="17"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
@@ -2242,7 +2319,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="17"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
@@ -2253,7 +2330,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -2264,7 +2341,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -2275,7 +2352,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
@@ -2286,7 +2363,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
@@ -2309,7 +2386,7 @@
         <v>37</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
@@ -2320,7 +2397,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="17"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
@@ -2331,7 +2408,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -2342,7 +2419,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="17"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
@@ -2353,7 +2430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="17"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
@@ -2364,7 +2441,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="17"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
@@ -2375,7 +2452,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="17"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -2386,7 +2463,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="17"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
@@ -2397,7 +2474,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="17"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
@@ -2416,7 +2493,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2429,7 +2506,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="17"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
@@ -2440,7 +2517,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="17"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -2451,7 +2528,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="17"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
@@ -2462,7 +2539,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="17"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
@@ -2473,7 +2550,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="17"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
@@ -2484,7 +2561,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="17"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
@@ -2495,7 +2572,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="17"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2506,7 +2583,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="17"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
@@ -2531,7 +2608,7 @@
       <c r="H74" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I74" s="17"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
@@ -2542,7 +2619,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="17"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
@@ -2553,7 +2630,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="17"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -2564,7 +2641,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="17"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
@@ -2575,7 +2652,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="17"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
@@ -2586,7 +2663,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="17"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
@@ -2597,7 +2674,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="17"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
@@ -2608,7 +2685,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="17"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
@@ -2619,7 +2696,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="17"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
@@ -2637,14 +2714,14 @@
       <c r="E83" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="17"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -2655,7 +2732,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="17"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
@@ -2666,7 +2743,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="17"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -2677,7 +2754,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="17"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
@@ -2688,7 +2765,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="17"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
@@ -2699,7 +2776,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="17"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
@@ -2710,7 +2787,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
@@ -2721,7 +2798,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
@@ -2732,7 +2809,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
@@ -2757,7 +2834,7 @@
       <c r="H92" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I92" s="17"/>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -2768,7 +2845,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="17"/>
+      <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
@@ -2779,7 +2856,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="17"/>
+      <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
@@ -2790,7 +2867,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="17"/>
+      <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
@@ -2801,7 +2878,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="17"/>
+      <c r="I96" s="18"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -2812,7 +2889,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="17"/>
+      <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
@@ -2823,7 +2900,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="17"/>
+      <c r="I98" s="18"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
@@ -2834,7 +2911,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="17"/>
+      <c r="I99" s="18"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
@@ -2845,7 +2922,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
@@ -2857,7 +2934,7 @@
       <c r="C101" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -2870,7 +2947,7 @@
       <c r="H101" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I101" s="17"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
@@ -2881,7 +2958,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="17"/>
+      <c r="I102" s="18"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
@@ -2892,7 +2969,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="17"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -2903,7 +2980,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="17"/>
+      <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
@@ -2914,7 +2991,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="17"/>
+      <c r="I105" s="18"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
@@ -2925,7 +3002,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="17"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
@@ -2936,7 +3013,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="17"/>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
@@ -2947,7 +3024,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="17"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
@@ -2958,20 +3035,28 @@
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="17"/>
+      <c r="I109" s="18"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>13</v>
       </c>
       <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
+      <c r="E110" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="17"/>
+      <c r="H110" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110" s="18"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
@@ -2982,7 +3067,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="17"/>
+      <c r="I111" s="18"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
@@ -2993,7 +3078,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="17"/>
+      <c r="I112" s="18"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
@@ -3004,7 +3089,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
       <c r="H113" s="8"/>
-      <c r="I113" s="17"/>
+      <c r="I113" s="18"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
@@ -3015,7 +3100,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="17"/>
+      <c r="I114" s="18"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
@@ -3026,7 +3111,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="9"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="17"/>
+      <c r="I115" s="18"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
@@ -3037,7 +3122,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="17"/>
+      <c r="I116" s="18"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
@@ -3048,7 +3133,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="9"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="17"/>
+      <c r="I117" s="18"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
@@ -3059,7 +3144,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="17"/>
+      <c r="I118" s="18"/>
     </row>
     <row r="119" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
@@ -3072,7 +3157,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="9"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="17"/>
+      <c r="I119" s="18"/>
     </row>
     <row r="120" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
@@ -3083,7 +3168,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="17"/>
+      <c r="I120" s="18"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
@@ -3094,7 +3179,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="9"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="17"/>
+      <c r="I121" s="18"/>
     </row>
     <row r="122" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
@@ -3105,7 +3190,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="17"/>
+      <c r="I122" s="18"/>
     </row>
     <row r="123" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
@@ -3116,7 +3201,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="9"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="17"/>
+      <c r="I123" s="18"/>
     </row>
     <row r="124" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
@@ -3127,7 +3212,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="17"/>
+      <c r="I124" s="18"/>
     </row>
     <row r="125" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
@@ -3138,7 +3223,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="9"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="17"/>
+      <c r="I125" s="18"/>
     </row>
     <row r="126" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
@@ -3149,7 +3234,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="17"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
@@ -3160,7 +3245,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="17"/>
+      <c r="I127" s="18"/>
     </row>
     <row r="128" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
@@ -3173,7 +3258,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="17"/>
+      <c r="I128" s="18"/>
     </row>
     <row r="129" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
@@ -3184,7 +3269,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="17"/>
+      <c r="I129" s="18"/>
     </row>
     <row r="130" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
@@ -3195,7 +3280,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="17"/>
+      <c r="I130" s="18"/>
     </row>
     <row r="131" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
@@ -3206,7 +3291,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="9"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="17"/>
+      <c r="I131" s="18"/>
     </row>
     <row r="132" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
@@ -3217,7 +3302,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="17"/>
+      <c r="I132" s="18"/>
     </row>
     <row r="133" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
@@ -3228,7 +3313,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="17"/>
+      <c r="I133" s="18"/>
     </row>
     <row r="134" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
@@ -3239,7 +3324,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="17"/>
+      <c r="I134" s="18"/>
     </row>
     <row r="135" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
@@ -3250,7 +3335,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="17"/>
+      <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
@@ -3261,1991 +3346,1991 @@
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="17"/>
+      <c r="I136" s="18"/>
     </row>
     <row r="137" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>16</v>
       </c>
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="9"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="12"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="15"/>
+      <c r="G137" s="16"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="17"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="9"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="12"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="15"/>
+      <c r="G138" s="16"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="17"/>
+      <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="9"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="12"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="15"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="17"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="9"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="12"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="15"/>
+      <c r="G140" s="16"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="17"/>
+      <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="9"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="12"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="15"/>
+      <c r="G141" s="16"/>
       <c r="H141" s="8"/>
-      <c r="I141" s="17"/>
+      <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="9"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="15"/>
+      <c r="G142" s="16"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="17"/>
+      <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="9"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="12"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="15"/>
+      <c r="G143" s="16"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="17"/>
+      <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="9"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="12"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="15"/>
+      <c r="G144" s="16"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="17"/>
+      <c r="I144" s="18"/>
     </row>
     <row r="145" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="9"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="12"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="15"/>
+      <c r="G145" s="16"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="17"/>
+      <c r="I145" s="18"/>
     </row>
     <row r="146" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>17</v>
       </c>
-      <c r="B146" s="15"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="9"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="12"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="15"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="17"/>
+      <c r="I146" s="18"/>
     </row>
     <row r="147" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="9"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="15"/>
+      <c r="G147" s="16"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="17"/>
+      <c r="I147" s="18"/>
     </row>
     <row r="148" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="9"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="12"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="15"/>
+      <c r="G148" s="16"/>
       <c r="H148" s="8"/>
-      <c r="I148" s="17"/>
+      <c r="I148" s="18"/>
     </row>
     <row r="149" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="9"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="15"/>
+      <c r="G149" s="16"/>
       <c r="H149" s="8"/>
-      <c r="I149" s="17"/>
+      <c r="I149" s="18"/>
     </row>
     <row r="150" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="9"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="11"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="15"/>
+      <c r="G150" s="16"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="17"/>
+      <c r="I150" s="18"/>
     </row>
     <row r="151" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="15"/>
+      <c r="G151" s="16"/>
       <c r="H151" s="8"/>
-      <c r="I151" s="17"/>
+      <c r="I151" s="18"/>
     </row>
     <row r="152" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="9"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="11"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="15"/>
+      <c r="G152" s="16"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="17"/>
+      <c r="I152" s="18"/>
     </row>
     <row r="153" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="9"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="11"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="15"/>
+      <c r="G153" s="16"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="17"/>
+      <c r="I153" s="18"/>
     </row>
     <row r="154" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="9"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="11"/>
+      <c r="E154" s="12"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="15"/>
+      <c r="G154" s="16"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="17"/>
+      <c r="I154" s="18"/>
     </row>
     <row r="155" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>18</v>
       </c>
-      <c r="B155" s="15"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="9"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="12"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="15"/>
+      <c r="G155" s="16"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="17"/>
+      <c r="I155" s="18"/>
     </row>
     <row r="156" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="9"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="12"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="15"/>
+      <c r="G156" s="16"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="17"/>
+      <c r="I156" s="18"/>
     </row>
     <row r="157" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="9"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="15"/>
+      <c r="G157" s="16"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="17"/>
+      <c r="I157" s="18"/>
     </row>
     <row r="158" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="9"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="12"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="15"/>
+      <c r="G158" s="16"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="17"/>
+      <c r="I158" s="18"/>
     </row>
     <row r="159" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="9"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="11"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="15"/>
+      <c r="G159" s="16"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="17"/>
+      <c r="I159" s="18"/>
     </row>
     <row r="160" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="9"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="11"/>
+      <c r="E160" s="12"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="15"/>
+      <c r="G160" s="16"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="17"/>
+      <c r="I160" s="18"/>
     </row>
     <row r="161" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="9"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="11"/>
+      <c r="E161" s="12"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="15"/>
+      <c r="G161" s="16"/>
       <c r="H161" s="8"/>
-      <c r="I161" s="17"/>
+      <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="9"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="11"/>
+      <c r="E162" s="12"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="15"/>
+      <c r="G162" s="16"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="17"/>
+      <c r="I162" s="18"/>
     </row>
     <row r="163" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="9"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="11"/>
+      <c r="E163" s="12"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="15"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="17"/>
+      <c r="I163" s="18"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>19</v>
       </c>
-      <c r="B164" s="15"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="9"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="11"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="15"/>
+      <c r="G164" s="16"/>
       <c r="H164" s="8"/>
-      <c r="I164" s="17"/>
+      <c r="I164" s="18"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="9"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="11"/>
+      <c r="E165" s="12"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="15"/>
+      <c r="G165" s="16"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="17"/>
+      <c r="I165" s="18"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="9"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="11"/>
+      <c r="E166" s="12"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="15"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="17"/>
+      <c r="I166" s="18"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="9"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="11"/>
+      <c r="E167" s="12"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="15"/>
+      <c r="G167" s="16"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="17"/>
+      <c r="I167" s="18"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="9"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="11"/>
+      <c r="E168" s="12"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="15"/>
+      <c r="G168" s="16"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="17"/>
+      <c r="I168" s="18"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="9"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="11"/>
+      <c r="E169" s="12"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="15"/>
+      <c r="G169" s="16"/>
       <c r="H169" s="8"/>
-      <c r="I169" s="17"/>
+      <c r="I169" s="18"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="9"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="11"/>
+      <c r="E170" s="12"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="15"/>
+      <c r="G170" s="16"/>
       <c r="H170" s="8"/>
-      <c r="I170" s="17"/>
+      <c r="I170" s="18"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="9"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="11"/>
+      <c r="E171" s="12"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="15"/>
+      <c r="G171" s="16"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="17"/>
+      <c r="I171" s="18"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="9"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="11"/>
+      <c r="E172" s="12"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="15"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="8"/>
-      <c r="I172" s="17"/>
+      <c r="I172" s="18"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>20</v>
       </c>
-      <c r="B173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="9"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="11"/>
+      <c r="E173" s="12"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="15"/>
+      <c r="G173" s="16"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="17"/>
+      <c r="I173" s="18"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="9"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="11"/>
+      <c r="E174" s="12"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="15"/>
+      <c r="G174" s="16"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="17"/>
+      <c r="I174" s="18"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="9"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="11"/>
+      <c r="E175" s="12"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="15"/>
+      <c r="G175" s="16"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="17"/>
+      <c r="I175" s="18"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="9"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="11"/>
+      <c r="E176" s="12"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="15"/>
+      <c r="G176" s="16"/>
       <c r="H176" s="8"/>
-      <c r="I176" s="17"/>
+      <c r="I176" s="18"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="9"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="11"/>
+      <c r="E177" s="12"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="15"/>
+      <c r="G177" s="16"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="17"/>
+      <c r="I177" s="18"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="9"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="11"/>
+      <c r="E178" s="12"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="15"/>
+      <c r="G178" s="16"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="17"/>
+      <c r="I178" s="18"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="9"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="11"/>
+      <c r="E179" s="12"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="15"/>
+      <c r="G179" s="16"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="17"/>
+      <c r="I179" s="18"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="9"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="12"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="15"/>
+      <c r="G180" s="16"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="17"/>
+      <c r="I180" s="18"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="9"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="12"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="15"/>
+      <c r="G181" s="16"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="17"/>
+      <c r="I181" s="18"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>21</v>
       </c>
-      <c r="B182" s="15"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="9"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="11"/>
+      <c r="E182" s="12"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="15"/>
+      <c r="G182" s="16"/>
       <c r="H182" s="8"/>
-      <c r="I182" s="17"/>
+      <c r="I182" s="18"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="9"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="11"/>
+      <c r="E183" s="12"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="15"/>
+      <c r="G183" s="16"/>
       <c r="H183" s="8"/>
-      <c r="I183" s="17"/>
+      <c r="I183" s="18"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="9"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="11"/>
+      <c r="E184" s="12"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="15"/>
+      <c r="G184" s="16"/>
       <c r="H184" s="8"/>
-      <c r="I184" s="17"/>
+      <c r="I184" s="18"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="9"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="11"/>
+      <c r="E185" s="12"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="15"/>
+      <c r="G185" s="16"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="17"/>
+      <c r="I185" s="18"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="9"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="11"/>
+      <c r="E186" s="12"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="15"/>
+      <c r="G186" s="16"/>
       <c r="H186" s="8"/>
-      <c r="I186" s="17"/>
+      <c r="I186" s="18"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="9"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="11"/>
+      <c r="E187" s="12"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="15"/>
+      <c r="G187" s="16"/>
       <c r="H187" s="8"/>
-      <c r="I187" s="17"/>
+      <c r="I187" s="18"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="9"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="12"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="15"/>
+      <c r="G188" s="16"/>
       <c r="H188" s="8"/>
-      <c r="I188" s="17"/>
+      <c r="I188" s="18"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="9"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="11"/>
+      <c r="E189" s="12"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="15"/>
+      <c r="G189" s="16"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="17"/>
+      <c r="I189" s="18"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="9"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="11"/>
+      <c r="E190" s="12"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="15"/>
+      <c r="G190" s="16"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="17"/>
+      <c r="I190" s="18"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>22</v>
       </c>
-      <c r="B191" s="15"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="9"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="11"/>
+      <c r="E191" s="12"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="15"/>
+      <c r="G191" s="16"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="17"/>
+      <c r="I191" s="18"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="9"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="11"/>
+      <c r="E192" s="12"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="15"/>
+      <c r="G192" s="16"/>
       <c r="H192" s="8"/>
-      <c r="I192" s="17"/>
+      <c r="I192" s="18"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="9"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="11"/>
+      <c r="E193" s="12"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="15"/>
+      <c r="G193" s="16"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="17"/>
+      <c r="I193" s="18"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="9"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="11"/>
+      <c r="E194" s="12"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="15"/>
+      <c r="G194" s="16"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="17"/>
+      <c r="I194" s="18"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="9"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="11"/>
+      <c r="E195" s="12"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="15"/>
+      <c r="G195" s="16"/>
       <c r="H195" s="8"/>
-      <c r="I195" s="17"/>
+      <c r="I195" s="18"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="9"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="11"/>
+      <c r="E196" s="12"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="15"/>
+      <c r="G196" s="16"/>
       <c r="H196" s="8"/>
-      <c r="I196" s="17"/>
+      <c r="I196" s="18"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="9"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="11"/>
+      <c r="E197" s="12"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="15"/>
+      <c r="G197" s="16"/>
       <c r="H197" s="8"/>
-      <c r="I197" s="17"/>
+      <c r="I197" s="18"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="9"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="11"/>
+      <c r="E198" s="12"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="15"/>
+      <c r="G198" s="16"/>
       <c r="H198" s="8"/>
-      <c r="I198" s="17"/>
+      <c r="I198" s="18"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="9"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="11"/>
+      <c r="E199" s="12"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="15"/>
+      <c r="G199" s="16"/>
       <c r="H199" s="8"/>
-      <c r="I199" s="17"/>
+      <c r="I199" s="18"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>23</v>
       </c>
-      <c r="B200" s="15"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="9"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="11"/>
+      <c r="E200" s="12"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="15"/>
+      <c r="G200" s="16"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="9"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="11"/>
+      <c r="E201" s="12"/>
       <c r="F201" s="8"/>
-      <c r="G201" s="15"/>
+      <c r="G201" s="16"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="9"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="11"/>
+      <c r="E202" s="12"/>
       <c r="F202" s="8"/>
-      <c r="G202" s="15"/>
+      <c r="G202" s="16"/>
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="9"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="11"/>
+      <c r="E203" s="12"/>
       <c r="F203" s="8"/>
-      <c r="G203" s="15"/>
+      <c r="G203" s="16"/>
       <c r="H203" s="8"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="9"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="11"/>
+      <c r="E204" s="12"/>
       <c r="F204" s="8"/>
-      <c r="G204" s="15"/>
+      <c r="G204" s="16"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="9"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="11"/>
+      <c r="E205" s="12"/>
       <c r="F205" s="8"/>
-      <c r="G205" s="15"/>
+      <c r="G205" s="16"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="9"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="11"/>
+      <c r="E206" s="12"/>
       <c r="F206" s="8"/>
-      <c r="G206" s="15"/>
+      <c r="G206" s="16"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="9"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="11"/>
+      <c r="E207" s="12"/>
       <c r="F207" s="8"/>
-      <c r="G207" s="15"/>
+      <c r="G207" s="16"/>
       <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="9"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="11"/>
+      <c r="E208" s="12"/>
       <c r="F208" s="8"/>
-      <c r="G208" s="15"/>
+      <c r="G208" s="16"/>
       <c r="H208" s="8"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>24</v>
       </c>
-      <c r="B209" s="15"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="9"/>
       <c r="D209" s="7"/>
-      <c r="E209" s="11"/>
+      <c r="E209" s="12"/>
       <c r="F209" s="8"/>
-      <c r="G209" s="15"/>
+      <c r="G209" s="16"/>
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="9"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="11"/>
+      <c r="E210" s="12"/>
       <c r="F210" s="8"/>
-      <c r="G210" s="15"/>
+      <c r="G210" s="16"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="9"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="11"/>
+      <c r="E211" s="12"/>
       <c r="F211" s="8"/>
-      <c r="G211" s="15"/>
+      <c r="G211" s="16"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="9"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="11"/>
+      <c r="E212" s="12"/>
       <c r="F212" s="8"/>
-      <c r="G212" s="15"/>
+      <c r="G212" s="16"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="9"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="11"/>
+      <c r="E213" s="12"/>
       <c r="F213" s="8"/>
-      <c r="G213" s="15"/>
+      <c r="G213" s="16"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="9"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="11"/>
+      <c r="E214" s="12"/>
       <c r="F214" s="8"/>
-      <c r="G214" s="15"/>
+      <c r="G214" s="16"/>
       <c r="H214" s="8"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="9"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="11"/>
+      <c r="E215" s="12"/>
       <c r="F215" s="8"/>
-      <c r="G215" s="15"/>
+      <c r="G215" s="16"/>
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="9"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="11"/>
+      <c r="E216" s="12"/>
       <c r="F216" s="8"/>
-      <c r="G216" s="15"/>
+      <c r="G216" s="16"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="9"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="11"/>
+      <c r="E217" s="12"/>
       <c r="F217" s="8"/>
-      <c r="G217" s="15"/>
+      <c r="G217" s="16"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>25</v>
       </c>
-      <c r="B218" s="15"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="9"/>
       <c r="D218" s="7"/>
-      <c r="E218" s="11"/>
+      <c r="E218" s="12"/>
       <c r="F218" s="8"/>
-      <c r="G218" s="15"/>
+      <c r="G218" s="16"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="9"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="11"/>
+      <c r="E219" s="12"/>
       <c r="F219" s="8"/>
-      <c r="G219" s="15"/>
+      <c r="G219" s="16"/>
       <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="9"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="11"/>
+      <c r="E220" s="12"/>
       <c r="F220" s="8"/>
-      <c r="G220" s="15"/>
+      <c r="G220" s="16"/>
       <c r="H220" s="8"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="9"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="11"/>
+      <c r="E221" s="12"/>
       <c r="F221" s="8"/>
-      <c r="G221" s="15"/>
+      <c r="G221" s="16"/>
       <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="9"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="11"/>
+      <c r="E222" s="12"/>
       <c r="F222" s="8"/>
-      <c r="G222" s="15"/>
+      <c r="G222" s="16"/>
       <c r="H222" s="8"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="9"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="11"/>
+      <c r="E223" s="12"/>
       <c r="F223" s="8"/>
-      <c r="G223" s="15"/>
+      <c r="G223" s="16"/>
       <c r="H223" s="8"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="9"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="11"/>
+      <c r="E224" s="12"/>
       <c r="F224" s="8"/>
-      <c r="G224" s="15"/>
+      <c r="G224" s="16"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="9"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="11"/>
+      <c r="E225" s="12"/>
       <c r="F225" s="8"/>
-      <c r="G225" s="15"/>
+      <c r="G225" s="16"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="9"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="11"/>
+      <c r="E226" s="12"/>
       <c r="F226" s="8"/>
-      <c r="G226" s="15"/>
+      <c r="G226" s="16"/>
       <c r="H226" s="8"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>26</v>
       </c>
-      <c r="B227" s="15"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="9"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="11"/>
+      <c r="E227" s="12"/>
       <c r="F227" s="8"/>
-      <c r="G227" s="15"/>
+      <c r="G227" s="16"/>
       <c r="H227" s="8"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="9"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="11"/>
+      <c r="E228" s="12"/>
       <c r="F228" s="8"/>
-      <c r="G228" s="15"/>
+      <c r="G228" s="16"/>
       <c r="H228" s="8"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="9"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="11"/>
+      <c r="E229" s="12"/>
       <c r="F229" s="8"/>
-      <c r="G229" s="15"/>
+      <c r="G229" s="16"/>
       <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="9"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="11"/>
+      <c r="E230" s="12"/>
       <c r="F230" s="8"/>
-      <c r="G230" s="15"/>
+      <c r="G230" s="16"/>
       <c r="H230" s="8"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="9"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="11"/>
+      <c r="E231" s="12"/>
       <c r="F231" s="8"/>
-      <c r="G231" s="15"/>
+      <c r="G231" s="16"/>
       <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="9"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="11"/>
+      <c r="E232" s="12"/>
       <c r="F232" s="8"/>
-      <c r="G232" s="15"/>
+      <c r="G232" s="16"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="9"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="11"/>
+      <c r="E233" s="12"/>
       <c r="F233" s="8"/>
-      <c r="G233" s="15"/>
+      <c r="G233" s="16"/>
       <c r="H233" s="8"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="9"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="11"/>
+      <c r="E234" s="12"/>
       <c r="F234" s="8"/>
-      <c r="G234" s="15"/>
+      <c r="G234" s="16"/>
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="9"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="11"/>
+      <c r="E235" s="12"/>
       <c r="F235" s="8"/>
-      <c r="G235" s="15"/>
+      <c r="G235" s="16"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>27</v>
       </c>
-      <c r="B236" s="15"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="9"/>
       <c r="D236" s="7"/>
-      <c r="E236" s="11"/>
+      <c r="E236" s="12"/>
       <c r="F236" s="8"/>
-      <c r="G236" s="15"/>
+      <c r="G236" s="16"/>
       <c r="H236" s="8"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="9"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="11"/>
+      <c r="E237" s="12"/>
       <c r="F237" s="8"/>
-      <c r="G237" s="15"/>
+      <c r="G237" s="16"/>
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="9"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="11"/>
+      <c r="E238" s="12"/>
       <c r="F238" s="8"/>
-      <c r="G238" s="15"/>
+      <c r="G238" s="16"/>
       <c r="H238" s="8"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="9"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="11"/>
+      <c r="E239" s="12"/>
       <c r="F239" s="8"/>
-      <c r="G239" s="15"/>
+      <c r="G239" s="16"/>
       <c r="H239" s="8"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="9"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="11"/>
+      <c r="E240" s="12"/>
       <c r="F240" s="8"/>
-      <c r="G240" s="15"/>
+      <c r="G240" s="16"/>
       <c r="H240" s="8"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="9"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="12"/>
       <c r="F241" s="8"/>
-      <c r="G241" s="15"/>
+      <c r="G241" s="16"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="9"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="11"/>
+      <c r="E242" s="12"/>
       <c r="F242" s="8"/>
-      <c r="G242" s="15"/>
+      <c r="G242" s="16"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="9"/>
       <c r="D243" s="8"/>
-      <c r="E243" s="11"/>
+      <c r="E243" s="12"/>
       <c r="F243" s="8"/>
-      <c r="G243" s="15"/>
+      <c r="G243" s="16"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="9"/>
       <c r="D244" s="8"/>
-      <c r="E244" s="11"/>
+      <c r="E244" s="12"/>
       <c r="F244" s="8"/>
-      <c r="G244" s="15"/>
+      <c r="G244" s="16"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>28</v>
       </c>
-      <c r="B245" s="15"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="9"/>
       <c r="D245" s="7"/>
-      <c r="E245" s="11"/>
+      <c r="E245" s="12"/>
       <c r="F245" s="8"/>
-      <c r="G245" s="15"/>
+      <c r="G245" s="16"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="9"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="11"/>
+      <c r="E246" s="12"/>
       <c r="F246" s="8"/>
-      <c r="G246" s="15"/>
+      <c r="G246" s="16"/>
       <c r="H246" s="8"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="9"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="11"/>
+      <c r="E247" s="12"/>
       <c r="F247" s="8"/>
-      <c r="G247" s="15"/>
+      <c r="G247" s="16"/>
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="9"/>
       <c r="D248" s="8"/>
-      <c r="E248" s="11"/>
+      <c r="E248" s="12"/>
       <c r="F248" s="8"/>
-      <c r="G248" s="15"/>
+      <c r="G248" s="16"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="9"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="11"/>
+      <c r="E249" s="12"/>
       <c r="F249" s="8"/>
-      <c r="G249" s="15"/>
+      <c r="G249" s="16"/>
       <c r="H249" s="8"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="9"/>
       <c r="D250" s="8"/>
-      <c r="E250" s="11"/>
+      <c r="E250" s="12"/>
       <c r="F250" s="8"/>
-      <c r="G250" s="15"/>
+      <c r="G250" s="16"/>
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="9"/>
       <c r="D251" s="8"/>
-      <c r="E251" s="11"/>
+      <c r="E251" s="12"/>
       <c r="F251" s="8"/>
-      <c r="G251" s="15"/>
+      <c r="G251" s="16"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="9"/>
       <c r="D252" s="8"/>
-      <c r="E252" s="11"/>
+      <c r="E252" s="12"/>
       <c r="F252" s="8"/>
-      <c r="G252" s="15"/>
+      <c r="G252" s="16"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="9"/>
       <c r="D253" s="8"/>
-      <c r="E253" s="11"/>
+      <c r="E253" s="12"/>
       <c r="F253" s="8"/>
-      <c r="G253" s="15"/>
+      <c r="G253" s="16"/>
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>29</v>
       </c>
-      <c r="B254" s="15"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="9"/>
       <c r="D254" s="7"/>
-      <c r="E254" s="11"/>
+      <c r="E254" s="12"/>
       <c r="F254" s="8"/>
-      <c r="G254" s="15"/>
+      <c r="G254" s="16"/>
       <c r="H254" s="8"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="9"/>
       <c r="D255" s="8"/>
-      <c r="E255" s="11"/>
+      <c r="E255" s="12"/>
       <c r="F255" s="8"/>
-      <c r="G255" s="15"/>
+      <c r="G255" s="16"/>
       <c r="H255" s="8"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="9"/>
       <c r="D256" s="8"/>
-      <c r="E256" s="11"/>
+      <c r="E256" s="12"/>
       <c r="F256" s="8"/>
-      <c r="G256" s="15"/>
+      <c r="G256" s="16"/>
       <c r="H256" s="8"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="9"/>
       <c r="D257" s="8"/>
-      <c r="E257" s="11"/>
+      <c r="E257" s="12"/>
       <c r="F257" s="8"/>
-      <c r="G257" s="15"/>
+      <c r="G257" s="16"/>
       <c r="H257" s="8"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="9"/>
       <c r="D258" s="8"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="12"/>
       <c r="F258" s="8"/>
-      <c r="G258" s="15"/>
+      <c r="G258" s="16"/>
       <c r="H258" s="8"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="9"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="11"/>
+      <c r="E259" s="12"/>
       <c r="F259" s="8"/>
-      <c r="G259" s="15"/>
+      <c r="G259" s="16"/>
       <c r="H259" s="8"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
-      <c r="B260" s="15"/>
+      <c r="B260" s="16"/>
       <c r="C260" s="9"/>
       <c r="D260" s="8"/>
-      <c r="E260" s="11"/>
+      <c r="E260" s="12"/>
       <c r="F260" s="8"/>
-      <c r="G260" s="15"/>
+      <c r="G260" s="16"/>
       <c r="H260" s="8"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
-      <c r="B261" s="15"/>
+      <c r="B261" s="16"/>
       <c r="C261" s="9"/>
       <c r="D261" s="8"/>
-      <c r="E261" s="11"/>
+      <c r="E261" s="12"/>
       <c r="F261" s="8"/>
-      <c r="G261" s="15"/>
+      <c r="G261" s="16"/>
       <c r="H261" s="8"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
-      <c r="B262" s="15"/>
+      <c r="B262" s="16"/>
       <c r="C262" s="9"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="11"/>
+      <c r="E262" s="12"/>
       <c r="F262" s="8"/>
-      <c r="G262" s="15"/>
+      <c r="G262" s="16"/>
       <c r="H262" s="8"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>30</v>
       </c>
-      <c r="B263" s="15"/>
+      <c r="B263" s="16"/>
       <c r="C263" s="9"/>
       <c r="D263" s="7"/>
-      <c r="E263" s="11"/>
+      <c r="E263" s="12"/>
       <c r="F263" s="8"/>
-      <c r="G263" s="15"/>
+      <c r="G263" s="16"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
-      <c r="B264" s="15"/>
+      <c r="B264" s="16"/>
       <c r="C264" s="9"/>
       <c r="D264" s="8"/>
-      <c r="E264" s="11"/>
+      <c r="E264" s="12"/>
       <c r="F264" s="8"/>
-      <c r="G264" s="15"/>
+      <c r="G264" s="16"/>
       <c r="H264" s="8"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
-      <c r="B265" s="15"/>
+      <c r="B265" s="16"/>
       <c r="C265" s="9"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="11"/>
+      <c r="E265" s="12"/>
       <c r="F265" s="8"/>
-      <c r="G265" s="15"/>
+      <c r="G265" s="16"/>
       <c r="H265" s="8"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="9"/>
       <c r="D266" s="8"/>
-      <c r="E266" s="11"/>
+      <c r="E266" s="12"/>
       <c r="F266" s="8"/>
-      <c r="G266" s="15"/>
+      <c r="G266" s="16"/>
       <c r="H266" s="8"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="9"/>
       <c r="D267" s="8"/>
-      <c r="E267" s="11"/>
+      <c r="E267" s="12"/>
       <c r="F267" s="8"/>
-      <c r="G267" s="15"/>
+      <c r="G267" s="16"/>
       <c r="H267" s="8"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="9"/>
       <c r="D268" s="8"/>
-      <c r="E268" s="11"/>
+      <c r="E268" s="12"/>
       <c r="F268" s="8"/>
-      <c r="G268" s="15"/>
+      <c r="G268" s="16"/>
       <c r="H268" s="8"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="9"/>
       <c r="D269" s="8"/>
-      <c r="E269" s="11"/>
+      <c r="E269" s="12"/>
       <c r="F269" s="8"/>
-      <c r="G269" s="15"/>
+      <c r="G269" s="16"/>
       <c r="H269" s="8"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
-      <c r="B270" s="15"/>
+      <c r="B270" s="16"/>
       <c r="C270" s="9"/>
       <c r="D270" s="8"/>
-      <c r="E270" s="11"/>
+      <c r="E270" s="12"/>
       <c r="F270" s="8"/>
-      <c r="G270" s="15"/>
+      <c r="G270" s="16"/>
       <c r="H270" s="8"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="9"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="11"/>
+      <c r="E271" s="12"/>
       <c r="F271" s="8"/>
-      <c r="G271" s="15"/>
+      <c r="G271" s="16"/>
       <c r="H271" s="8"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>31</v>
       </c>
-      <c r="B272" s="15"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="9"/>
       <c r="D272" s="7"/>
-      <c r="E272" s="11"/>
+      <c r="E272" s="12"/>
       <c r="F272" s="8"/>
-      <c r="G272" s="15"/>
+      <c r="G272" s="16"/>
       <c r="H272" s="8"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="9"/>
       <c r="D273" s="8"/>
-      <c r="E273" s="11"/>
+      <c r="E273" s="12"/>
       <c r="F273" s="8"/>
-      <c r="G273" s="15"/>
+      <c r="G273" s="16"/>
       <c r="H273" s="8"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="9"/>
       <c r="D274" s="8"/>
-      <c r="E274" s="11"/>
+      <c r="E274" s="12"/>
       <c r="F274" s="8"/>
-      <c r="G274" s="15"/>
+      <c r="G274" s="16"/>
       <c r="H274" s="8"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="9"/>
       <c r="D275" s="8"/>
-      <c r="E275" s="11"/>
+      <c r="E275" s="12"/>
       <c r="F275" s="8"/>
-      <c r="G275" s="15"/>
+      <c r="G275" s="16"/>
       <c r="H275" s="8"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
-      <c r="B276" s="15"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="9"/>
       <c r="D276" s="8"/>
-      <c r="E276" s="11"/>
+      <c r="E276" s="12"/>
       <c r="F276" s="8"/>
-      <c r="G276" s="15"/>
+      <c r="G276" s="16"/>
       <c r="H276" s="8"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="9"/>
       <c r="D277" s="8"/>
-      <c r="E277" s="11"/>
+      <c r="E277" s="12"/>
       <c r="F277" s="8"/>
-      <c r="G277" s="15"/>
+      <c r="G277" s="16"/>
       <c r="H277" s="8"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="9"/>
       <c r="D278" s="8"/>
-      <c r="E278" s="11"/>
+      <c r="E278" s="12"/>
       <c r="F278" s="8"/>
-      <c r="G278" s="15"/>
+      <c r="G278" s="16"/>
       <c r="H278" s="8"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="9"/>
       <c r="D279" s="8"/>
-      <c r="E279" s="11"/>
+      <c r="E279" s="12"/>
       <c r="F279" s="8"/>
-      <c r="G279" s="15"/>
+      <c r="G279" s="16"/>
       <c r="H279" s="8"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="9"/>
       <c r="D280" s="8"/>
-      <c r="E280" s="11"/>
+      <c r="E280" s="12"/>
       <c r="F280" s="8"/>
-      <c r="G280" s="15"/>
+      <c r="G280" s="16"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>32</v>
       </c>
-      <c r="B281" s="15"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="9"/>
       <c r="D281" s="7"/>
-      <c r="E281" s="11"/>
+      <c r="E281" s="12"/>
       <c r="F281" s="8"/>
-      <c r="G281" s="15"/>
+      <c r="G281" s="16"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
-      <c r="B282" s="15"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="9"/>
       <c r="D282" s="8"/>
-      <c r="E282" s="11"/>
+      <c r="E282" s="12"/>
       <c r="F282" s="8"/>
-      <c r="G282" s="15"/>
+      <c r="G282" s="16"/>
       <c r="H282" s="8"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
-      <c r="B283" s="15"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="9"/>
       <c r="D283" s="8"/>
-      <c r="E283" s="11"/>
+      <c r="E283" s="12"/>
       <c r="F283" s="8"/>
-      <c r="G283" s="15"/>
+      <c r="G283" s="16"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
-      <c r="B284" s="15"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="9"/>
       <c r="D284" s="8"/>
-      <c r="E284" s="11"/>
+      <c r="E284" s="12"/>
       <c r="F284" s="8"/>
-      <c r="G284" s="15"/>
+      <c r="G284" s="16"/>
       <c r="H284" s="8"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
-      <c r="B285" s="15"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="9"/>
       <c r="D285" s="8"/>
-      <c r="E285" s="11"/>
+      <c r="E285" s="12"/>
       <c r="F285" s="8"/>
-      <c r="G285" s="15"/>
+      <c r="G285" s="16"/>
       <c r="H285" s="8"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
-      <c r="B286" s="15"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="9"/>
       <c r="D286" s="8"/>
-      <c r="E286" s="11"/>
+      <c r="E286" s="12"/>
       <c r="F286" s="8"/>
-      <c r="G286" s="15"/>
+      <c r="G286" s="16"/>
       <c r="H286" s="8"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
-      <c r="B287" s="15"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="9"/>
       <c r="D287" s="8"/>
-      <c r="E287" s="11"/>
+      <c r="E287" s="12"/>
       <c r="F287" s="8"/>
-      <c r="G287" s="15"/>
+      <c r="G287" s="16"/>
       <c r="H287" s="8"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
-      <c r="B288" s="15"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="9"/>
       <c r="D288" s="8"/>
-      <c r="E288" s="11"/>
+      <c r="E288" s="12"/>
       <c r="F288" s="8"/>
-      <c r="G288" s="15"/>
+      <c r="G288" s="16"/>
       <c r="H288" s="8"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
-      <c r="B289" s="15"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="9"/>
       <c r="D289" s="8"/>
-      <c r="E289" s="11"/>
+      <c r="E289" s="12"/>
       <c r="F289" s="8"/>
-      <c r="G289" s="15"/>
+      <c r="G289" s="16"/>
       <c r="H289" s="8"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>33</v>
       </c>
-      <c r="B290" s="15"/>
+      <c r="B290" s="16"/>
       <c r="C290" s="9"/>
       <c r="D290" s="7"/>
-      <c r="E290" s="11"/>
+      <c r="E290" s="12"/>
       <c r="F290" s="8"/>
-      <c r="G290" s="15"/>
+      <c r="G290" s="16"/>
       <c r="H290" s="8"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
-      <c r="B291" s="15"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="9"/>
       <c r="D291" s="8"/>
-      <c r="E291" s="11"/>
+      <c r="E291" s="12"/>
       <c r="F291" s="8"/>
-      <c r="G291" s="15"/>
+      <c r="G291" s="16"/>
       <c r="H291" s="8"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="16"/>
       <c r="C292" s="9"/>
       <c r="D292" s="8"/>
-      <c r="E292" s="11"/>
+      <c r="E292" s="12"/>
       <c r="F292" s="8"/>
-      <c r="G292" s="15"/>
+      <c r="G292" s="16"/>
       <c r="H292" s="8"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
-      <c r="B293" s="15"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="9"/>
       <c r="D293" s="8"/>
-      <c r="E293" s="11"/>
+      <c r="E293" s="12"/>
       <c r="F293" s="8"/>
-      <c r="G293" s="15"/>
+      <c r="G293" s="16"/>
       <c r="H293" s="8"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="9"/>
       <c r="D294" s="8"/>
-      <c r="E294" s="11"/>
+      <c r="E294" s="12"/>
       <c r="F294" s="8"/>
-      <c r="G294" s="15"/>
+      <c r="G294" s="16"/>
       <c r="H294" s="8"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
-      <c r="B295" s="15"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="9"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="11"/>
+      <c r="E295" s="12"/>
       <c r="F295" s="8"/>
-      <c r="G295" s="15"/>
+      <c r="G295" s="16"/>
       <c r="H295" s="8"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
-      <c r="B296" s="15"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="9"/>
       <c r="D296" s="8"/>
-      <c r="E296" s="11"/>
+      <c r="E296" s="12"/>
       <c r="F296" s="8"/>
-      <c r="G296" s="15"/>
+      <c r="G296" s="16"/>
       <c r="H296" s="8"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
-      <c r="B297" s="15"/>
+      <c r="B297" s="16"/>
       <c r="C297" s="9"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="11"/>
+      <c r="E297" s="12"/>
       <c r="F297" s="8"/>
-      <c r="G297" s="15"/>
+      <c r="G297" s="16"/>
       <c r="H297" s="8"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
-      <c r="B298" s="15"/>
+      <c r="B298" s="16"/>
       <c r="C298" s="9"/>
       <c r="D298" s="8"/>
-      <c r="E298" s="11"/>
+      <c r="E298" s="12"/>
       <c r="F298" s="8"/>
-      <c r="G298" s="15"/>
+      <c r="G298" s="16"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>34</v>
       </c>
-      <c r="B299" s="15"/>
+      <c r="B299" s="16"/>
       <c r="C299" s="9"/>
       <c r="D299" s="7"/>
-      <c r="E299" s="11"/>
+      <c r="E299" s="12"/>
       <c r="F299" s="8"/>
-      <c r="G299" s="15"/>
+      <c r="G299" s="16"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
-      <c r="B300" s="15"/>
+      <c r="B300" s="16"/>
       <c r="C300" s="9"/>
       <c r="D300" s="8"/>
-      <c r="E300" s="11"/>
+      <c r="E300" s="12"/>
       <c r="F300" s="8"/>
-      <c r="G300" s="15"/>
+      <c r="G300" s="16"/>
       <c r="H300" s="8"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
-      <c r="B301" s="15"/>
+      <c r="B301" s="16"/>
       <c r="C301" s="9"/>
       <c r="D301" s="8"/>
-      <c r="E301" s="11"/>
+      <c r="E301" s="12"/>
       <c r="F301" s="8"/>
-      <c r="G301" s="15"/>
+      <c r="G301" s="16"/>
       <c r="H301" s="8"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
-      <c r="B302" s="15"/>
+      <c r="B302" s="16"/>
       <c r="C302" s="9"/>
       <c r="D302" s="8"/>
-      <c r="E302" s="11"/>
+      <c r="E302" s="12"/>
       <c r="F302" s="8"/>
-      <c r="G302" s="15"/>
+      <c r="G302" s="16"/>
       <c r="H302" s="8"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
-      <c r="B303" s="15"/>
+      <c r="B303" s="16"/>
       <c r="C303" s="9"/>
       <c r="D303" s="8"/>
-      <c r="E303" s="11"/>
+      <c r="E303" s="12"/>
       <c r="F303" s="8"/>
-      <c r="G303" s="15"/>
+      <c r="G303" s="16"/>
       <c r="H303" s="8"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
-      <c r="B304" s="15"/>
+      <c r="B304" s="16"/>
       <c r="C304" s="9"/>
       <c r="D304" s="8"/>
-      <c r="E304" s="11"/>
+      <c r="E304" s="12"/>
       <c r="F304" s="8"/>
-      <c r="G304" s="15"/>
+      <c r="G304" s="16"/>
       <c r="H304" s="8"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
-      <c r="B305" s="15"/>
+      <c r="B305" s="16"/>
       <c r="C305" s="9"/>
       <c r="D305" s="8"/>
-      <c r="E305" s="11"/>
+      <c r="E305" s="12"/>
       <c r="F305" s="8"/>
-      <c r="G305" s="15"/>
+      <c r="G305" s="16"/>
       <c r="H305" s="8"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
-      <c r="B306" s="15"/>
+      <c r="B306" s="16"/>
       <c r="C306" s="9"/>
       <c r="D306" s="8"/>
-      <c r="E306" s="11"/>
+      <c r="E306" s="12"/>
       <c r="F306" s="8"/>
-      <c r="G306" s="15"/>
+      <c r="G306" s="16"/>
       <c r="H306" s="8"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
-      <c r="B307" s="15"/>
+      <c r="B307" s="16"/>
       <c r="C307" s="9"/>
       <c r="D307" s="8"/>
-      <c r="E307" s="11"/>
+      <c r="E307" s="12"/>
       <c r="F307" s="8"/>
-      <c r="G307" s="15"/>
+      <c r="G307" s="16"/>
       <c r="H307" s="8"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>35</v>
       </c>
-      <c r="B308" s="15"/>
+      <c r="B308" s="16"/>
       <c r="C308" s="9"/>
       <c r="D308" s="7"/>
-      <c r="E308" s="11"/>
+      <c r="E308" s="12"/>
       <c r="F308" s="8"/>
-      <c r="G308" s="15"/>
+      <c r="G308" s="16"/>
       <c r="H308" s="8"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
-      <c r="B309" s="15"/>
+      <c r="B309" s="16"/>
       <c r="C309" s="9"/>
       <c r="D309" s="8"/>
-      <c r="E309" s="11"/>
+      <c r="E309" s="12"/>
       <c r="F309" s="8"/>
-      <c r="G309" s="15"/>
+      <c r="G309" s="16"/>
       <c r="H309" s="8"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
-      <c r="B310" s="15"/>
+      <c r="B310" s="16"/>
       <c r="C310" s="9"/>
       <c r="D310" s="8"/>
-      <c r="E310" s="11"/>
+      <c r="E310" s="12"/>
       <c r="F310" s="8"/>
-      <c r="G310" s="15"/>
+      <c r="G310" s="16"/>
       <c r="H310" s="8"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
-      <c r="B311" s="15"/>
+      <c r="B311" s="16"/>
       <c r="C311" s="9"/>
       <c r="D311" s="8"/>
-      <c r="E311" s="11"/>
+      <c r="E311" s="12"/>
       <c r="F311" s="8"/>
-      <c r="G311" s="15"/>
+      <c r="G311" s="16"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="16"/>
       <c r="C312" s="9"/>
       <c r="D312" s="8"/>
-      <c r="E312" s="11"/>
+      <c r="E312" s="12"/>
       <c r="F312" s="8"/>
-      <c r="G312" s="15"/>
+      <c r="G312" s="16"/>
       <c r="H312" s="8"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
-      <c r="B313" s="15"/>
+      <c r="B313" s="16"/>
       <c r="C313" s="9"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="11"/>
+      <c r="E313" s="12"/>
       <c r="F313" s="8"/>
-      <c r="G313" s="15"/>
+      <c r="G313" s="16"/>
       <c r="H313" s="8"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
-      <c r="B314" s="15"/>
+      <c r="B314" s="16"/>
       <c r="C314" s="9"/>
       <c r="D314" s="8"/>
-      <c r="E314" s="11"/>
+      <c r="E314" s="12"/>
       <c r="F314" s="8"/>
-      <c r="G314" s="15"/>
+      <c r="G314" s="16"/>
       <c r="H314" s="8"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
-      <c r="B315" s="15"/>
+      <c r="B315" s="16"/>
       <c r="C315" s="9"/>
       <c r="D315" s="8"/>
-      <c r="E315" s="11"/>
+      <c r="E315" s="12"/>
       <c r="F315" s="8"/>
-      <c r="G315" s="15"/>
+      <c r="G315" s="16"/>
       <c r="H315" s="8"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
-      <c r="B316" s="15"/>
+      <c r="B316" s="16"/>
       <c r="C316" s="9"/>
       <c r="D316" s="8"/>
-      <c r="E316" s="11"/>
+      <c r="E316" s="12"/>
       <c r="F316" s="8"/>
-      <c r="G316" s="15"/>
+      <c r="G316" s="16"/>
       <c r="H316" s="8"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>36</v>
       </c>
-      <c r="B317" s="15"/>
+      <c r="B317" s="16"/>
       <c r="C317" s="9"/>
       <c r="D317" s="7"/>
-      <c r="E317" s="11"/>
+      <c r="E317" s="12"/>
       <c r="F317" s="8"/>
       <c r="H317" s="8"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
-      <c r="B318" s="15"/>
+      <c r="B318" s="16"/>
       <c r="C318" s="9"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="11"/>
+      <c r="E318" s="12"/>
       <c r="F318" s="8"/>
       <c r="H318" s="8"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
-      <c r="B319" s="15"/>
+      <c r="B319" s="16"/>
       <c r="C319" s="9"/>
       <c r="D319" s="8"/>
-      <c r="E319" s="11"/>
+      <c r="E319" s="12"/>
       <c r="F319" s="8"/>
       <c r="H319" s="8"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
-      <c r="B320" s="15"/>
+      <c r="B320" s="16"/>
       <c r="C320" s="9"/>
       <c r="D320" s="8"/>
-      <c r="E320" s="11"/>
+      <c r="E320" s="12"/>
       <c r="F320" s="8"/>
       <c r="H320" s="8"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
-      <c r="B321" s="15"/>
+      <c r="B321" s="16"/>
       <c r="C321" s="9"/>
       <c r="D321" s="8"/>
-      <c r="E321" s="11"/>
+      <c r="E321" s="12"/>
       <c r="F321" s="8"/>
       <c r="H321" s="8"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
-      <c r="B322" s="15"/>
+      <c r="B322" s="16"/>
       <c r="C322" s="9"/>
       <c r="D322" s="8"/>
-      <c r="E322" s="11"/>
+      <c r="E322" s="12"/>
       <c r="F322" s="8"/>
       <c r="H322" s="8"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
-      <c r="B323" s="15"/>
+      <c r="B323" s="16"/>
       <c r="C323" s="9"/>
       <c r="D323" s="8"/>
-      <c r="E323" s="11"/>
+      <c r="E323" s="12"/>
       <c r="F323" s="8"/>
       <c r="H323" s="8"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
-      <c r="B324" s="15"/>
+      <c r="B324" s="16"/>
       <c r="C324" s="9"/>
       <c r="D324" s="8"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="12"/>
       <c r="F324" s="8"/>
       <c r="H324" s="8"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
-      <c r="B325" s="15"/>
+      <c r="B325" s="16"/>
       <c r="C325" s="9"/>
       <c r="D325" s="8"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="12"/>
       <c r="F325" s="8"/>
       <c r="H325" s="8"/>
     </row>
@@ -5253,326 +5338,326 @@
       <c r="A326" s="9">
         <v>37</v>
       </c>
-      <c r="B326" s="15"/>
+      <c r="B326" s="16"/>
       <c r="C326" s="9"/>
       <c r="D326" s="7"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="12"/>
       <c r="F326" s="8"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
-      <c r="B327" s="15"/>
+      <c r="B327" s="16"/>
       <c r="C327" s="9"/>
       <c r="D327" s="8"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="12"/>
       <c r="F327" s="8"/>
       <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
-      <c r="B328" s="15"/>
+      <c r="B328" s="16"/>
       <c r="C328" s="9"/>
       <c r="D328" s="8"/>
-      <c r="E328" s="11"/>
+      <c r="E328" s="12"/>
       <c r="F328" s="8"/>
       <c r="H328" s="8"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
-      <c r="B329" s="15"/>
+      <c r="B329" s="16"/>
       <c r="C329" s="9"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="12"/>
       <c r="F329" s="8"/>
       <c r="H329" s="8"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
-      <c r="B330" s="15"/>
+      <c r="B330" s="16"/>
       <c r="C330" s="9"/>
       <c r="D330" s="8"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="12"/>
       <c r="F330" s="8"/>
       <c r="H330" s="8"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="16"/>
       <c r="C331" s="9"/>
       <c r="D331" s="8"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="12"/>
       <c r="F331" s="8"/>
       <c r="H331" s="8"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="16"/>
       <c r="C332" s="9"/>
       <c r="D332" s="8"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="12"/>
       <c r="F332" s="8"/>
       <c r="H332" s="8"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
-      <c r="B333" s="15"/>
+      <c r="B333" s="16"/>
       <c r="C333" s="9"/>
       <c r="D333" s="8"/>
-      <c r="E333" s="11"/>
+      <c r="E333" s="12"/>
       <c r="F333" s="8"/>
       <c r="H333" s="8"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="9"/>
       <c r="D334" s="8"/>
-      <c r="E334" s="11"/>
+      <c r="E334" s="12"/>
       <c r="F334" s="8"/>
       <c r="H334" s="8"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B335" s="15"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="9"/>
       <c r="D335" s="7"/>
-      <c r="E335" s="11"/>
+      <c r="E335" s="12"/>
       <c r="F335" s="8"/>
       <c r="H335" s="8"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B336" s="15"/>
+      <c r="B336" s="16"/>
       <c r="C336" s="9"/>
       <c r="D336" s="8"/>
-      <c r="E336" s="11"/>
+      <c r="E336" s="12"/>
       <c r="F336" s="8"/>
       <c r="H336" s="8"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B337" s="15"/>
+      <c r="B337" s="16"/>
       <c r="C337" s="9"/>
       <c r="D337" s="8"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="12"/>
       <c r="F337" s="8"/>
       <c r="H337" s="8"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B338" s="15"/>
+      <c r="B338" s="16"/>
       <c r="C338" s="9"/>
       <c r="D338" s="8"/>
-      <c r="E338" s="11"/>
+      <c r="E338" s="12"/>
       <c r="F338" s="8"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B339" s="15"/>
+      <c r="B339" s="16"/>
       <c r="C339" s="9"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="11"/>
+      <c r="E339" s="12"/>
       <c r="F339" s="8"/>
       <c r="H339" s="8"/>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B340" s="15"/>
+      <c r="B340" s="16"/>
       <c r="C340" s="9"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="11"/>
+      <c r="E340" s="12"/>
       <c r="F340" s="8"/>
       <c r="H340" s="8"/>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B341" s="15"/>
+      <c r="B341" s="16"/>
       <c r="C341" s="9"/>
       <c r="D341" s="8"/>
-      <c r="E341" s="11"/>
+      <c r="E341" s="12"/>
       <c r="F341" s="8"/>
       <c r="H341" s="8"/>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B342" s="15"/>
+      <c r="B342" s="16"/>
       <c r="C342" s="9"/>
       <c r="D342" s="8"/>
-      <c r="E342" s="11"/>
+      <c r="E342" s="12"/>
       <c r="F342" s="8"/>
       <c r="H342" s="8"/>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B343" s="15"/>
+      <c r="B343" s="16"/>
       <c r="C343" s="9"/>
       <c r="D343" s="8"/>
-      <c r="E343" s="11"/>
+      <c r="E343" s="12"/>
       <c r="F343" s="8"/>
       <c r="H343" s="8"/>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B344" s="15"/>
+      <c r="B344" s="16"/>
       <c r="C344" s="9"/>
       <c r="D344" s="7"/>
-      <c r="E344" s="11"/>
+      <c r="E344" s="12"/>
       <c r="F344" s="8"/>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B345" s="15"/>
+      <c r="B345" s="16"/>
       <c r="C345" s="9"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="11"/>
+      <c r="E345" s="12"/>
       <c r="F345" s="8"/>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B346" s="15"/>
+      <c r="B346" s="16"/>
       <c r="C346" s="9"/>
       <c r="D346" s="8"/>
-      <c r="E346" s="11"/>
+      <c r="E346" s="12"/>
       <c r="F346" s="8"/>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B347" s="15"/>
+      <c r="B347" s="16"/>
       <c r="C347" s="9"/>
       <c r="D347" s="8"/>
-      <c r="E347" s="11"/>
+      <c r="E347" s="12"/>
       <c r="F347" s="8"/>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B348" s="15"/>
+      <c r="B348" s="16"/>
       <c r="C348" s="9"/>
       <c r="D348" s="8"/>
-      <c r="E348" s="11"/>
+      <c r="E348" s="12"/>
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B349" s="15"/>
+      <c r="B349" s="16"/>
       <c r="C349" s="9"/>
       <c r="D349" s="8"/>
-      <c r="E349" s="11"/>
+      <c r="E349" s="12"/>
       <c r="F349" s="8"/>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B350" s="15"/>
+      <c r="B350" s="16"/>
       <c r="C350" s="9"/>
       <c r="D350" s="8"/>
-      <c r="E350" s="11"/>
+      <c r="E350" s="12"/>
       <c r="F350" s="8"/>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B351" s="15"/>
+      <c r="B351" s="16"/>
       <c r="C351" s="9"/>
       <c r="D351" s="8"/>
-      <c r="E351" s="11"/>
+      <c r="E351" s="12"/>
       <c r="F351" s="8"/>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B352" s="15"/>
+      <c r="B352" s="16"/>
       <c r="C352" s="9"/>
       <c r="D352" s="8"/>
-      <c r="E352" s="11"/>
+      <c r="E352" s="12"/>
       <c r="F352" s="8"/>
     </row>
     <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="9"/>
       <c r="D353" s="7"/>
-      <c r="E353" s="11"/>
+      <c r="E353" s="12"/>
       <c r="F353" s="8"/>
     </row>
     <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="9"/>
       <c r="D354" s="8"/>
-      <c r="E354" s="11"/>
+      <c r="E354" s="12"/>
       <c r="F354" s="8"/>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="9"/>
       <c r="D355" s="8"/>
-      <c r="E355" s="11"/>
+      <c r="E355" s="12"/>
       <c r="F355" s="8"/>
     </row>
     <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="9"/>
       <c r="D356" s="8"/>
-      <c r="E356" s="11"/>
+      <c r="E356" s="12"/>
       <c r="F356" s="8"/>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="9"/>
       <c r="D357" s="8"/>
-      <c r="E357" s="11"/>
+      <c r="E357" s="12"/>
       <c r="F357" s="8"/>
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="9"/>
       <c r="D358" s="8"/>
-      <c r="E358" s="11"/>
+      <c r="E358" s="12"/>
       <c r="F358" s="8"/>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="9"/>
       <c r="D359" s="8"/>
-      <c r="E359" s="11"/>
+      <c r="E359" s="12"/>
       <c r="F359" s="8"/>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="9"/>
       <c r="D360" s="8"/>
-      <c r="E360" s="11"/>
+      <c r="E360" s="12"/>
       <c r="F360" s="8"/>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="9"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="11"/>
+      <c r="E361" s="12"/>
       <c r="F361" s="8"/>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="9"/>
       <c r="D362" s="7"/>
-      <c r="E362" s="11"/>
+      <c r="E362" s="12"/>
       <c r="F362" s="8"/>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="9"/>
       <c r="D363" s="8"/>
-      <c r="E363" s="11"/>
+      <c r="E363" s="12"/>
       <c r="F363" s="8"/>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="9"/>
       <c r="D364" s="8"/>
-      <c r="E364" s="11"/>
+      <c r="E364" s="12"/>
       <c r="F364" s="8"/>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="9"/>
       <c r="D365" s="8"/>
-      <c r="E365" s="11"/>
+      <c r="E365" s="12"/>
       <c r="F365" s="8"/>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="9"/>
       <c r="D366" s="8"/>
-      <c r="E366" s="11"/>
+      <c r="E366" s="12"/>
       <c r="F366" s="8"/>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="9"/>
       <c r="D367" s="8"/>
-      <c r="E367" s="11"/>
+      <c r="E367" s="12"/>
       <c r="F367" s="8"/>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="9"/>
       <c r="D368" s="8"/>
-      <c r="E368" s="11"/>
+      <c r="E368" s="12"/>
       <c r="F368" s="8"/>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="9"/>
       <c r="D369" s="8"/>
-      <c r="E369" s="11"/>
+      <c r="E369" s="12"/>
       <c r="F369" s="8"/>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="9"/>
       <c r="D370" s="8"/>
-      <c r="E370" s="11"/>
+      <c r="E370" s="12"/>
       <c r="F370" s="8"/>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.3">
